--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{214A04C3-E4AD-49FC-AC1A-8468B2A77F2B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B241B69-3BEF-481F-847F-34A7E3791D85}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Enemy</t>
   </si>
@@ -42,40 +42,46 @@
     <t>maxMoveSpeed</t>
   </si>
   <si>
-    <t>45 3 7 0</t>
-  </si>
-  <si>
-    <t>70 3 19 0</t>
-  </si>
-  <si>
-    <t>45 6 15 0</t>
-  </si>
-  <si>
-    <t>140 3 30 0</t>
-  </si>
-  <si>
-    <t>140 4 25 0</t>
-  </si>
-  <si>
-    <t>120 5 20 0</t>
-  </si>
-  <si>
-    <t>160 3 25 0</t>
-  </si>
-  <si>
-    <t>500 2 60 0</t>
-  </si>
-  <si>
-    <t>300 4 40 0</t>
-  </si>
-  <si>
-    <t>400 3 40 0</t>
-  </si>
-  <si>
-    <t>250 5 35 0</t>
-  </si>
-  <si>
-    <t>1000 4 100 0</t>
+    <t>WIP:</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>ability1</t>
+  </si>
+  <si>
+    <t>ability2</t>
+  </si>
+  <si>
+    <t>armorType</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Time to finish (seconds)</t>
+  </si>
+  <si>
+    <t>32-64</t>
+  </si>
+  <si>
+    <t>31-16</t>
+  </si>
+  <si>
+    <t>15-11</t>
+  </si>
+  <si>
+    <t>10-8</t>
+  </si>
+  <si>
+    <t>numberOfEnemies</t>
+  </si>
+  <si>
+    <t>goldGivenInRound</t>
+  </si>
+  <si>
+    <t>totalGoldGiven</t>
   </si>
 </sst>
 </file>
@@ -111,8 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,15 +435,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213EF013-6C3B-49C1-962D-F4582BD477E0}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,68 +479,480 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <f>SUM(F2*D2)</f>
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="R2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="0">SUM(F3*D3)</f>
+        <v>285</v>
+      </c>
+      <c r="H3">
+        <f>SUM(G3+G2)</f>
+        <v>325</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="R3" s="2">
+        <v>4</v>
+      </c>
+      <c r="S3">
+        <f>SUM(R2-R3)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>45</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H13" si="1">SUM(G4+G3)</f>
+        <v>435</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="R4" s="2">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <f>SUM(R3-R4)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>140</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="R5" s="2">
+        <v>8</v>
+      </c>
+      <c r="S5">
+        <f t="shared" ref="S5:S12" si="2">SUM(R4-R5)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>7</v>
+      </c>
+      <c r="R6" s="2">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>6</v>
+      </c>
+      <c r="R7" s="2">
+        <v>12</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5</v>
+      </c>
+      <c r="R8" s="2">
+        <v>14</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>500</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2">
         <v>16</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>3</v>
+      </c>
+      <c r="R10" s="2">
+        <v>23</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>400</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>32</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>35</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2">
+        <v>65</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>1350</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B241B69-3BEF-481F-847F-34A7E3791D85}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C21565BA-E1D9-4775-920F-A64A012ECE2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C21565BA-E1D9-4775-920F-A64A012ECE2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{41DB9D30-C032-47CF-92EB-6C4A5AA10DFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,23 +515,23 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <f>SUM(F2*D2)</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -568,7 +568,7 @@
       </c>
       <c r="H3">
         <f>SUM(G3+G2)</f>
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>13</v>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{41DB9D30-C032-47CF-92EB-6C4A5AA10DFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{58CC4FBF-AA19-43C7-A1F9-9C00DFDD4BFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,8 @@
         <v>60</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <f>SUM(G2)</f>
+        <v>60</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>12</v>
@@ -548,27 +549,27 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G13" si="0">SUM(F3*D3)</f>
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="H3">
-        <f>SUM(G3+G2)</f>
-        <v>345</v>
+        <f>SUM(G3+H2)</f>
+        <v>140</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>13</v>
@@ -586,27 +587,27 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H13" si="1">SUM(G4+G3)</f>
-        <v>435</v>
+        <f t="shared" ref="H4:H13" si="1">SUM(G4+H3)</f>
+        <v>240</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>14</v>
@@ -630,21 +631,21 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
-        <v>450</v>
+        <f>SUM(G5+H4)</f>
+        <v>366</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>15</v>
@@ -662,27 +663,27 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>506</v>
       </c>
       <c r="Q6" s="1">
         <v>7</v>
@@ -700,27 +701,27 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>20</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>666</v>
       </c>
       <c r="Q7" s="1">
         <v>6</v>
@@ -738,27 +739,27 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>846</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
@@ -776,27 +777,27 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>198</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>1044</v>
       </c>
       <c r="Q9" s="1">
         <v>4</v>
@@ -834,7 +835,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>1444</v>
       </c>
       <c r="Q10" s="1">
         <v>3</v>
@@ -872,7 +873,7 @@
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>800</v>
+        <v>1844</v>
       </c>
       <c r="Q11" s="1">
         <v>2</v>
@@ -910,7 +911,7 @@
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>750</v>
+        <v>2194</v>
       </c>
       <c r="Q12" s="1">
         <v>1</v>
@@ -948,7 +949,7 @@
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>1350</v>
+        <v>3194</v>
       </c>
     </row>
   </sheetData>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{58CC4FBF-AA19-43C7-A1F9-9C00DFDD4BFC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5729AC0E-E657-4A5D-8BEC-2CC5524DC8EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +537,10 @@
         <f>SUM(G2)</f>
         <v>60</v>
       </c>
+      <c r="I2">
+        <f>SUM(F2*B2)</f>
+        <v>288</v>
+      </c>
       <c r="Q2" s="1" t="s">
         <v>12</v>
       </c>
@@ -571,6 +575,10 @@
         <f>SUM(G3+H2)</f>
         <v>140</v>
       </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="1">SUM(F3*B3)</f>
+        <v>600</v>
+      </c>
       <c r="Q3" s="1" t="s">
         <v>13</v>
       </c>
@@ -606,8 +614,12 @@
         <v>100</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H13" si="1">SUM(G4+H3)</f>
+        <f t="shared" ref="H4:H13" si="2">SUM(G4+H3)</f>
         <v>240</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>1100</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>14</v>
@@ -647,6 +659,10 @@
         <f>SUM(G5+H4)</f>
         <v>366</v>
       </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>1960</v>
+      </c>
       <c r="Q5" s="1" t="s">
         <v>15</v>
       </c>
@@ -654,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S12" si="2">SUM(R4-R5)</f>
+        <f t="shared" ref="S5:S12" si="3">SUM(R4-R5)</f>
         <v>-2</v>
       </c>
     </row>
@@ -682,8 +698,12 @@
         <v>140</v>
       </c>
       <c r="H6">
+        <f t="shared" si="2"/>
+        <v>506</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="1"/>
-        <v>506</v>
+        <v>2240</v>
       </c>
       <c r="Q6" s="1">
         <v>7</v>
@@ -692,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="S6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -720,8 +740,12 @@
         <v>160</v>
       </c>
       <c r="H7">
+        <f t="shared" si="2"/>
+        <v>666</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="1"/>
-        <v>666</v>
+        <v>3200</v>
       </c>
       <c r="Q7" s="1">
         <v>6</v>
@@ -730,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="S7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -758,8 +782,12 @@
         <v>180</v>
       </c>
       <c r="H8">
+        <f t="shared" si="2"/>
+        <v>846</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="1"/>
-        <v>846</v>
+        <v>4320</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
@@ -768,7 +796,7 @@
         <v>14</v>
       </c>
       <c r="S8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -796,8 +824,12 @@
         <v>198</v>
       </c>
       <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1044</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="1"/>
-        <v>1044</v>
+        <v>5400</v>
       </c>
       <c r="Q9" s="1">
         <v>4</v>
@@ -806,7 +838,7 @@
         <v>16</v>
       </c>
       <c r="S9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
@@ -834,8 +866,12 @@
         <v>400</v>
       </c>
       <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1444</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="1"/>
-        <v>1444</v>
+        <v>3000</v>
       </c>
       <c r="Q10" s="1">
         <v>3</v>
@@ -844,7 +880,7 @@
         <v>23</v>
       </c>
       <c r="S10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
     </row>
@@ -872,8 +908,12 @@
         <v>400</v>
       </c>
       <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1844</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="1"/>
-        <v>1844</v>
+        <v>4000</v>
       </c>
       <c r="Q11" s="1">
         <v>2</v>
@@ -882,7 +922,7 @@
         <v>32</v>
       </c>
       <c r="S11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
     </row>
@@ -910,8 +950,12 @@
         <v>350</v>
       </c>
       <c r="H12">
+        <f t="shared" si="2"/>
+        <v>2194</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="1"/>
-        <v>2194</v>
+        <v>2500</v>
       </c>
       <c r="Q12" s="1">
         <v>1</v>
@@ -920,7 +964,7 @@
         <v>65</v>
       </c>
       <c r="S12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-33</v>
       </c>
     </row>
@@ -948,8 +992,12 @@
         <v>1000</v>
       </c>
       <c r="H13">
+        <f t="shared" si="2"/>
+        <v>3194</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="1"/>
-        <v>3194</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5729AC0E-E657-4A5D-8BEC-2CC5524DC8EC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{274CD6AE-1B2F-4AFD-BC8E-FB45664384DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Enemy</t>
   </si>
@@ -82,6 +82,48 @@
   </si>
   <si>
     <t>totalGoldGiven</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>1-Slimes</t>
+  </si>
+  <si>
+    <t>2-Thing</t>
+  </si>
+  <si>
+    <t>3-Horse</t>
+  </si>
+  <si>
+    <t>4-Croc</t>
+  </si>
+  <si>
+    <t>5-Blobs</t>
+  </si>
+  <si>
+    <t>6-Ogres</t>
+  </si>
+  <si>
+    <t>7-Croc</t>
+  </si>
+  <si>
+    <t>8-R.Trtl</t>
+  </si>
+  <si>
+    <t>9-Mammoth</t>
+  </si>
+  <si>
+    <t>10-Beatle</t>
+  </si>
+  <si>
+    <t>11-Apparition</t>
+  </si>
+  <si>
+    <t>12-Mermaid</t>
+  </si>
+  <si>
+    <t>maxHP</t>
   </si>
 </sst>
 </file>
@@ -435,35 +477,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213EF013-6C3B-49C1-962D-F4582BD477E0}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2:I13"/>
+      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -477,42 +520,48 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>18</v>
       </c>
       <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -524,33 +573,36 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(E2*D2)</f>
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <f>SUM(H2)</f>
+        <v>60</v>
+      </c>
+      <c r="J2">
+        <f>SUM(E2*B2)</f>
+        <v>288</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2">
-        <f>SUM(F2*D2)</f>
-        <v>60</v>
-      </c>
-      <c r="H2">
-        <f>SUM(G2)</f>
-        <v>60</v>
-      </c>
-      <c r="I2">
-        <f>SUM(F2*B2)</f>
-        <v>288</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="S2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
       </c>
       <c r="B3">
         <v>60</v>
@@ -562,37 +614,40 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G13" si="0">SUM(F3*D3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>SUM(E3*D3)</f>
         <v>80</v>
       </c>
-      <c r="H3">
-        <f>SUM(G3+H2)</f>
+      <c r="I3">
+        <f>SUM(H3+I2)</f>
         <v>140</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I13" si="1">SUM(F3*B3)</f>
+      <c r="J3">
+        <f>SUM(E3*B3)</f>
         <v>600</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="2">
+      <c r="S3" s="2">
         <v>4</v>
       </c>
-      <c r="S3">
-        <f>SUM(R2-R3)</f>
+      <c r="T3">
+        <f>SUM(S2-S3)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
       </c>
       <c r="B4">
         <v>55</v>
@@ -604,37 +659,40 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUM(E4*D4)</f>
         <v>100</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H13" si="2">SUM(G4+H3)</f>
+      <c r="I4">
+        <f t="shared" ref="I4:I13" si="0">SUM(H4+I3)</f>
         <v>240</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="1"/>
+      <c r="J4">
+        <f>SUM(E4*B4)</f>
         <v>1100</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="2">
+      <c r="S4" s="2">
         <v>6</v>
       </c>
-      <c r="S4">
-        <f>SUM(R3-R4)</f>
+      <c r="T4">
+        <f>SUM(S3-S4)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
       </c>
       <c r="B5">
         <v>140</v>
@@ -646,37 +704,40 @@
         <v>9</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>SUM(E5*D5)</f>
         <v>126</v>
       </c>
-      <c r="H5">
-        <f>SUM(G5+H4)</f>
+      <c r="I5">
+        <f>SUM(H5+I4)</f>
         <v>366</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
+      <c r="J5">
+        <f>SUM(E5*B5)</f>
         <v>1960</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="2">
+      <c r="S5" s="2">
         <v>8</v>
       </c>
-      <c r="S5">
-        <f t="shared" ref="S5:S12" si="3">SUM(R4-R5)</f>
+      <c r="T5">
+        <f t="shared" ref="T5:T12" si="1">SUM(S4-S5)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
       </c>
       <c r="B6">
         <v>160</v>
@@ -688,37 +749,40 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>SUM(E6*D6)</f>
+        <v>140</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
         <v>506</v>
       </c>
-      <c r="I6">
+      <c r="J6">
+        <f>SUM(E6*B6)</f>
+        <v>2240</v>
+      </c>
+      <c r="R6" s="1">
+        <v>7</v>
+      </c>
+      <c r="S6" s="2">
+        <v>10</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="1"/>
-        <v>2240</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>7</v>
-      </c>
-      <c r="R6" s="2">
-        <v>10</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
       </c>
       <c r="B7">
         <v>160</v>
@@ -727,82 +791,88 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>SUM(E7*D7)</f>
+        <v>180</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>666</v>
-      </c>
-      <c r="I7">
+        <v>686</v>
+      </c>
+      <c r="J7">
+        <f>SUM(E7*B7)</f>
+        <v>3200</v>
+      </c>
+      <c r="R7" s="1">
+        <v>6</v>
+      </c>
+      <c r="S7" s="2">
+        <v>12</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="1"/>
-        <v>3200</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>6</v>
-      </c>
-      <c r="R7" s="2">
-        <v>12</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
       </c>
       <c r="B8">
         <v>240</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>SUM(E8*D8)</f>
+        <v>180</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>846</v>
-      </c>
-      <c r="I8">
+        <v>866</v>
+      </c>
+      <c r="J8">
+        <f>SUM(E8*B8)</f>
+        <v>4320</v>
+      </c>
+      <c r="R8" s="1">
+        <v>5</v>
+      </c>
+      <c r="S8" s="2">
+        <v>14</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="1"/>
-        <v>4320</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>5</v>
-      </c>
-      <c r="R8" s="2">
-        <v>14</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
       </c>
       <c r="B9">
         <v>300</v>
@@ -814,79 +884,85 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>SUM(E9*D9)</f>
+        <v>198</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
-        <v>198</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>1044</v>
-      </c>
-      <c r="I9">
+        <v>1064</v>
+      </c>
+      <c r="J9">
+        <f>SUM(E9*B9)</f>
+        <v>5400</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4</v>
+      </c>
+      <c r="S9" s="2">
+        <v>16</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="1"/>
-        <v>5400</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>4</v>
-      </c>
-      <c r="R9" s="2">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>560</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>16</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>300</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>SUM(E10*D10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>1444</v>
-      </c>
-      <c r="I10">
+        <v>1064</v>
+      </c>
+      <c r="J10">
+        <f>SUM(E10*B10)</f>
+        <v>8960</v>
+      </c>
+      <c r="R10" s="1">
+        <v>3</v>
+      </c>
+      <c r="S10" s="2">
+        <v>23</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>3</v>
-      </c>
-      <c r="R10" s="2">
-        <v>23</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
       </c>
       <c r="B11">
         <v>400</v>
@@ -898,37 +974,37 @@
         <v>40</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
         <v>10</v>
       </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>SUM(E11*D11)</f>
+        <v>400</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
-        <v>1844</v>
-      </c>
-      <c r="I11">
+        <v>1464</v>
+      </c>
+      <c r="J11">
+        <f>SUM(E11*B11)</f>
+        <v>4000</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>32</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2">
-        <v>32</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
       </c>
       <c r="B12">
         <v>250</v>
@@ -940,37 +1016,37 @@
         <v>35</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>SUM(E12*D12)</f>
+        <v>350</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
-        <v>2194</v>
-      </c>
-      <c r="I12">
+        <v>1814</v>
+      </c>
+      <c r="J12">
+        <f>SUM(E12*B12)</f>
+        <v>2500</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>65</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2">
-        <v>65</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
         <v>-33</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>31</v>
       </c>
       <c r="B13">
         <v>1000</v>
@@ -982,21 +1058,21 @@
         <v>100</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>SUM(E13*D13)</f>
+        <v>1000</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
-        <v>3194</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="1"/>
+        <v>2814</v>
+      </c>
+      <c r="J13">
+        <f>SUM(E13*B13)</f>
         <v>10000</v>
       </c>
     </row>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{274CD6AE-1B2F-4AFD-BC8E-FB45664384DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F52B71AA-4534-45C6-864B-02F7EFDBEF08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Enemy</t>
   </si>
@@ -105,9 +105,6 @@
     <t>6-Ogres</t>
   </si>
   <si>
-    <t>7-Croc</t>
-  </si>
-  <si>
     <t>8-R.Trtl</t>
   </si>
   <si>
@@ -124,6 +121,18 @@
   </si>
   <si>
     <t>maxHP</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>7-Alligato</t>
   </si>
 </sst>
 </file>
@@ -477,11 +486,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213EF013-6C3B-49C1-962D-F4582BD477E0}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,22 +500,22 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,40 +535,43 @@
         <v>19</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
       <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -578,29 +590,32 @@
       <c r="F2">
         <v>14</v>
       </c>
-      <c r="G2">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>32</v>
       </c>
       <c r="H2">
-        <f>SUM(E2*D2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I13" si="0">SUM(E2*D2)</f>
         <v>60</v>
       </c>
-      <c r="I2">
-        <f>SUM(H2)</f>
+      <c r="J2">
+        <f>SUM(I2)</f>
         <v>60</v>
       </c>
-      <c r="J2">
-        <f>SUM(E2*B2)</f>
+      <c r="K2">
+        <f t="shared" ref="K2:K13" si="1">SUM(E2*B2)</f>
         <v>288</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="2">
+      <c r="T2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -619,33 +634,36 @@
       <c r="F3">
         <v>16</v>
       </c>
-      <c r="G3">
-        <v>0</v>
+      <c r="G3" t="s">
+        <v>32</v>
       </c>
       <c r="H3">
-        <f>SUM(E3*D3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="I3">
-        <f>SUM(H3+I2)</f>
+      <c r="J3">
+        <f>SUM(I3+J2)</f>
         <v>140</v>
       </c>
-      <c r="J3">
-        <f>SUM(E3*B3)</f>
+      <c r="K3">
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="2">
+      <c r="T3" s="2">
         <v>4</v>
       </c>
-      <c r="T3">
-        <f>SUM(S2-S3)</f>
+      <c r="U3">
+        <f>SUM(T2-T3)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -664,33 +682,36 @@
       <c r="F4">
         <v>14</v>
       </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="G4" t="s">
+        <v>33</v>
       </c>
       <c r="H4">
-        <f>SUM(E4*D4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I13" si="0">SUM(H4+I3)</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J13" si="2">SUM(I4+J3)</f>
         <v>240</v>
       </c>
-      <c r="J4">
-        <f>SUM(E4*B4)</f>
+      <c r="K4">
+        <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="2">
+      <c r="T4" s="2">
         <v>6</v>
       </c>
-      <c r="T4">
-        <f>SUM(S3-S4)</f>
+      <c r="U4">
+        <f>SUM(T3-T4)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -709,33 +730,36 @@
       <c r="F5">
         <v>16</v>
       </c>
-      <c r="G5">
-        <v>0</v>
+      <c r="G5" t="s">
+        <v>34</v>
       </c>
       <c r="H5">
-        <f>SUM(E5*D5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="I5">
-        <f>SUM(H5+I4)</f>
+      <c r="J5">
+        <f>SUM(I5+J4)</f>
         <v>366</v>
       </c>
-      <c r="J5">
-        <f>SUM(E5*B5)</f>
+      <c r="K5">
+        <f t="shared" si="1"/>
         <v>1960</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="2">
+      <c r="T5" s="2">
         <v>8</v>
       </c>
-      <c r="T5">
-        <f t="shared" ref="T5:T12" si="1">SUM(S4-S5)</f>
+      <c r="U5">
+        <f t="shared" ref="U5:U12" si="3">SUM(T4-T5)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -754,33 +778,36 @@
       <c r="F6">
         <v>16</v>
       </c>
-      <c r="G6">
-        <v>0</v>
+      <c r="G6" t="s">
+        <v>32</v>
       </c>
       <c r="H6">
-        <f>SUM(E6*D6)</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
         <v>506</v>
       </c>
-      <c r="J6">
-        <f>SUM(E6*B6)</f>
+      <c r="K6">
+        <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="R6" s="1">
+      <c r="S6" s="1">
         <v>7</v>
       </c>
-      <c r="S6" s="2">
+      <c r="T6" s="2">
         <v>10</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="1"/>
+      <c r="U6">
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -799,35 +826,38 @@
       <c r="F7">
         <v>12</v>
       </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="G7" t="s">
+        <v>34</v>
       </c>
       <c r="H7">
-        <f>SUM(E7*D7)</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
         <v>686</v>
       </c>
-      <c r="J7">
-        <f>SUM(E7*B7)</f>
+      <c r="K7">
+        <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>6</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>12</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
+      <c r="U7">
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>240</v>
@@ -844,35 +874,38 @@
       <c r="F8">
         <v>14</v>
       </c>
-      <c r="G8">
-        <v>0</v>
+      <c r="G8" t="s">
+        <v>33</v>
       </c>
       <c r="H8">
-        <f>SUM(E8*D8)</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
         <v>866</v>
       </c>
-      <c r="J8">
-        <f>SUM(E8*B8)</f>
+      <c r="K8">
+        <f t="shared" si="1"/>
         <v>4320</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>5</v>
       </c>
-      <c r="S8" s="2">
+      <c r="T8" s="2">
         <v>14</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="1"/>
+      <c r="U8">
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>300</v>
@@ -889,35 +922,38 @@
       <c r="F9">
         <v>14</v>
       </c>
-      <c r="G9">
-        <v>0</v>
+      <c r="G9" t="s">
+        <v>34</v>
       </c>
       <c r="H9">
-        <f>SUM(E9*D9)</f>
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
         <v>1064</v>
       </c>
-      <c r="J9">
-        <f>SUM(E9*B9)</f>
+      <c r="K9">
+        <f t="shared" si="1"/>
         <v>5400</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>4</v>
       </c>
-      <c r="S9" s="2">
+      <c r="T9" s="2">
         <v>16</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="1"/>
+      <c r="U9">
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>560</v>
@@ -934,35 +970,38 @@
       <c r="F10">
         <v>16</v>
       </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="G10" t="s">
+        <v>32</v>
       </c>
       <c r="H10">
-        <f>SUM(E10*D10)</f>
         <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
         <v>1064</v>
       </c>
-      <c r="J10">
-        <f>SUM(E10*B10)</f>
+      <c r="K10">
+        <f t="shared" si="1"/>
         <v>8960</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>3</v>
       </c>
-      <c r="S10" s="2">
+      <c r="T10" s="2">
         <v>23</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="1"/>
+      <c r="U10">
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>400</v>
@@ -976,35 +1015,38 @@
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="G11">
-        <v>0</v>
+      <c r="G11" t="s">
+        <v>34</v>
       </c>
       <c r="H11">
-        <f>SUM(E11*D11)</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
         <v>1464</v>
       </c>
-      <c r="J11">
-        <f>SUM(E11*B11)</f>
+      <c r="K11">
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>2</v>
       </c>
-      <c r="S11" s="2">
+      <c r="T11" s="2">
         <v>32</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="1"/>
+      <c r="U11">
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>250</v>
@@ -1018,35 +1060,38 @@
       <c r="E12">
         <v>10</v>
       </c>
-      <c r="G12">
-        <v>0</v>
+      <c r="G12" t="s">
+        <v>33</v>
       </c>
       <c r="H12">
-        <f>SUM(E12*D12)</f>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
         <v>1814</v>
       </c>
-      <c r="J12">
-        <f>SUM(E12*B12)</f>
+      <c r="K12">
+        <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="R12" s="1">
+      <c r="S12" s="1">
         <v>1</v>
       </c>
-      <c r="S12" s="2">
+      <c r="T12" s="2">
         <v>65</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="1"/>
+      <c r="U12">
+        <f t="shared" si="3"/>
         <v>-33</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>1000</v>
@@ -1060,19 +1105,22 @@
       <c r="E13">
         <v>10</v>
       </c>
-      <c r="G13">
-        <v>0</v>
+      <c r="G13" t="s">
+        <v>32</v>
       </c>
       <c r="H13">
-        <f>SUM(E13*D13)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
         <v>2814</v>
       </c>
-      <c r="J13">
-        <f>SUM(E13*B13)</f>
+      <c r="K13">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
     </row>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F52B71AA-4534-45C6-864B-02F7EFDBEF08}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{203D5834-55EC-41D8-95A1-9CACB2959641}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Enemy</t>
   </si>
@@ -108,12 +108,6 @@
     <t>8-R.Trtl</t>
   </si>
   <si>
-    <t>9-Mammoth</t>
-  </si>
-  <si>
-    <t>10-Beatle</t>
-  </si>
-  <si>
     <t>11-Apparition</t>
   </si>
   <si>
@@ -133,6 +127,39 @@
   </si>
   <si>
     <t>7-Alligato</t>
+  </si>
+  <si>
+    <t>9-Beatle</t>
+  </si>
+  <si>
+    <t>10-Mammoth</t>
+  </si>
+  <si>
+    <t>13-G.Lizard</t>
+  </si>
+  <si>
+    <t>14-Gladiator</t>
+  </si>
+  <si>
+    <t>15-Hydra</t>
+  </si>
+  <si>
+    <t>16-B.Mage</t>
+  </si>
+  <si>
+    <t>17-Viper</t>
+  </si>
+  <si>
+    <t>18-Chimera</t>
+  </si>
+  <si>
+    <t>19-O.Demon</t>
+  </si>
+  <si>
+    <t>20-Skeleton</t>
+  </si>
+  <si>
+    <t>Gold /HP</t>
   </si>
 </sst>
 </file>
@@ -486,16 +513,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213EF013-6C3B-49C1-962D-F4582BD477E0}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
@@ -505,17 +532,18 @@
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,31 +575,34 @@
         <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -591,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -608,14 +639,18 @@
         <f t="shared" ref="K2:K13" si="1">SUM(E2*B2)</f>
         <v>288</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="L2">
+        <f>SUM(K2/J2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="2">
+      <c r="U2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -635,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -652,18 +687,22 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="L3">
+        <f t="shared" ref="L3:L13" si="2">SUM(K3/J3)</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>4</v>
       </c>
-      <c r="U3">
-        <f>SUM(T2-T3)</f>
+      <c r="V3">
+        <f>SUM(U2-U3)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -683,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -693,25 +732,29 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J13" si="2">SUM(I4+J3)</f>
+        <f t="shared" ref="J4:J13" si="3">SUM(I4+J3)</f>
         <v>240</v>
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>4.583333333333333</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>6</v>
       </c>
-      <c r="U4">
-        <f>SUM(T3-T4)</f>
+      <c r="V4">
+        <f>SUM(U3-U4)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -731,7 +774,7 @@
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -748,18 +791,22 @@
         <f t="shared" si="1"/>
         <v>1960</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>5.3551912568306008</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="2">
         <v>8</v>
       </c>
-      <c r="U5">
-        <f t="shared" ref="U5:U12" si="3">SUM(T4-T5)</f>
+      <c r="V5">
+        <f t="shared" ref="V5:V12" si="4">SUM(U4-U5)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -779,7 +826,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -789,25 +836,29 @@
         <v>140</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>506</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="S6" s="1">
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>4.4268774703557314</v>
+      </c>
+      <c r="T6" s="1">
         <v>7</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="2">
         <v>10</v>
       </c>
-      <c r="U6">
-        <f t="shared" si="3"/>
+      <c r="V6">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -827,7 +878,7 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -837,27 +888,31 @@
         <v>180</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>686</v>
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-      <c r="S7" s="1">
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>4.6647230320699711</v>
+      </c>
+      <c r="T7" s="1">
         <v>6</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>12</v>
       </c>
-      <c r="U7">
-        <f t="shared" si="3"/>
+      <c r="V7">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>240</v>
@@ -875,7 +930,7 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -885,25 +940,29 @@
         <v>180</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>866</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
         <v>4320</v>
       </c>
-      <c r="S8" s="1">
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>4.9884526558891453</v>
+      </c>
+      <c r="T8" s="1">
         <v>5</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <v>14</v>
       </c>
-      <c r="U8">
-        <f t="shared" si="3"/>
+      <c r="V8">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -923,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -933,27 +992,31 @@
         <v>198</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1064</v>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
         <v>5400</v>
       </c>
-      <c r="S9" s="1">
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>5.0751879699248121</v>
+      </c>
+      <c r="T9" s="1">
         <v>4</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <v>16</v>
       </c>
-      <c r="U9">
-        <f t="shared" si="3"/>
+      <c r="V9">
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>560</v>
@@ -971,7 +1034,7 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -981,147 +1044,215 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1064</v>
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
         <v>8960</v>
       </c>
-      <c r="S10" s="1">
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>8.4210526315789469</v>
+      </c>
+      <c r="T10" s="1">
         <v>3</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <v>23</v>
       </c>
-      <c r="U10">
-        <f t="shared" si="3"/>
+      <c r="V10">
+        <f t="shared" si="4"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>400</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>1464</v>
+        <f t="shared" si="3"/>
+        <v>1064</v>
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="1">
         <v>2</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <v>32</v>
       </c>
-      <c r="U11">
-        <f t="shared" si="3"/>
+      <c r="V11">
+        <f t="shared" si="4"/>
         <v>-9</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12">
-        <v>250</v>
-      </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>1814</v>
+        <f t="shared" si="3"/>
+        <v>1064</v>
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>2500</v>
-      </c>
-      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
         <v>1</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <v>65</v>
       </c>
-      <c r="U12">
-        <f t="shared" si="3"/>
+      <c r="V12">
+        <f t="shared" si="4"/>
         <v>-33</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13">
-        <v>1000</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>2814</v>
+        <f t="shared" si="3"/>
+        <v>1064</v>
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{203D5834-55EC-41D8-95A1-9CACB2959641}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD354775-1B08-4652-98C6-A49994AD83D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -90,12 +90,6 @@
     <t>1-Slimes</t>
   </si>
   <si>
-    <t>2-Thing</t>
-  </si>
-  <si>
-    <t>3-Horse</t>
-  </si>
-  <si>
     <t>4-Croc</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>Gold /HP</t>
+  </si>
+  <si>
+    <t>2-Goblin</t>
+  </si>
+  <si>
+    <t>3-R.Goblin</t>
   </si>
 </sst>
 </file>
@@ -175,12 +175,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -195,16 +219,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -513,11 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213EF013-6C3B-49C1-962D-F4582BD477E0}">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,12 +561,12 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" customWidth="1"/>
     <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
@@ -547,38 +581,38 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
       </c>
       <c r="N1" t="s">
         <v>5</v>
@@ -606,42 +640,41 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
       <c r="E2">
         <v>12</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
+        <f>SUM(E2*D2)</f>
+        <v>60</v>
+      </c>
+      <c r="G2" s="3">
+        <v>100</v>
+      </c>
+      <c r="H2" s="7">
+        <f>SUM(E2*B2)</f>
+        <v>288</v>
+      </c>
+      <c r="I2" s="6">
+        <f>SUM(H2/G2)</f>
+        <v>2.88</v>
+      </c>
+      <c r="J2">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f t="shared" ref="I2:I13" si="0">SUM(E2*D2)</f>
-        <v>60</v>
-      </c>
-      <c r="J2">
-        <f>SUM(I2)</f>
-        <v>60</v>
-      </c>
-      <c r="K2">
-        <f t="shared" ref="K2:K13" si="1">SUM(E2*B2)</f>
-        <v>288</v>
+      <c r="K2" t="s">
+        <v>28</v>
       </c>
       <c r="L2">
-        <f>SUM(K2/J2)</f>
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>12</v>
@@ -652,44 +685,44 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>60</v>
-      </c>
-      <c r="C3">
+        <v>43</v>
+      </c>
+      <c r="B3" s="7">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>8</v>
+      <c r="D3" s="3">
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3">
+        <f>SUM(E3*D3)</f>
+        <v>77</v>
+      </c>
+      <c r="G3" s="3">
+        <f>SUM(F2+G2)</f>
+        <v>160</v>
+      </c>
+      <c r="H3" s="7">
+        <f>SUM(E3*B3)</f>
+        <v>605</v>
+      </c>
+      <c r="I3" s="6">
+        <f>SUM(H3/G3)</f>
+        <v>3.78125</v>
+      </c>
+      <c r="J3">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="J3">
-        <f>SUM(I3+J2)</f>
-        <v>140</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
-        <v>600</v>
+      <c r="K3" t="s">
+        <v>28</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L13" si="2">SUM(K3/J3)</f>
-        <v>4.2857142857142856</v>
+        <v>0</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>13</v>
@@ -704,44 +737,44 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7">
         <v>55</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>5</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
+        <f>SUM(E4*D4)</f>
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G13" si="0">SUM(F3+G3)</f>
+        <v>237</v>
+      </c>
+      <c r="H4" s="7">
+        <f>SUM(E4*B4)</f>
+        <v>1100</v>
+      </c>
+      <c r="I4" s="6">
+        <f>SUM(H4/G4)</f>
+        <v>4.6413502109704643</v>
+      </c>
+      <c r="J4">
         <v>14</v>
       </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J13" si="3">SUM(I4+J3)</f>
-        <v>240</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>1100</v>
+      <c r="K4" t="s">
+        <v>29</v>
       </c>
       <c r="L4">
-        <f t="shared" si="2"/>
-        <v>4.583333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>14</v>
@@ -756,44 +789,44 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>140</v>
-      </c>
-      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7">
+        <v>125</v>
+      </c>
+      <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>9</v>
       </c>
       <c r="E5">
         <v>14</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
+        <f>SUM(E5*D5)</f>
+        <v>126</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="H5" s="7">
+        <f>SUM(E5*B5)</f>
+        <v>1750</v>
+      </c>
+      <c r="I5" s="6">
+        <f>SUM(H5/G5)</f>
+        <v>5.1928783382789314</v>
+      </c>
+      <c r="J5">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>126</v>
-      </c>
-      <c r="J5">
-        <f>SUM(I5+J4)</f>
-        <v>366</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>1960</v>
+      <c r="K5" t="s">
+        <v>30</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
-        <v>5.3551912568306008</v>
+        <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>15</v>
@@ -802,50 +835,50 @@
         <v>8</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V5:V12" si="4">SUM(U4-U5)</f>
+        <f t="shared" ref="V5:V12" si="1">SUM(U4-U5)</f>
         <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
         <v>160</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>10</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
+        <f>SUM(E6*D6)</f>
+        <v>140</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>463</v>
+      </c>
+      <c r="H6" s="7">
+        <f>SUM(E6*B6)</f>
+        <v>2240</v>
+      </c>
+      <c r="I6" s="6">
+        <f>SUM(H6/G6)</f>
+        <v>4.838012958963283</v>
+      </c>
+      <c r="J6">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
-        <v>506</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>2240</v>
+      <c r="K6" t="s">
+        <v>28</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
-        <v>4.4268774703557314</v>
+        <v>0</v>
       </c>
       <c r="T6" s="1">
         <v>7</v>
@@ -854,50 +887,50 @@
         <v>10</v>
       </c>
       <c r="V6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7">
         <v>160</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>9</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
+        <f>SUM(E7*D7)</f>
+        <v>180</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="0"/>
+        <v>603</v>
+      </c>
+      <c r="H7" s="7">
+        <f>SUM(E7*B7)</f>
+        <v>3200</v>
+      </c>
+      <c r="I7" s="6">
+        <f>SUM(H7/G7)</f>
+        <v>5.3067993366500827</v>
+      </c>
+      <c r="J7">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>686</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>3200</v>
+      <c r="K7" t="s">
+        <v>30</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
-        <v>4.6647230320699711</v>
+        <v>0</v>
       </c>
       <c r="T7" s="1">
         <v>6</v>
@@ -906,50 +939,50 @@
         <v>12</v>
       </c>
       <c r="V7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="B8" s="7">
         <v>240</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>10</v>
       </c>
       <c r="E8">
         <v>18</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
+        <f>SUM(E8*D8)</f>
+        <v>180</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>783</v>
+      </c>
+      <c r="H8" s="7">
+        <f>SUM(E8*B8)</f>
+        <v>4320</v>
+      </c>
+      <c r="I8" s="6">
+        <f>SUM(H8/G8)</f>
+        <v>5.5172413793103452</v>
+      </c>
+      <c r="J8">
         <v>14</v>
       </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>866</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>4320</v>
+      <c r="K8" t="s">
+        <v>29</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
-        <v>4.9884526558891453</v>
+        <v>0</v>
       </c>
       <c r="T8" s="1">
         <v>5</v>
@@ -958,50 +991,50 @@
         <v>14</v>
       </c>
       <c r="V8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7">
         <v>300</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>11</v>
       </c>
       <c r="E9">
         <v>18</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
+        <f>SUM(E9*D9)</f>
+        <v>198</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>963</v>
+      </c>
+      <c r="H9" s="7">
+        <f>SUM(E9*B9)</f>
+        <v>5400</v>
+      </c>
+      <c r="I9" s="6">
+        <f>SUM(H9/G9)</f>
+        <v>5.6074766355140184</v>
+      </c>
+      <c r="J9">
         <v>14</v>
       </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>198</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>1064</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>5400</v>
+      <c r="K9" t="s">
+        <v>30</v>
       </c>
       <c r="L9">
-        <f t="shared" si="2"/>
-        <v>5.0751879699248121</v>
+        <v>0</v>
       </c>
       <c r="T9" s="1">
         <v>4</v>
@@ -1010,50 +1043,50 @@
         <v>16</v>
       </c>
       <c r="V9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="B10" s="7">
         <v>560</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10">
         <v>16</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
+        <f>SUM(E10*D10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>1161</v>
+      </c>
+      <c r="H10" s="7">
+        <f>SUM(E10*B10)</f>
+        <v>8960</v>
+      </c>
+      <c r="I10" s="6">
+        <f>SUM(H10/G10)</f>
+        <v>7.7174849267872521</v>
+      </c>
+      <c r="J10">
         <v>16</v>
       </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>1064</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>8960</v>
+      <c r="K10" t="s">
+        <v>28</v>
       </c>
       <c r="L10">
-        <f t="shared" si="2"/>
-        <v>8.4210526315789469</v>
+        <v>0</v>
       </c>
       <c r="T10" s="1">
         <v>3</v>
@@ -1062,34 +1095,47 @@
         <v>23</v>
       </c>
       <c r="V10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-7</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7">
+        <v>800</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3">
+        <f>SUM(E11*D11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1161</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUM(E11*B11)</f>
+        <v>12800</v>
+      </c>
+      <c r="I11" s="6">
+        <f>SUM(H11/G11)</f>
+        <v>11.024978466838933</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
-        <v>1064</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
       </c>
       <c r="L11">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="1">
@@ -1099,34 +1145,37 @@
         <v>32</v>
       </c>
       <c r="V11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-9</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
+        <v>25</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3">
+        <f>SUM(E12*D12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>1064</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1161</v>
+      </c>
+      <c r="H12" s="7">
+        <f>SUM(E12*B12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <f>SUM(H12/G12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
       </c>
       <c r="L12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T12" s="1">
@@ -1136,124 +1185,188 @@
         <v>65</v>
       </c>
       <c r="V12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>-33</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3">
+        <f>SUM(E13*D13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
+        <v>1161</v>
+      </c>
+      <c r="H13" s="7">
+        <f>SUM(E13*B13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <f>SUM(H13/G13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
         <v>28</v>
       </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>1064</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="L13">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14">
+        <v>34</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15">
+        <v>35</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD354775-1B08-4652-98C6-A49994AD83D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D84A6F97-1C98-4CFB-A32A-2AA6B6FA1EE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Enemy</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>3-R.Goblin</t>
+  </si>
+  <si>
+    <t>roundEndBonus</t>
   </si>
 </sst>
 </file>
@@ -547,11 +550,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213EF013-6C3B-49C1-962D-F4582BD477E0}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,23 +564,24 @@
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,50 +597,53 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -647,43 +654,46 @@
         <v>3</v>
       </c>
       <c r="D2" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3">
+        <f>SUM((E2*D2)+F2)</f>
+        <v>60</v>
+      </c>
+      <c r="H2" s="3">
+        <v>100</v>
+      </c>
+      <c r="I2" s="7">
+        <f>SUM(E2*B2)</f>
+        <v>360</v>
+      </c>
+      <c r="J2" s="6">
+        <f t="shared" ref="J2:J13" si="0">SUM(I2/H2)</f>
+        <v>3.6</v>
+      </c>
+      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3">
-        <f>SUM(E2*D2)</f>
-        <v>60</v>
-      </c>
-      <c r="G2" s="3">
-        <v>100</v>
-      </c>
-      <c r="H2" s="7">
-        <f>SUM(E2*B2)</f>
-        <v>288</v>
-      </c>
-      <c r="I2" s="6">
-        <f>SUM(H2/G2)</f>
-        <v>2.88</v>
-      </c>
-      <c r="J2">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="2">
+      <c r="V2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -694,48 +704,51 @@
         <v>3</v>
       </c>
       <c r="D3" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3">
-        <f>SUM(E3*D3)</f>
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>18</v>
       </c>
       <c r="G3" s="3">
-        <f>SUM(F2+G2)</f>
+        <f t="shared" ref="G3:G17" si="1">SUM((E3*D3)+F3)</f>
+        <v>63</v>
+      </c>
+      <c r="H3" s="3">
+        <f>SUM(G2+H2)</f>
         <v>160</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <f>SUM(E3*B3)</f>
-        <v>605</v>
-      </c>
-      <c r="I3" s="6">
-        <f>SUM(H3/G3)</f>
-        <v>3.78125</v>
-      </c>
-      <c r="J3">
+        <v>825</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" si="0"/>
+        <v>5.15625</v>
+      </c>
+      <c r="K3">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="2">
+      <c r="V3" s="2">
         <v>4</v>
       </c>
-      <c r="V3">
-        <f>SUM(U2-U3)</f>
+      <c r="W3">
+        <f>SUM(V2-V3)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -743,51 +756,54 @@
         <v>55</v>
       </c>
       <c r="C4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
-        <f>SUM(E4*D4)</f>
-        <v>100</v>
+      <c r="F4">
+        <v>22</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G13" si="0">SUM(F3+G3)</f>
-        <v>237</v>
-      </c>
-      <c r="H4" s="7">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H13" si="2">SUM(G3+H3)</f>
+        <v>223</v>
+      </c>
+      <c r="I4" s="7">
         <f>SUM(E4*B4)</f>
         <v>1100</v>
       </c>
-      <c r="I4" s="6">
-        <f>SUM(H4/G4)</f>
-        <v>4.6413502109704643</v>
-      </c>
-      <c r="J4">
+      <c r="J4" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9327354260089686</v>
+      </c>
+      <c r="K4">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="2">
+      <c r="V4" s="2">
         <v>6</v>
       </c>
-      <c r="V4">
-        <f>SUM(U3-U4)</f>
+      <c r="W4">
+        <f>SUM(V3-V4)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -798,48 +814,51 @@
         <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>14</v>
       </c>
-      <c r="F5" s="3">
-        <f>SUM(E5*D5)</f>
-        <v>126</v>
+      <c r="F5">
+        <v>28</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>337</v>
-      </c>
-      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="I5" s="7">
         <f>SUM(E5*B5)</f>
         <v>1750</v>
       </c>
-      <c r="I5" s="6">
-        <f>SUM(H5/G5)</f>
-        <v>5.1928783382789314</v>
-      </c>
-      <c r="J5">
+      <c r="J5" s="6">
+        <f t="shared" si="0"/>
+        <v>5.384615384615385</v>
+      </c>
+      <c r="K5">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>30</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="2">
+      <c r="V5" s="2">
         <v>8</v>
       </c>
-      <c r="V5">
-        <f t="shared" ref="V5:V12" si="1">SUM(U4-U5)</f>
+      <c r="W5">
+        <f t="shared" ref="W5:W12" si="3">SUM(V4-V5)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -850,48 +869,51 @@
         <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>14</v>
       </c>
-      <c r="F6" s="3">
-        <f>SUM(E6*D6)</f>
-        <v>140</v>
+      <c r="F6">
+        <v>36</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>463</v>
-      </c>
-      <c r="H6" s="7">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>409</v>
+      </c>
+      <c r="I6" s="7">
         <f>SUM(E6*B6)</f>
         <v>2240</v>
       </c>
-      <c r="I6" s="6">
-        <f>SUM(H6/G6)</f>
-        <v>4.838012958963283</v>
-      </c>
-      <c r="J6">
+      <c r="J6" s="6">
+        <f t="shared" si="0"/>
+        <v>5.4767726161369197</v>
+      </c>
+      <c r="K6">
         <v>16</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>28</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
         <v>7</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <v>10</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="1"/>
+      <c r="W6">
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -902,48 +924,51 @@
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>20</v>
       </c>
-      <c r="F7" s="3">
-        <f>SUM(E7*D7)</f>
-        <v>180</v>
+      <c r="F7">
+        <v>48</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
-        <v>603</v>
-      </c>
-      <c r="H7" s="7">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="2"/>
+        <v>501</v>
+      </c>
+      <c r="I7" s="7">
         <f>SUM(E7*B7)</f>
         <v>3200</v>
       </c>
-      <c r="I7" s="6">
-        <f>SUM(H7/G7)</f>
-        <v>5.3067993366500827</v>
-      </c>
-      <c r="J7">
+      <c r="J7" s="6">
+        <f t="shared" si="0"/>
+        <v>6.3872255489021956</v>
+      </c>
+      <c r="K7">
         <v>12</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>30</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1">
         <v>6</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>12</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="1"/>
+      <c r="W7">
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -954,48 +979,51 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>18</v>
       </c>
-      <c r="F8" s="3">
-        <f>SUM(E8*D8)</f>
-        <v>180</v>
+      <c r="F8">
+        <v>56</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
-        <v>783</v>
-      </c>
-      <c r="H8" s="7">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>629</v>
+      </c>
+      <c r="I8" s="7">
         <f>SUM(E8*B8)</f>
         <v>4320</v>
       </c>
-      <c r="I8" s="6">
-        <f>SUM(H8/G8)</f>
-        <v>5.5172413793103452</v>
-      </c>
-      <c r="J8">
+      <c r="J8" s="6">
+        <f t="shared" si="0"/>
+        <v>6.8680445151033389</v>
+      </c>
+      <c r="K8">
         <v>14</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>29</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1">
         <v>5</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <v>14</v>
       </c>
-      <c r="V8">
-        <f t="shared" si="1"/>
+      <c r="W8">
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1006,48 +1034,51 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>18</v>
       </c>
-      <c r="F9" s="3">
-        <f>SUM(E9*D9)</f>
-        <v>198</v>
+      <c r="F9">
+        <v>68</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>963</v>
-      </c>
-      <c r="H9" s="7">
+        <f t="shared" si="1"/>
+        <v>158</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>775</v>
+      </c>
+      <c r="I9" s="7">
         <f>SUM(E9*B9)</f>
         <v>5400</v>
       </c>
-      <c r="I9" s="6">
-        <f>SUM(H9/G9)</f>
-        <v>5.6074766355140184</v>
-      </c>
-      <c r="J9">
+      <c r="J9" s="6">
+        <f t="shared" si="0"/>
+        <v>6.967741935483871</v>
+      </c>
+      <c r="K9">
         <v>14</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1">
         <v>4</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <v>16</v>
       </c>
-      <c r="V9">
-        <f t="shared" si="1"/>
+      <c r="W9">
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1058,48 +1089,51 @@
         <v>3</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>16</v>
       </c>
-      <c r="F10" s="3">
-        <f>SUM(E10*D10)</f>
-        <v>0</v>
+      <c r="F10">
+        <v>80</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="0"/>
-        <v>1161</v>
-      </c>
-      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>933</v>
+      </c>
+      <c r="I10" s="7">
         <f>SUM(E10*B10)</f>
         <v>8960</v>
       </c>
-      <c r="I10" s="6">
-        <f>SUM(H10/G10)</f>
-        <v>7.7174849267872521</v>
-      </c>
-      <c r="J10">
+      <c r="J10" s="6">
+        <f t="shared" si="0"/>
+        <v>9.6034297963558419</v>
+      </c>
+      <c r="K10">
         <v>16</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>28</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
         <v>3</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <v>23</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="1"/>
+      <c r="W10">
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1109,264 +1143,299 @@
       <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
       <c r="E11">
         <v>16</v>
       </c>
-      <c r="F11" s="3">
-        <f>SUM(E11*D11)</f>
-        <v>0</v>
+      <c r="F11">
+        <v>86</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="0"/>
-        <v>1161</v>
-      </c>
-      <c r="H11" s="7">
+        <f t="shared" si="1"/>
+        <v>182</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>1093</v>
+      </c>
+      <c r="I11" s="7">
         <f>SUM(E11*B11)</f>
         <v>12800</v>
       </c>
-      <c r="I11" s="6">
-        <f>SUM(H11/G11)</f>
-        <v>11.024978466838933</v>
-      </c>
-      <c r="J11">
+      <c r="J11" s="6">
+        <f t="shared" si="0"/>
+        <v>11.71088746569076</v>
+      </c>
+      <c r="K11">
         <v>16</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>30</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
         <v>2</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <v>32</v>
       </c>
-      <c r="V11">
-        <f t="shared" si="1"/>
+      <c r="W11">
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="4"/>
       <c r="D12" s="3"/>
-      <c r="F12" s="3">
-        <f>SUM(E12*D12)</f>
-        <v>0</v>
+      <c r="F12">
+        <v>100</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>1275</v>
+      </c>
+      <c r="I12" s="7">
+        <f>SUM(E12*B12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="0"/>
-        <v>1161</v>
-      </c>
-      <c r="H12" s="7">
-        <f>SUM(E12*B12)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <f>SUM(H12/G12)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
         <v>29</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
         <v>1</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <v>65</v>
       </c>
-      <c r="V12">
-        <f t="shared" si="1"/>
+      <c r="W12">
+        <f t="shared" si="3"/>
         <v>-33</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
-      <c r="F13" s="3">
-        <f>SUM(E13*D13)</f>
-        <v>0</v>
+      <c r="F13">
+        <v>120</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>1375</v>
+      </c>
+      <c r="I13" s="7">
+        <f>SUM(E13*B13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="0"/>
-        <v>1161</v>
-      </c>
-      <c r="H13" s="7">
-        <f>SUM(E13*B13)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <f>SUM(H13/G13)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
         <v>28</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="6"/>
-      <c r="K14" t="s">
+      <c r="F14">
+        <v>140</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6"/>
+      <c r="L14" t="s">
         <v>28</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="6"/>
-      <c r="K15" t="s">
+      <c r="F15">
+        <v>160</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6"/>
+      <c r="L15" t="s">
         <v>29</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="6"/>
-      <c r="K16" t="s">
+      <c r="F16">
+        <v>180</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="L16" t="s">
         <v>30</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="6"/>
-      <c r="K17" t="s">
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="6"/>
+      <c r="L17" t="s">
         <v>29</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="4"/>
       <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="6"/>
-      <c r="K18" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="6"/>
+      <c r="L18" t="s">
         <v>28</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="6"/>
-      <c r="K19" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="6"/>
+      <c r="L19" t="s">
         <v>28</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="4"/>
       <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6"/>
-      <c r="K20" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="6"/>
+      <c r="L20" t="s">
         <v>28</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6"/>
-      <c r="K21" t="s">
+      <c r="H21" s="3"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="L21" t="s">
         <v>29</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D84A6F97-1C98-4CFB-A32A-2AA6B6FA1EE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{288301BD-0221-48AF-8B09-02AB6F23FD85}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,11 +670,11 @@
         <v>100</v>
       </c>
       <c r="I2" s="7">
-        <f>SUM(E2*B2)</f>
+        <f t="shared" ref="I2:I13" si="0">SUM(E2*B2)</f>
         <v>360</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:J13" si="0">SUM(I2/H2)</f>
+        <f t="shared" ref="J2:J13" si="1">SUM(I2/H2)</f>
         <v>3.6</v>
       </c>
       <c r="K2">
@@ -713,7 +713,7 @@
         <v>18</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G17" si="1">SUM((E3*D3)+F3)</f>
+        <f t="shared" ref="G3:G17" si="2">SUM((E3*D3)+F3)</f>
         <v>63</v>
       </c>
       <c r="H3" s="3">
@@ -721,11 +721,11 @@
         <v>160</v>
       </c>
       <c r="I3" s="7">
-        <f>SUM(E3*B3)</f>
+        <f t="shared" si="0"/>
         <v>825</v>
       </c>
       <c r="J3" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.15625</v>
       </c>
       <c r="K3">
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -768,19 +768,19 @@
         <v>22</v>
       </c>
       <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H4:H13" si="3">SUM(G3+H3)</f>
+        <v>223</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="J4" s="6">
         <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:H13" si="2">SUM(G3+H3)</f>
-        <v>223</v>
-      </c>
-      <c r="I4" s="7">
-        <f>SUM(E4*B4)</f>
-        <v>1100</v>
-      </c>
-      <c r="J4" s="6">
-        <f t="shared" si="0"/>
         <v>4.9327354260089686</v>
       </c>
       <c r="K4">
@@ -823,20 +823,20 @@
         <v>28</v>
       </c>
       <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
+        <v>305</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="2"/>
-        <v>325</v>
-      </c>
-      <c r="I5" s="7">
-        <f>SUM(E5*B5)</f>
-        <v>1750</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" si="0"/>
-        <v>5.384615384615385</v>
+        <v>5.7377049180327866</v>
       </c>
       <c r="K5">
         <v>16</v>
@@ -854,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="W5">
-        <f t="shared" ref="W5:W12" si="3">SUM(V4-V5)</f>
+        <f t="shared" ref="W5:W12" si="4">SUM(V4-V5)</f>
         <v>-2</v>
       </c>
     </row>
@@ -878,20 +878,20 @@
         <v>36</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="3"/>
+        <v>389</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>2240</v>
+      </c>
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>92</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="2"/>
-        <v>409</v>
-      </c>
-      <c r="I6" s="7">
-        <f>SUM(E6*B6)</f>
-        <v>2240</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="0"/>
-        <v>5.4767726161369197</v>
+        <v>5.7583547557840618</v>
       </c>
       <c r="K6">
         <v>16</v>
@@ -909,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="W6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -933,20 +933,20 @@
         <v>48</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="3"/>
+        <v>481</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="2"/>
-        <v>501</v>
-      </c>
-      <c r="I7" s="7">
-        <f>SUM(E7*B7)</f>
-        <v>3200</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="0"/>
-        <v>6.3872255489021956</v>
+        <v>6.6528066528066532</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -964,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -988,20 +988,20 @@
         <v>56</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="3"/>
+        <v>609</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
+        <v>4320</v>
+      </c>
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="2"/>
-        <v>629</v>
-      </c>
-      <c r="I8" s="7">
-        <f>SUM(E8*B8)</f>
-        <v>4320</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="0"/>
-        <v>6.8680445151033389</v>
+        <v>7.0935960591133007</v>
       </c>
       <c r="K8">
         <v>14</v>
@@ -1019,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="W8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -1043,20 +1043,20 @@
         <v>68</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="3"/>
+        <v>755</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>158</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="2"/>
-        <v>775</v>
-      </c>
-      <c r="I9" s="7">
-        <f>SUM(E9*B9)</f>
-        <v>5400</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="0"/>
-        <v>6.967741935483871</v>
+        <v>7.1523178807947021</v>
       </c>
       <c r="K9">
         <v>14</v>
@@ -1074,7 +1074,7 @@
         <v>16</v>
       </c>
       <c r="W9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
@@ -1098,20 +1098,20 @@
         <v>80</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="3"/>
+        <v>913</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="0"/>
+        <v>8960</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>160</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="2"/>
-        <v>933</v>
-      </c>
-      <c r="I10" s="7">
-        <f>SUM(E10*B10)</f>
-        <v>8960</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="0"/>
-        <v>9.6034297963558419</v>
+        <v>9.8138006571741503</v>
       </c>
       <c r="K10">
         <v>16</v>
@@ -1129,7 +1129,7 @@
         <v>23</v>
       </c>
       <c r="W10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7</v>
       </c>
     </row>
@@ -1153,20 +1153,20 @@
         <v>86</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="3"/>
+        <v>1073</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="0"/>
+        <v>12800</v>
+      </c>
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>182</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="2"/>
-        <v>1093</v>
-      </c>
-      <c r="I11" s="7">
-        <f>SUM(E11*B11)</f>
-        <v>12800</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="0"/>
-        <v>11.71088746569076</v>
+        <v>11.929170549860205</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1184,7 +1184,7 @@
         <v>32</v>
       </c>
       <c r="W11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9</v>
       </c>
     </row>
@@ -1199,19 +1199,19 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
+        <v>1255</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="2"/>
-        <v>1275</v>
-      </c>
-      <c r="I12" s="7">
-        <f>SUM(E12*B12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12" t="s">
@@ -1227,7 +1227,7 @@
         <v>65</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-33</v>
       </c>
     </row>
@@ -1242,19 +1242,19 @@
         <v>120</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
+        <v>1355</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="2"/>
-        <v>1375</v>
-      </c>
-      <c r="I13" s="7">
-        <f>SUM(E13*B13)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13" t="s">
@@ -1275,7 +1275,7 @@
         <v>140</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="H14" s="3"/>
@@ -1299,7 +1299,7 @@
         <v>160</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="H15" s="3"/>
@@ -1323,7 +1323,7 @@
         <v>180</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="H16" s="3"/>
@@ -1347,7 +1347,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="H17" s="3"/>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\enemies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{288301BD-0221-48AF-8B09-02AB6F23FD85}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F707F78-925C-477F-AF95-89AF373571B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -769,7 +769,7 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H13" si="3">SUM(G3+H3)</f>
@@ -828,7 +828,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="3"/>
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="0"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>5.7377049180327866</v>
+        <v>5.384615384615385</v>
       </c>
       <c r="K5">
         <v>16</v>
@@ -883,7 +883,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="3"/>
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="0"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>5.7583547557840618</v>
+        <v>5.4767726161369197</v>
       </c>
       <c r="K6">
         <v>16</v>
@@ -938,7 +938,7 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="3"/>
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="0"/>
@@ -946,7 +946,7 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>6.6528066528066532</v>
+        <v>6.3872255489021956</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="3"/>
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="0"/>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>7.0935960591133007</v>
+        <v>6.8680445151033389</v>
       </c>
       <c r="K8">
         <v>14</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="3"/>
-        <v>755</v>
+        <v>775</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>7.1523178807947021</v>
+        <v>6.967741935483871</v>
       </c>
       <c r="K9">
         <v>14</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" si="3"/>
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="0"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>9.8138006571741503</v>
+        <v>9.6034297963558419</v>
       </c>
       <c r="K10">
         <v>16</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="0"/>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>11.929170549860205</v>
+        <v>11.71088746569076</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
-        <v>1255</v>
+        <v>1275</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>1355</v>
+        <v>1375</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="0"/>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2F707F78-925C-477F-AF95-89AF373571B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F2C5ADA-4F24-408B-B6F5-E87C71F8EFDC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -554,7 +554,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -714,7 +714,7 @@
       </c>
       <c r="G3" s="3">
         <f t="shared" ref="G3:G17" si="2">SUM((E3*D3)+F3)</f>
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H3" s="3">
         <f>SUM(G2+H2)</f>
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -769,11 +769,11 @@
       </c>
       <c r="G4" s="3">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:H13" si="3">SUM(G3+H3)</f>
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="0"/>
@@ -781,7 +781,7 @@
       </c>
       <c r="J4" s="6">
         <f t="shared" si="1"/>
-        <v>4.9327354260089686</v>
+        <v>4.6218487394957979</v>
       </c>
       <c r="K4">
         <v>14</v>
@@ -828,7 +828,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="3"/>
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="0"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" si="1"/>
-        <v>5.384615384615385</v>
+        <v>5.46875</v>
       </c>
       <c r="K5">
         <v>16</v>
@@ -883,7 +883,7 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" si="3"/>
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="0"/>
@@ -891,7 +891,7 @@
       </c>
       <c r="J6" s="6">
         <f t="shared" si="1"/>
-        <v>5.4767726161369197</v>
+        <v>5.5445544554455441</v>
       </c>
       <c r="K6">
         <v>16</v>
@@ -918,7 +918,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="7">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C7" s="4">
         <v>5</v>
@@ -938,15 +938,15 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" si="3"/>
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>6.3872255489021956</v>
+        <v>5.645161290322581</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -973,7 +973,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="7">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -993,15 +993,15 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="3"/>
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>4320</v>
+        <v>3960</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>6.8680445151033389</v>
+        <v>6.3461538461538458</v>
       </c>
       <c r="K8">
         <v>14</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="H9" s="3">
         <f t="shared" si="3"/>
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="0"/>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>6.967741935483871</v>
+        <v>7.0129870129870131</v>
       </c>
       <c r="K9">
         <v>14</v>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="H10" s="3">
         <f t="shared" si="3"/>
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="0"/>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>9.6034297963558419</v>
+        <v>9.6551724137931032</v>
       </c>
       <c r="K10">
         <v>16</v>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="0"/>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="1"/>
-        <v>11.71088746569076</v>
+        <v>11.764705882352942</v>
       </c>
       <c r="K11">
         <v>16</v>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="0"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="0"/>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08FE6CC0-28FD-4AFA-9D6B-48EBB6B635D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26BB13F7-8B8A-4F46-90C6-DA11D5470C10}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -999,8 +999,8 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1103,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="19">
         <v>3</v>
@@ -1156,7 +1156,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="19">
         <v>4</v>
@@ -1168,7 +1168,7 @@
         <v>18</v>
       </c>
       <c r="H3" s="22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>20</v>
@@ -1226,7 +1226,7 @@
         <v>22</v>
       </c>
       <c r="H4" s="20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>21</v>
@@ -1272,7 +1272,7 @@
         <v>125</v>
       </c>
       <c r="D5" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="19">
         <v>4</v>
@@ -1388,7 +1388,7 @@
         <v>140</v>
       </c>
       <c r="D7" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="19">
         <v>4</v>
@@ -1400,7 +1400,7 @@
         <v>48</v>
       </c>
       <c r="H7" s="22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I7" s="23" t="s">
         <v>22</v>
@@ -1446,7 +1446,7 @@
         <v>220</v>
       </c>
       <c r="D8" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="19">
         <v>5</v>
@@ -1458,7 +1458,7 @@
         <v>56</v>
       </c>
       <c r="H8" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" s="21" t="s">
         <v>21</v>
@@ -1504,7 +1504,7 @@
         <v>300</v>
       </c>
       <c r="D9" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="19">
         <v>5</v>
@@ -1562,7 +1562,7 @@
         <v>560</v>
       </c>
       <c r="D10" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="19">
         <v>5</v>
@@ -1632,7 +1632,7 @@
         <v>86</v>
       </c>
       <c r="H11" s="22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="23" t="s">
         <v>22</v>
@@ -1675,22 +1675,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="17">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="D12" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="20">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G12" s="20">
         <v>100</v>
       </c>
       <c r="H12" s="20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>21</v>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="K12" s="3">
         <f t="shared" si="2"/>
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="3"/>
@@ -1708,11 +1708,11 @@
       </c>
       <c r="M12" s="6">
         <f t="shared" si="0"/>
-        <v>12800</v>
+        <v>17000</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="1"/>
-        <v>10.078740157480315</v>
+        <v>13.385826771653543</v>
       </c>
       <c r="V12" s="1">
         <v>1</v>
@@ -1733,22 +1733,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="17">
-        <v>800</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="19">
         <v>6</v>
       </c>
       <c r="F13" s="22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="22">
         <v>120</v>
       </c>
       <c r="H13" s="22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I13" s="23" t="s">
         <v>20</v>
@@ -1758,19 +1758,19 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="2"/>
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="3"/>
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="0"/>
-        <v>12800</v>
+        <v>18000</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="1"/>
-        <v>8.7312414733969987</v>
+        <v>12.244897959183673</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -1781,16 +1781,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="17">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="D14" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" s="20">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G14" s="20">
         <v>140</v>
@@ -1806,19 +1806,19 @@
       </c>
       <c r="K14" s="3">
         <f t="shared" si="2"/>
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="3"/>
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" ref="M14:M21" si="5">SUM(F14*C14)</f>
-        <v>12800</v>
+        <v>21600</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" ref="N14:N21" si="6">SUM(M14/L14)</f>
-        <v>7.6099881093935791</v>
+        <v>12.857142857142858</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -1829,22 +1829,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="17">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="D15" s="18">
         <v>3</v>
       </c>
       <c r="E15" s="19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F15" s="22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="22">
         <v>160</v>
       </c>
       <c r="H15" s="22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="23" t="s">
         <v>21</v>
@@ -1854,19 +1854,19 @@
       </c>
       <c r="K15" s="3">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="3"/>
-        <v>1918</v>
+        <v>1904</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="5"/>
-        <v>12800</v>
+        <v>30800</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="6"/>
-        <v>6.6736183524504691</v>
+        <v>16.176470588235293</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -1877,13 +1877,13 @@
         <v>15</v>
       </c>
       <c r="C16" s="17">
-        <v>800</v>
+        <v>2600</v>
       </c>
       <c r="D16" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="20">
         <v>16</v>
@@ -1902,19 +1902,19 @@
       </c>
       <c r="K16" s="3">
         <f t="shared" si="2"/>
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="3"/>
-        <v>2174</v>
+        <v>2176</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" si="5"/>
-        <v>12800</v>
+        <v>41600</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="6"/>
-        <v>5.8877644894204231</v>
+        <v>19.117647058823529</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1925,13 +1925,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="17">
-        <v>800</v>
+        <v>3200</v>
       </c>
       <c r="D17" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="22">
         <v>16</v>
@@ -1940,7 +1940,7 @@
         <v>200</v>
       </c>
       <c r="H17" s="22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>21</v>
@@ -1950,19 +1950,19 @@
       </c>
       <c r="K17" s="3">
         <f t="shared" si="2"/>
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="3"/>
-        <v>2450</v>
+        <v>2468</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="5"/>
-        <v>12800</v>
+        <v>51200</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" si="6"/>
-        <v>5.2244897959183669</v>
+        <v>20.745542949756889</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1973,44 +1973,44 @@
         <v>17</v>
       </c>
       <c r="C18" s="17">
-        <v>800</v>
+        <v>3600</v>
       </c>
       <c r="D18" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" s="19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F18" s="20">
         <v>16</v>
       </c>
       <c r="G18" s="20">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="H18" s="20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J18" s="20">
         <v>0</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="2"/>
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="3"/>
-        <v>2746</v>
+        <v>2780</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="5"/>
-        <v>12800</v>
+        <v>57600</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="6"/>
-        <v>4.6613255644573925</v>
+        <v>20.719424460431654</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2021,44 +2021,44 @@
         <v>18</v>
       </c>
       <c r="C19" s="17">
-        <v>800</v>
+        <v>4200</v>
       </c>
       <c r="D19" s="18">
         <v>3</v>
       </c>
       <c r="E19" s="19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19" s="22">
         <v>16</v>
       </c>
       <c r="G19" s="22">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="H19" s="22">
         <v>16</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J19" s="22">
         <v>0</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="2"/>
-        <v>296</v>
+        <v>384</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="3"/>
-        <v>3042</v>
+        <v>3128</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="5"/>
-        <v>12800</v>
+        <v>67200</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="6"/>
-        <v>4.2077580539118999</v>
+        <v>21.483375959079282</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2069,22 +2069,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="17">
-        <v>800</v>
+        <v>4800</v>
       </c>
       <c r="D20" s="18">
         <v>3</v>
       </c>
       <c r="E20" s="19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F20" s="20">
         <v>16</v>
       </c>
       <c r="G20" s="20">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="H20" s="20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I20" s="21" t="s">
         <v>20</v>
@@ -2094,19 +2094,19 @@
       </c>
       <c r="K20" s="3">
         <f t="shared" si="2"/>
-        <v>296</v>
+        <v>420</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="3"/>
-        <v>3338</v>
+        <v>3512</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" si="5"/>
-        <v>12800</v>
+        <v>76800</v>
       </c>
       <c r="N20" s="5">
         <f t="shared" si="6"/>
-        <v>3.8346315158777711</v>
+        <v>21.867881548974943</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2117,19 +2117,19 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>800</v>
+        <v>6000</v>
       </c>
       <c r="D21" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F21" s="10">
         <v>16</v>
       </c>
       <c r="G21" s="10">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="H21" s="10">
         <v>16</v>
@@ -2142,19 +2142,19 @@
       </c>
       <c r="K21" s="3">
         <f t="shared" si="2"/>
-        <v>296</v>
+        <v>440</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="3"/>
-        <v>3634</v>
+        <v>3932</v>
       </c>
       <c r="M21" s="6">
         <f t="shared" si="5"/>
-        <v>12800</v>
+        <v>96000</v>
       </c>
       <c r="N21" s="5">
         <f t="shared" si="6"/>
-        <v>3.5222894881673086</v>
+        <v>24.415055951169887</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{26BB13F7-8B8A-4F46-90C6-DA11D5470C10}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8873E16F-564F-4207-B62D-26AF244DA72C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Enemy</t>
   </si>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +184,19 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -289,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -314,11 +327,23 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -663,34 +688,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="B1:J21" tableType="xml" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="B1:J21" xr:uid="{BB7B5203-2FDA-44AD-8D6D-FF5DC36F0FBF}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="B1:K21" tableType="xml" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="B1:K21" xr:uid="{BB7B5203-2FDA-44AD-8D6D-FF5DC36F0FBF}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{2550C9AA-BC88-494A-A101-FBB680E5CA21}" uniqueName="currentRound" name="currentRound">
       <xmlColumnPr mapId="2" xpath="/Root/Row/currentRound" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F8F80C22-33BB-4B29-8273-4EA2699E1D19}" uniqueName="maxHp" name="maxHp" dataDxfId="7">
+    <tableColumn id="10" xr3:uid="{5708407B-65CE-45BC-8878-142AF21D5339}" uniqueName="10" name="Gold /HP" dataDxfId="0">
+      <calculatedColumnFormula>SUM(ROUND((N2 / M2),2))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{F8F80C22-33BB-4B29-8273-4EA2699E1D19}" uniqueName="maxHp" name="maxHp" dataDxfId="8">
       <xmlColumnPr mapId="2" xpath="/Root/Row/maxHp" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E13F5E4A-47D2-47A2-B541-96BA6CA07669}" uniqueName="maxMoveSpeed" name="maxMoveSpeed" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{E13F5E4A-47D2-47A2-B541-96BA6CA07669}" uniqueName="maxMoveSpeed" name="maxMoveSpeed" dataDxfId="7">
       <xmlColumnPr mapId="2" xpath="/Root/Row/maxMoveSpeed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="6">
       <xmlColumnPr mapId="2" xpath="/Root/Row/goldValue" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="5">
       <xmlColumnPr mapId="2" xpath="/Root/Row/numberOfEnemies" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="4">
       <xmlColumnPr mapId="2" xpath="/Root/Row/roundEndBonus" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="3">
       <xmlColumnPr mapId="2" xpath="/Root/Row/freq" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="2">
       <xmlColumnPr mapId="2" xpath="/Root/Row/armorType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="1">
       <xmlColumnPr mapId="2" xpath="/Root/Row/maxArmor" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -996,1171 +1024,1255 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213EF013-6C3B-49C1-962D-F4582BD477E0}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="5">
+        <f t="shared" ref="C2:C21" si="0">SUM(ROUND((N2 / M2),2))</f>
+        <v>3.6</v>
+      </c>
+      <c r="D2" s="17">
         <v>24</v>
       </c>
-      <c r="D2" s="18">
+      <c r="E2" s="18">
         <v>4</v>
       </c>
-      <c r="E2" s="19">
+      <c r="F2" s="19">
         <v>3</v>
-      </c>
-      <c r="F2" s="20">
-        <v>15</v>
       </c>
       <c r="G2" s="20">
         <v>15</v>
       </c>
       <c r="H2" s="20">
+        <v>15</v>
+      </c>
+      <c r="I2" s="20">
         <v>14</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="20">
+      <c r="K2" s="20">
         <v>0</v>
       </c>
-      <c r="K2" s="3">
-        <f>SUM((F2*E2)+G2)</f>
+      <c r="L2" s="3">
+        <f>SUM((G2*F2)+H2)</f>
         <v>60</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>100</v>
       </c>
-      <c r="M2" s="6">
-        <f t="shared" ref="M2:M13" si="0">SUM(F2*C2)</f>
+      <c r="N2" s="6">
+        <f t="shared" ref="N2:N13" si="1">SUM(G2*D2)</f>
         <v>360</v>
       </c>
-      <c r="N2" s="5">
-        <f t="shared" ref="N2:N13" si="1">SUM(M2/L2)</f>
+      <c r="O2" s="24">
+        <f>SUM(ROUND((N2 / M2),2))</f>
         <v>3.6</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="W2" s="2">
+      <c r="X2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="5">
+        <f t="shared" si="0"/>
+        <v>5.16</v>
+      </c>
+      <c r="D3" s="17">
         <v>55</v>
       </c>
-      <c r="D3" s="18">
+      <c r="E3" s="18">
         <v>4</v>
       </c>
-      <c r="E3" s="19">
+      <c r="F3" s="19">
         <v>4</v>
       </c>
-      <c r="F3" s="22">
+      <c r="G3" s="22">
         <v>15</v>
-      </c>
-      <c r="G3" s="22">
-        <v>18</v>
       </c>
       <c r="H3" s="22">
         <v>18</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22">
+        <v>18</v>
+      </c>
+      <c r="J3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="22">
+      <c r="K3" s="22">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K21" si="2">SUM((F3*E3)+G3)</f>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L21" si="2">SUM((G3*F3)+H3)</f>
         <v>78</v>
       </c>
-      <c r="L3" s="3">
-        <f>SUM(K2+L2)</f>
+      <c r="M3" s="3">
+        <f>SUM(L2+M2)</f>
         <v>160</v>
       </c>
-      <c r="M3" s="6">
-        <f t="shared" si="0"/>
+      <c r="N3" s="6">
+        <f t="shared" si="1"/>
         <v>825</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" si="1"/>
-        <v>5.15625</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="O3" s="24">
+        <f>SUM(ROUND((N3 / M3),2))</f>
+        <v>5.16</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="2">
+      <c r="X3" s="2">
         <v>4</v>
       </c>
-      <c r="X3">
-        <f>SUM(W2-W3)</f>
+      <c r="Y3">
+        <f>SUM(X2-X3)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>4.62</v>
+      </c>
+      <c r="D4" s="17">
         <v>55</v>
       </c>
-      <c r="D4" s="18">
+      <c r="E4" s="18">
         <v>5</v>
       </c>
-      <c r="E4" s="19">
+      <c r="F4" s="19">
         <v>3</v>
       </c>
-      <c r="F4" s="20">
+      <c r="G4" s="20">
         <v>20</v>
       </c>
-      <c r="G4" s="20">
+      <c r="H4" s="20">
         <v>22</v>
       </c>
-      <c r="H4" s="20">
+      <c r="I4" s="20">
         <v>15</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="20">
+      <c r="K4" s="20">
         <v>0</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" ref="L4:L21" si="3">SUM(K3+L3)</f>
+      <c r="M4" s="3">
+        <f t="shared" ref="M4:M21" si="3">SUM(L3+M3)</f>
         <v>238</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" si="0"/>
+      <c r="N4" s="6">
+        <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="N4" s="5">
-        <f t="shared" si="1"/>
-        <v>4.6218487394957979</v>
-      </c>
-      <c r="V4" s="1" t="s">
+      <c r="O4" s="24">
+        <f t="shared" ref="O4:O21" si="4">SUM(ROUND((N4 / M4),2))</f>
+        <v>4.62</v>
+      </c>
+      <c r="W4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="2">
+      <c r="X4" s="2">
         <v>6</v>
       </c>
-      <c r="X4">
-        <f>SUM(W3-W4)</f>
+      <c r="Y4">
+        <f>SUM(X3-X4)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>5.47</v>
+      </c>
+      <c r="D5" s="17">
         <v>125</v>
       </c>
-      <c r="D5" s="18">
+      <c r="E5" s="18">
         <v>4</v>
       </c>
-      <c r="E5" s="19">
+      <c r="F5" s="19">
         <v>4</v>
       </c>
-      <c r="F5" s="22">
+      <c r="G5" s="22">
         <v>14</v>
       </c>
-      <c r="G5" s="22">
+      <c r="H5" s="22">
         <v>28</v>
       </c>
-      <c r="H5" s="22">
+      <c r="I5" s="22">
         <v>16</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="J5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="22">
+      <c r="K5" s="22">
         <v>0</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="M5" s="6">
-        <f t="shared" si="0"/>
+      <c r="N5" s="6">
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
-      <c r="N5" s="5">
-        <f t="shared" si="1"/>
-        <v>5.46875</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="O5" s="24">
+        <f t="shared" si="4"/>
+        <v>5.47</v>
+      </c>
+      <c r="W5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="2">
+      <c r="X5" s="2">
         <v>8</v>
       </c>
-      <c r="X5">
-        <f t="shared" ref="X5:X12" si="4">SUM(W4-W5)</f>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y12" si="5">SUM(X4-X5)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>5.54</v>
+      </c>
+      <c r="D6" s="17">
         <v>160</v>
       </c>
-      <c r="D6" s="18">
+      <c r="E6" s="18">
         <v>4</v>
       </c>
-      <c r="E6" s="19">
+      <c r="F6" s="19">
         <v>4</v>
       </c>
-      <c r="F6" s="20">
+      <c r="G6" s="20">
         <v>14</v>
       </c>
-      <c r="G6" s="20">
+      <c r="H6" s="20">
         <v>36</v>
       </c>
-      <c r="H6" s="20">
+      <c r="I6" s="20">
         <v>16</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="J6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="20">
+      <c r="K6" s="20">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <f t="shared" si="3"/>
         <v>404</v>
       </c>
-      <c r="M6" s="6">
-        <f t="shared" si="0"/>
+      <c r="N6" s="6">
+        <f t="shared" si="1"/>
         <v>2240</v>
       </c>
-      <c r="N6" s="5">
-        <f t="shared" si="1"/>
-        <v>5.5445544554455441</v>
-      </c>
-      <c r="V6" s="1">
+      <c r="O6" s="24">
+        <f t="shared" si="4"/>
+        <v>5.54</v>
+      </c>
+      <c r="W6" s="1">
         <v>7</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="2">
         <v>10</v>
       </c>
-      <c r="X6">
-        <f t="shared" si="4"/>
+      <c r="Y6">
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>5.65</v>
+      </c>
+      <c r="D7" s="17">
         <v>140</v>
       </c>
-      <c r="D7" s="18">
+      <c r="E7" s="18">
         <v>3</v>
       </c>
-      <c r="E7" s="19">
+      <c r="F7" s="19">
         <v>4</v>
       </c>
-      <c r="F7" s="22">
+      <c r="G7" s="22">
         <v>20</v>
       </c>
-      <c r="G7" s="22">
+      <c r="H7" s="22">
         <v>48</v>
       </c>
-      <c r="H7" s="22">
+      <c r="I7" s="22">
         <v>14</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="J7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="22">
+      <c r="K7" s="22">
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <f t="shared" si="3"/>
         <v>496</v>
       </c>
-      <c r="M7" s="6">
-        <f t="shared" si="0"/>
+      <c r="N7" s="6">
+        <f t="shared" si="1"/>
         <v>2800</v>
       </c>
-      <c r="N7" s="5">
-        <f t="shared" si="1"/>
-        <v>5.645161290322581</v>
-      </c>
-      <c r="V7" s="1">
+      <c r="O7" s="24">
+        <f t="shared" si="4"/>
+        <v>5.65</v>
+      </c>
+      <c r="W7" s="1">
         <v>6</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>12</v>
       </c>
-      <c r="X7">
-        <f t="shared" si="4"/>
+      <c r="Y7">
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="17">
-        <v>220</v>
-      </c>
-      <c r="D8" s="18">
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>5.77</v>
+      </c>
+      <c r="D8" s="17">
+        <v>200</v>
+      </c>
+      <c r="E8" s="18">
         <v>3</v>
       </c>
-      <c r="E8" s="19">
-        <v>5</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
+        <v>6</v>
+      </c>
+      <c r="G8" s="20">
         <v>18</v>
       </c>
-      <c r="G8" s="20">
-        <v>56</v>
-      </c>
       <c r="H8" s="20">
+        <v>70</v>
+      </c>
+      <c r="I8" s="20">
         <v>16</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="J8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="20">
+      <c r="K8" s="20">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <f t="shared" si="2"/>
-        <v>146</v>
-      </c>
-      <c r="L8" s="3">
+        <v>178</v>
+      </c>
+      <c r="M8" s="3">
         <f t="shared" si="3"/>
         <v>624</v>
       </c>
-      <c r="M8" s="6">
-        <f t="shared" si="0"/>
-        <v>3960</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="N8" s="6">
         <f t="shared" si="1"/>
-        <v>6.3461538461538458</v>
-      </c>
-      <c r="V8" s="1">
+        <v>3600</v>
+      </c>
+      <c r="O8" s="24">
+        <f t="shared" si="4"/>
+        <v>5.77</v>
+      </c>
+      <c r="W8" s="1">
         <v>5</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <v>14</v>
       </c>
-      <c r="X8">
-        <f t="shared" si="4"/>
+      <c r="Y8">
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="17">
-        <v>300</v>
-      </c>
-      <c r="D9" s="18">
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>6.28</v>
+      </c>
+      <c r="D9" s="17">
+        <v>280</v>
+      </c>
+      <c r="E9" s="18">
         <v>3</v>
       </c>
-      <c r="E9" s="19">
-        <v>5</v>
-      </c>
-      <c r="F9" s="22">
+      <c r="F9" s="19">
+        <v>6</v>
+      </c>
+      <c r="G9" s="22">
         <v>18</v>
       </c>
-      <c r="G9" s="22">
-        <v>68</v>
-      </c>
       <c r="H9" s="22">
+        <v>76</v>
+      </c>
+      <c r="I9" s="22">
         <v>14</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="J9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="22">
+      <c r="K9" s="22">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <f t="shared" si="2"/>
-        <v>158</v>
-      </c>
-      <c r="L9" s="3">
+        <v>184</v>
+      </c>
+      <c r="M9" s="3">
         <f t="shared" si="3"/>
-        <v>770</v>
-      </c>
-      <c r="M9" s="6">
-        <f t="shared" si="0"/>
-        <v>5400</v>
-      </c>
-      <c r="N9" s="5">
+        <v>802</v>
+      </c>
+      <c r="N9" s="6">
         <f t="shared" si="1"/>
-        <v>7.0129870129870131</v>
-      </c>
-      <c r="V9" s="1">
+        <v>5040</v>
+      </c>
+      <c r="O9" s="24">
+        <f t="shared" si="4"/>
+        <v>6.28</v>
+      </c>
+      <c r="W9" s="1">
         <v>4</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <v>16</v>
       </c>
-      <c r="X9">
-        <f t="shared" si="4"/>
+      <c r="Y9">
+        <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="17">
-        <v>560</v>
-      </c>
-      <c r="D10" s="18">
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>6.49</v>
+      </c>
+      <c r="D10" s="17">
+        <v>400</v>
+      </c>
+      <c r="E10" s="18">
         <v>4</v>
       </c>
-      <c r="E10" s="19">
-        <v>5</v>
-      </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
+        <v>7</v>
+      </c>
+      <c r="G10" s="20">
         <v>16</v>
       </c>
-      <c r="G10" s="20">
+      <c r="H10" s="20">
         <v>80</v>
       </c>
-      <c r="H10" s="20">
+      <c r="I10" s="20">
         <v>16</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="20">
+      <c r="K10" s="20">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="L10" s="3">
+        <v>192</v>
+      </c>
+      <c r="M10" s="3">
         <f t="shared" si="3"/>
-        <v>928</v>
-      </c>
-      <c r="M10" s="6">
-        <f t="shared" si="0"/>
-        <v>8960</v>
-      </c>
-      <c r="N10" s="5">
+        <v>986</v>
+      </c>
+      <c r="N10" s="6">
         <f t="shared" si="1"/>
-        <v>9.6551724137931032</v>
-      </c>
-      <c r="V10" s="1">
+        <v>6400</v>
+      </c>
+      <c r="O10" s="24">
+        <f t="shared" si="4"/>
+        <v>6.49</v>
+      </c>
+      <c r="W10" s="1">
         <v>3</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="2">
         <v>23</v>
       </c>
-      <c r="X10">
-        <f t="shared" si="4"/>
+      <c r="Y10">
+        <f t="shared" si="5"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="17">
-        <v>800</v>
-      </c>
-      <c r="D11" s="18">
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>6.79</v>
+      </c>
+      <c r="D11" s="17">
+        <v>500</v>
+      </c>
+      <c r="E11" s="18">
         <v>3</v>
       </c>
-      <c r="E11" s="19">
-        <v>6</v>
-      </c>
-      <c r="F11" s="22">
+      <c r="F11" s="19">
+        <v>7</v>
+      </c>
+      <c r="G11" s="22">
         <v>16</v>
       </c>
-      <c r="G11" s="22">
+      <c r="H11" s="22">
         <v>86</v>
       </c>
-      <c r="H11" s="22">
+      <c r="I11" s="22">
         <v>17</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="J11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="22">
+      <c r="K11" s="22">
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <f t="shared" si="2"/>
-        <v>182</v>
-      </c>
-      <c r="L11" s="3">
+        <v>198</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="3"/>
-        <v>1088</v>
-      </c>
-      <c r="M11" s="6">
-        <f t="shared" si="0"/>
-        <v>12800</v>
-      </c>
-      <c r="N11" s="5">
+        <v>1178</v>
+      </c>
+      <c r="N11" s="6">
         <f t="shared" si="1"/>
-        <v>11.764705882352942</v>
-      </c>
-      <c r="V11" s="1">
+        <v>8000</v>
+      </c>
+      <c r="O11" s="24">
+        <f t="shared" si="4"/>
+        <v>6.79</v>
+      </c>
+      <c r="W11" s="1">
         <v>2</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="2">
         <v>32</v>
       </c>
-      <c r="X11">
-        <f t="shared" si="4"/>
+      <c r="Y11">
+        <f t="shared" si="5"/>
         <v>-9</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="17">
-        <v>850</v>
-      </c>
-      <c r="D12" s="18">
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>6.98</v>
+      </c>
+      <c r="D12" s="17">
+        <v>480</v>
+      </c>
+      <c r="E12" s="18">
         <v>5</v>
       </c>
-      <c r="E12" s="19">
+      <c r="F12" s="19">
         <v>5</v>
       </c>
-      <c r="F12" s="20">
+      <c r="G12" s="20">
         <v>20</v>
       </c>
-      <c r="G12" s="20">
+      <c r="H12" s="20">
         <v>100</v>
       </c>
-      <c r="H12" s="20">
+      <c r="I12" s="20">
         <v>14</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="J12" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="20">
+      <c r="K12" s="20">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <f t="shared" si="3"/>
-        <v>1270</v>
-      </c>
-      <c r="M12" s="6">
-        <f t="shared" si="0"/>
-        <v>17000</v>
-      </c>
-      <c r="N12" s="5">
+        <v>1376</v>
+      </c>
+      <c r="N12" s="6">
         <f t="shared" si="1"/>
-        <v>13.385826771653543</v>
-      </c>
-      <c r="V12" s="1">
+        <v>9600</v>
+      </c>
+      <c r="O12" s="24">
+        <f t="shared" si="4"/>
+        <v>6.98</v>
+      </c>
+      <c r="W12" s="1">
         <v>1</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <v>65</v>
       </c>
-      <c r="X12">
-        <f t="shared" si="4"/>
+      <c r="Y12">
+        <f t="shared" si="5"/>
         <v>-33</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="17">
-        <v>1200</v>
-      </c>
-      <c r="D13" s="18">
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>7.14</v>
+      </c>
+      <c r="D13" s="17">
+        <v>750</v>
+      </c>
+      <c r="E13" s="18">
         <v>4</v>
       </c>
-      <c r="E13" s="19">
+      <c r="F13" s="19">
         <v>6</v>
       </c>
-      <c r="F13" s="22">
+      <c r="G13" s="22">
         <v>15</v>
       </c>
-      <c r="G13" s="22">
+      <c r="H13" s="22">
         <v>120</v>
       </c>
-      <c r="H13" s="22">
+      <c r="I13" s="22">
         <v>14</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="J13" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="22">
+      <c r="K13" s="22">
         <v>0</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <f t="shared" si="3"/>
-        <v>1470</v>
-      </c>
-      <c r="M13" s="6">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="N13" s="5">
+        <v>1576</v>
+      </c>
+      <c r="N13" s="6">
         <f t="shared" si="1"/>
-        <v>12.244897959183673</v>
+        <v>11250</v>
+      </c>
+      <c r="O13" s="24">
+        <f t="shared" si="4"/>
+        <v>7.14</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="17">
-        <v>1800</v>
-      </c>
-      <c r="D14" s="18">
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>7.39</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="18">
         <v>4</v>
       </c>
-      <c r="E14" s="19">
+      <c r="F14" s="19">
         <v>7</v>
       </c>
-      <c r="F14" s="20">
+      <c r="G14" s="20">
         <v>12</v>
       </c>
-      <c r="G14" s="20">
+      <c r="H14" s="20">
         <v>140</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I14" s="20">
         <v>16</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="J14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="20">
+      <c r="K14" s="20">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <f t="shared" si="3"/>
-        <v>1680</v>
-      </c>
-      <c r="M14" s="6">
-        <f t="shared" ref="M14:M21" si="5">SUM(F14*C14)</f>
-        <v>21600</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" ref="N14:N21" si="6">SUM(M14/L14)</f>
-        <v>12.857142857142858</v>
+        <v>1786</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" ref="N14:N21" si="6">SUM(G14*D14)</f>
+        <v>13200</v>
+      </c>
+      <c r="O14" s="24">
+        <f t="shared" si="4"/>
+        <v>7.39</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="17">
-        <v>2200</v>
-      </c>
-      <c r="D15" s="18">
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>7.66</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="18">
         <v>3</v>
       </c>
-      <c r="E15" s="19">
+      <c r="F15" s="19">
         <v>8</v>
       </c>
-      <c r="F15" s="22">
+      <c r="G15" s="22">
         <v>14</v>
       </c>
-      <c r="G15" s="22">
+      <c r="H15" s="22">
         <v>160</v>
       </c>
-      <c r="H15" s="22">
+      <c r="I15" s="22">
         <v>18</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="J15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="22">
+      <c r="K15" s="22">
         <v>0</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <f t="shared" si="2"/>
         <v>272</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <f t="shared" si="3"/>
-        <v>1904</v>
-      </c>
-      <c r="M15" s="6">
-        <f t="shared" si="5"/>
-        <v>30800</v>
-      </c>
-      <c r="N15" s="5">
+        <v>2010</v>
+      </c>
+      <c r="N15" s="6">
         <f t="shared" si="6"/>
-        <v>16.176470588235293</v>
+        <v>15400</v>
+      </c>
+      <c r="O15" s="24">
+        <f t="shared" si="4"/>
+        <v>7.66</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="17">
-        <v>2600</v>
-      </c>
-      <c r="D16" s="18">
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>8.06</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1150</v>
+      </c>
+      <c r="E16" s="18">
         <v>4</v>
       </c>
-      <c r="E16" s="19">
+      <c r="F16" s="19">
         <v>7</v>
       </c>
-      <c r="F16" s="20">
+      <c r="G16" s="20">
         <v>16</v>
       </c>
-      <c r="G16" s="20">
+      <c r="H16" s="20">
         <v>180</v>
       </c>
-      <c r="H16" s="20">
+      <c r="I16" s="20">
         <v>16</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="J16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="20">
+      <c r="K16" s="20">
         <v>0</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <f t="shared" si="2"/>
         <v>292</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <f t="shared" si="3"/>
-        <v>2176</v>
-      </c>
-      <c r="M16" s="6">
-        <f t="shared" si="5"/>
-        <v>41600</v>
-      </c>
-      <c r="N16" s="5">
+        <v>2282</v>
+      </c>
+      <c r="N16" s="6">
         <f t="shared" si="6"/>
-        <v>19.117647058823529</v>
+        <v>18400</v>
+      </c>
+      <c r="O16" s="24">
+        <f t="shared" si="4"/>
+        <v>8.06</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="17">
-        <v>3200</v>
-      </c>
-      <c r="D17" s="18">
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>8.39</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1350</v>
+      </c>
+      <c r="E17" s="18">
         <v>4</v>
       </c>
-      <c r="E17" s="19">
+      <c r="F17" s="19">
         <v>7</v>
       </c>
-      <c r="F17" s="22">
+      <c r="G17" s="22">
         <v>16</v>
       </c>
-      <c r="G17" s="22">
+      <c r="H17" s="22">
         <v>200</v>
       </c>
-      <c r="H17" s="22">
+      <c r="I17" s="22">
         <v>14</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="J17" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="22">
+      <c r="K17" s="22">
         <v>0</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <f t="shared" si="2"/>
         <v>312</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <f t="shared" si="3"/>
-        <v>2468</v>
-      </c>
-      <c r="M17" s="6">
-        <f t="shared" si="5"/>
-        <v>51200</v>
-      </c>
-      <c r="N17" s="5">
+        <v>2574</v>
+      </c>
+      <c r="N17" s="6">
         <f t="shared" si="6"/>
-        <v>20.745542949756889</v>
+        <v>21600</v>
+      </c>
+      <c r="O17" s="24">
+        <f t="shared" si="4"/>
+        <v>8.39</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="17">
-        <v>3600</v>
-      </c>
-      <c r="D18" s="18">
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="18">
         <v>5</v>
       </c>
-      <c r="E18" s="19">
+      <c r="F18" s="19">
         <v>8</v>
       </c>
-      <c r="F18" s="20">
+      <c r="G18" s="20">
         <v>16</v>
       </c>
-      <c r="G18" s="20">
+      <c r="H18" s="20">
         <v>220</v>
       </c>
-      <c r="H18" s="20">
+      <c r="I18" s="20">
         <v>15</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="J18" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="20">
+      <c r="K18" s="20">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <f t="shared" si="2"/>
         <v>348</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <f t="shared" si="3"/>
-        <v>2780</v>
-      </c>
-      <c r="M18" s="6">
-        <f t="shared" si="5"/>
-        <v>57600</v>
-      </c>
-      <c r="N18" s="5">
+        <v>2886</v>
+      </c>
+      <c r="N18" s="6">
         <f t="shared" si="6"/>
-        <v>20.719424460431654</v>
+        <v>25600</v>
+      </c>
+      <c r="O18" s="24">
+        <f t="shared" si="4"/>
+        <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="17">
-        <v>4200</v>
-      </c>
-      <c r="D19" s="18">
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>9.15</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1850</v>
+      </c>
+      <c r="E19" s="18">
         <v>3</v>
       </c>
-      <c r="E19" s="19">
+      <c r="F19" s="19">
         <v>9</v>
       </c>
-      <c r="F19" s="22">
+      <c r="G19" s="22">
         <v>16</v>
       </c>
-      <c r="G19" s="22">
+      <c r="H19" s="22">
         <v>240</v>
       </c>
-      <c r="H19" s="22">
+      <c r="I19" s="22">
         <v>16</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="J19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="22">
+      <c r="K19" s="22">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <f t="shared" si="2"/>
         <v>384</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <f t="shared" si="3"/>
-        <v>3128</v>
-      </c>
-      <c r="M19" s="6">
-        <f t="shared" si="5"/>
-        <v>67200</v>
-      </c>
-      <c r="N19" s="5">
+        <v>3234</v>
+      </c>
+      <c r="N19" s="6">
         <f t="shared" si="6"/>
-        <v>21.483375959079282</v>
+        <v>29600</v>
+      </c>
+      <c r="O19" s="24">
+        <f t="shared" si="4"/>
+        <v>9.15</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="17">
-        <v>4800</v>
-      </c>
-      <c r="D20" s="18">
+      <c r="C20" s="5">
+        <f t="shared" si="0"/>
+        <v>9.73</v>
+      </c>
+      <c r="D20" s="17">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="18">
         <v>3</v>
       </c>
-      <c r="E20" s="19">
+      <c r="F20" s="19">
         <v>10</v>
       </c>
-      <c r="F20" s="20">
+      <c r="G20" s="20">
         <v>16</v>
       </c>
-      <c r="G20" s="20">
+      <c r="H20" s="20">
         <v>260</v>
       </c>
-      <c r="H20" s="20">
+      <c r="I20" s="20">
         <v>15</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="J20" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="20">
+      <c r="K20" s="20">
         <v>0</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <f t="shared" si="3"/>
-        <v>3512</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" si="5"/>
-        <v>76800</v>
-      </c>
-      <c r="N20" s="5">
+        <v>3618</v>
+      </c>
+      <c r="N20" s="6">
         <f t="shared" si="6"/>
-        <v>21.867881548974943</v>
+        <v>35200</v>
+      </c>
+      <c r="O20" s="24">
+        <f t="shared" si="4"/>
+        <v>9.73</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="7">
-        <v>6000</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>9.91</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2500</v>
+      </c>
+      <c r="E21" s="8">
         <v>4</v>
       </c>
-      <c r="E21" s="9">
+      <c r="F21" s="9">
         <v>10</v>
       </c>
-      <c r="F21" s="10">
+      <c r="G21" s="10">
         <v>16</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <v>280</v>
       </c>
-      <c r="H21" s="10">
+      <c r="I21" s="10">
         <v>16</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="J21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="10">
+      <c r="K21" s="10">
         <v>0</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <f t="shared" si="3"/>
-        <v>3932</v>
-      </c>
-      <c r="M21" s="6">
-        <f t="shared" si="5"/>
-        <v>96000</v>
-      </c>
-      <c r="N21" s="5">
+        <v>4038</v>
+      </c>
+      <c r="N21" s="6">
         <f t="shared" si="6"/>
-        <v>24.415055951169887</v>
+        <v>40000</v>
+      </c>
+      <c r="O21" s="24">
+        <f t="shared" si="4"/>
+        <v>9.91</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="N22" s="4"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="O22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8873E16F-564F-4207-B62D-26AF244DA72C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C1980CCA-E2BC-4411-A04A-F14C581D466A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Enemy</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>R.Genie</t>
+  </si>
+  <si>
+    <t>roundEnd vs goldGiven</t>
   </si>
 </sst>
 </file>
@@ -335,15 +338,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -590,6 +584,15 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <right style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -694,31 +697,31 @@
     <tableColumn id="1" xr3:uid="{2550C9AA-BC88-494A-A101-FBB680E5CA21}" uniqueName="currentRound" name="currentRound">
       <xmlColumnPr mapId="2" xpath="/Root/Row/currentRound" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5708407B-65CE-45BC-8878-142AF21D5339}" uniqueName="10" name="Gold /HP" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{5708407B-65CE-45BC-8878-142AF21D5339}" uniqueName="10" name="Gold /HP" dataDxfId="8">
       <calculatedColumnFormula>SUM(ROUND((N2 / M2),2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F8F80C22-33BB-4B29-8273-4EA2699E1D19}" uniqueName="maxHp" name="maxHp" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{F8F80C22-33BB-4B29-8273-4EA2699E1D19}" uniqueName="maxHp" name="maxHp" dataDxfId="7">
       <xmlColumnPr mapId="2" xpath="/Root/Row/maxHp" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E13F5E4A-47D2-47A2-B541-96BA6CA07669}" uniqueName="maxMoveSpeed" name="maxMoveSpeed" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{E13F5E4A-47D2-47A2-B541-96BA6CA07669}" uniqueName="maxMoveSpeed" name="maxMoveSpeed" dataDxfId="6">
       <xmlColumnPr mapId="2" xpath="/Root/Row/maxMoveSpeed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="5">
       <xmlColumnPr mapId="2" xpath="/Root/Row/goldValue" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="4">
       <xmlColumnPr mapId="2" xpath="/Root/Row/numberOfEnemies" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="3">
       <xmlColumnPr mapId="2" xpath="/Root/Row/roundEndBonus" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="2">
       <xmlColumnPr mapId="2" xpath="/Root/Row/freq" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="1">
       <xmlColumnPr mapId="2" xpath="/Root/Row/armorType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="0">
       <xmlColumnPr mapId="2" xpath="/Root/Row/maxArmor" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1028,7 +1031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,7 +1049,7 @@
     <col min="13" max="13" width="14.5703125" customWidth="1"/>
     <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -1102,6 +1105,9 @@
       <c r="O1" s="25" t="s">
         <v>23</v>
       </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
       <c r="Q1" t="s">
         <v>4</v>
       </c>
@@ -1174,6 +1180,10 @@
         <f>SUM(ROUND((N2 / M2),2))</f>
         <v>3.6</v>
       </c>
+      <c r="P2">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]] / (Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]]))</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="W2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1232,6 +1242,10 @@
         <f>SUM(ROUND((N3 / M3),2))</f>
         <v>5.16</v>
       </c>
+      <c r="P3">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L3)</f>
+        <v>0.23076923076923078</v>
+      </c>
       <c r="W3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1267,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="H4" s="20">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="20">
         <v>15</v>
@@ -1280,7 +1294,7 @@
       </c>
       <c r="L4" s="3">
         <f t="shared" si="2"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:M21" si="3">SUM(L3+M3)</f>
@@ -1293,6 +1307,10 @@
       <c r="O4" s="24">
         <f t="shared" ref="O4:O21" si="4">SUM(ROUND((N4 / M4),2))</f>
         <v>4.62</v>
+      </c>
+      <c r="P4">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L4)</f>
+        <v>0.25925925925925924</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>13</v>
@@ -1314,7 +1332,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>5.47</v>
+        <v>6.27</v>
       </c>
       <c r="D5" s="17">
         <v>125</v>
@@ -1326,10 +1344,10 @@
         <v>4</v>
       </c>
       <c r="G5" s="22">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="22">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I5" s="22">
         <v>16</v>
@@ -1342,19 +1360,23 @@
       </c>
       <c r="L5" s="3">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" si="3"/>
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N5" s="6">
         <f t="shared" si="1"/>
-        <v>1750</v>
+        <v>2000</v>
       </c>
       <c r="O5" s="24">
         <f t="shared" si="4"/>
-        <v>5.47</v>
+        <v>6.27</v>
+      </c>
+      <c r="P5">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L5)</f>
+        <v>0.2558139534883721</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>14</v>
@@ -1376,7 +1398,7 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>5.54</v>
+        <v>6.32</v>
       </c>
       <c r="D6" s="17">
         <v>160</v>
@@ -1388,10 +1410,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" s="20">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I6" s="20">
         <v>16</v>
@@ -1404,19 +1426,23 @@
       </c>
       <c r="L6" s="3">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" si="3"/>
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N6" s="6">
         <f t="shared" si="1"/>
-        <v>2240</v>
+        <v>2560</v>
       </c>
       <c r="O6" s="24">
         <f t="shared" si="4"/>
-        <v>5.54</v>
+        <v>6.32</v>
+      </c>
+      <c r="P6">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L6)</f>
+        <v>0.26436781609195403</v>
       </c>
       <c r="W6" s="1">
         <v>7</v>
@@ -1438,7 +1464,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="D7" s="17">
         <v>140</v>
@@ -1453,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="22">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I7" s="22">
         <v>14</v>
@@ -1466,11 +1492,11 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="M7" s="3">
         <f t="shared" si="3"/>
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="N7" s="6">
         <f t="shared" si="1"/>
@@ -1478,7 +1504,11 @@
       </c>
       <c r="O7" s="24">
         <f t="shared" si="4"/>
-        <v>5.65</v>
+        <v>5.69</v>
+      </c>
+      <c r="P7">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L7)</f>
+        <v>0.27272727272727271</v>
       </c>
       <c r="W7" s="1">
         <v>6</v>
@@ -1500,7 +1530,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>5.77</v>
+        <v>5.98</v>
       </c>
       <c r="D8" s="17">
         <v>200</v>
@@ -1515,7 +1545,7 @@
         <v>18</v>
       </c>
       <c r="H8" s="20">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I8" s="20">
         <v>16</v>
@@ -1528,11 +1558,11 @@
       </c>
       <c r="L8" s="3">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" si="3"/>
-        <v>624</v>
+        <v>602</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="1"/>
@@ -1540,7 +1570,11 @@
       </c>
       <c r="O8" s="24">
         <f t="shared" si="4"/>
-        <v>5.77</v>
+        <v>5.98</v>
+      </c>
+      <c r="P8">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L8)</f>
+        <v>0.27027027027027029</v>
       </c>
       <c r="W8" s="1">
         <v>5</v>
@@ -1562,7 +1596,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>6.28</v>
+        <v>6.72</v>
       </c>
       <c r="D9" s="17">
         <v>280</v>
@@ -1577,7 +1611,7 @@
         <v>18</v>
       </c>
       <c r="H9" s="22">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I9" s="22">
         <v>14</v>
@@ -1590,11 +1624,11 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="3"/>
-        <v>802</v>
+        <v>750</v>
       </c>
       <c r="N9" s="6">
         <f t="shared" si="1"/>
@@ -1602,7 +1636,11 @@
       </c>
       <c r="O9" s="24">
         <f t="shared" si="4"/>
-        <v>6.28</v>
+        <v>6.72</v>
+      </c>
+      <c r="P9">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L9)</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="W9" s="1">
         <v>4</v>
@@ -1624,7 +1662,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>6.49</v>
+        <v>7.11</v>
       </c>
       <c r="D10" s="17">
         <v>400</v>
@@ -1639,7 +1677,7 @@
         <v>16</v>
       </c>
       <c r="H10" s="20">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="I10" s="20">
         <v>16</v>
@@ -1652,11 +1690,11 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="3"/>
-        <v>986</v>
+        <v>900</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="1"/>
@@ -1664,7 +1702,11 @@
       </c>
       <c r="O10" s="24">
         <f t="shared" si="4"/>
-        <v>6.49</v>
+        <v>7.11</v>
+      </c>
+      <c r="P10">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L10)</f>
+        <v>0.28205128205128205</v>
       </c>
       <c r="W10" s="1">
         <v>3</v>
@@ -1686,7 +1728,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>6.79</v>
+        <v>7.58</v>
       </c>
       <c r="D11" s="17">
         <v>500</v>
@@ -1701,7 +1743,7 @@
         <v>16</v>
       </c>
       <c r="H11" s="22">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="I11" s="22">
         <v>17</v>
@@ -1714,11 +1756,11 @@
       </c>
       <c r="L11" s="3">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="3"/>
-        <v>1178</v>
+        <v>1056</v>
       </c>
       <c r="N11" s="6">
         <f t="shared" si="1"/>
@@ -1726,7 +1768,11 @@
       </c>
       <c r="O11" s="24">
         <f t="shared" si="4"/>
-        <v>6.79</v>
+        <v>7.58</v>
+      </c>
+      <c r="P11">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L11)</f>
+        <v>0.28662420382165604</v>
       </c>
       <c r="W11" s="1">
         <v>2</v>
@@ -1748,7 +1794,7 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>6.98</v>
+        <v>7.91</v>
       </c>
       <c r="D12" s="17">
         <v>480</v>
@@ -1757,13 +1803,13 @@
         <v>5</v>
       </c>
       <c r="F12" s="19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G12" s="20">
         <v>20</v>
       </c>
       <c r="H12" s="20">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I12" s="20">
         <v>14</v>
@@ -1776,11 +1822,11 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" si="3"/>
-        <v>1376</v>
+        <v>1213</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" si="1"/>
@@ -1788,7 +1834,11 @@
       </c>
       <c r="O12" s="24">
         <f t="shared" si="4"/>
-        <v>6.98</v>
+        <v>7.91</v>
+      </c>
+      <c r="P12">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L12)</f>
+        <v>0.22222222222222221</v>
       </c>
       <c r="W12" s="1">
         <v>1</v>
@@ -1810,7 +1860,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>7.14</v>
+        <v>10.77</v>
       </c>
       <c r="D13" s="17">
         <v>750</v>
@@ -1819,13 +1869,13 @@
         <v>4</v>
       </c>
       <c r="F13" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G13" s="22">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H13" s="22">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="I13" s="22">
         <v>14</v>
@@ -1838,19 +1888,23 @@
       </c>
       <c r="L13" s="3">
         <f t="shared" si="2"/>
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
-        <v>1576</v>
+        <v>1393</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="1"/>
-        <v>11250</v>
+        <v>15000</v>
       </c>
       <c r="O13" s="24">
         <f t="shared" si="4"/>
-        <v>7.14</v>
+        <v>10.77</v>
+      </c>
+      <c r="P13">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L13)</f>
+        <v>0.27083333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -1862,7 +1916,7 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>7.39</v>
+        <v>12.49</v>
       </c>
       <c r="D14" s="17">
         <v>1100</v>
@@ -1871,13 +1925,13 @@
         <v>4</v>
       </c>
       <c r="F14" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G14" s="20">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H14" s="20">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="I14" s="20">
         <v>16</v>
@@ -1890,19 +1944,23 @@
       </c>
       <c r="L14" s="3">
         <f t="shared" si="2"/>
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="3"/>
-        <v>1786</v>
+        <v>1585</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" ref="N14:N21" si="6">SUM(G14*D14)</f>
-        <v>13200</v>
+        <v>19800</v>
       </c>
       <c r="O14" s="24">
         <f t="shared" si="4"/>
-        <v>7.39</v>
+        <v>12.49</v>
+      </c>
+      <c r="P14">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L14)</f>
+        <v>0.32710280373831774</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1914,7 +1972,7 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>7.66</v>
+        <v>10.39</v>
       </c>
       <c r="D15" s="17">
         <v>1100</v>
@@ -1923,13 +1981,13 @@
         <v>3</v>
       </c>
       <c r="F15" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="22">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H15" s="22">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="I15" s="22">
         <v>18</v>
@@ -1942,19 +2000,23 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" si="2"/>
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="3"/>
-        <v>2010</v>
+        <v>1799</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="6"/>
-        <v>15400</v>
+        <v>18700</v>
       </c>
       <c r="O15" s="24">
         <f t="shared" si="4"/>
-        <v>7.66</v>
+        <v>10.39</v>
+      </c>
+      <c r="P15">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L15)</f>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -1966,7 +2028,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>8.06</v>
+        <v>9.09</v>
       </c>
       <c r="D16" s="17">
         <v>1150</v>
@@ -1975,13 +2037,13 @@
         <v>4</v>
       </c>
       <c r="F16" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G16" s="20">
         <v>16</v>
       </c>
       <c r="H16" s="20">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="I16" s="20">
         <v>16</v>
@@ -1994,11 +2056,11 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="2"/>
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="3"/>
-        <v>2282</v>
+        <v>2024</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="6"/>
@@ -2006,10 +2068,14 @@
       </c>
       <c r="O16" s="24">
         <f t="shared" si="4"/>
-        <v>8.06</v>
+        <v>9.09</v>
+      </c>
+      <c r="P16">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L16)</f>
+        <v>0.32203389830508472</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2018,7 +2084,7 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>8.39</v>
+        <v>10.75</v>
       </c>
       <c r="D17" s="17">
         <v>1350</v>
@@ -2027,13 +2093,13 @@
         <v>4</v>
       </c>
       <c r="F17" s="19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G17" s="22">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H17" s="22">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="I17" s="22">
         <v>14</v>
@@ -2046,22 +2112,26 @@
       </c>
       <c r="L17" s="3">
         <f t="shared" si="2"/>
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="3"/>
-        <v>2574</v>
+        <v>2260</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="6"/>
-        <v>21600</v>
+        <v>24300</v>
       </c>
       <c r="O17" s="24">
         <f t="shared" si="4"/>
-        <v>8.39</v>
+        <v>10.75</v>
+      </c>
+      <c r="P17">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L17)</f>
+        <v>0.30232558139534882</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2070,7 +2140,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>8.8699999999999992</v>
+        <v>10.17</v>
       </c>
       <c r="D18" s="17">
         <v>1600</v>
@@ -2079,13 +2149,13 @@
         <v>5</v>
       </c>
       <c r="F18" s="19">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G18" s="20">
         <v>16</v>
       </c>
       <c r="H18" s="20">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="I18" s="20">
         <v>15</v>
@@ -2098,11 +2168,11 @@
       </c>
       <c r="L18" s="3">
         <f t="shared" si="2"/>
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="3"/>
-        <v>2886</v>
+        <v>2518</v>
       </c>
       <c r="N18" s="6">
         <f t="shared" si="6"/>
@@ -2110,10 +2180,14 @@
       </c>
       <c r="O18" s="24">
         <f t="shared" si="4"/>
-        <v>8.8699999999999992</v>
+        <v>10.17</v>
+      </c>
+      <c r="P18">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L18)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2122,7 +2196,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>9.15</v>
+        <v>10.64</v>
       </c>
       <c r="D19" s="17">
         <v>1850</v>
@@ -2131,13 +2205,13 @@
         <v>3</v>
       </c>
       <c r="F19" s="19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G19" s="22">
         <v>16</v>
       </c>
       <c r="H19" s="22">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="I19" s="22">
         <v>16</v>
@@ -2150,11 +2224,11 @@
       </c>
       <c r="L19" s="3">
         <f t="shared" si="2"/>
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="3"/>
-        <v>3234</v>
+        <v>2782</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="6"/>
@@ -2162,10 +2236,14 @@
       </c>
       <c r="O19" s="24">
         <f t="shared" si="4"/>
-        <v>9.15</v>
+        <v>10.64</v>
+      </c>
+      <c r="P19">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L19)</f>
+        <v>0.323943661971831</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2174,7 +2252,7 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>9.73</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="D20" s="17">
         <v>2200</v>
@@ -2183,13 +2261,13 @@
         <v>3</v>
       </c>
       <c r="F20" s="19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G20" s="20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20" s="20">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="I20" s="20">
         <v>15</v>
@@ -2202,22 +2280,26 @@
       </c>
       <c r="L20" s="3">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>282</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="3"/>
-        <v>3618</v>
+        <v>3066</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="6"/>
-        <v>35200</v>
+        <v>30800</v>
       </c>
       <c r="O20" s="24">
         <f t="shared" si="4"/>
-        <v>9.73</v>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="P20">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L20)</f>
+        <v>0.3546099290780142</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2226,7 +2308,7 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>9.91</v>
+        <v>11.95</v>
       </c>
       <c r="D21" s="7">
         <v>2500</v>
@@ -2235,13 +2317,13 @@
         <v>4</v>
       </c>
       <c r="F21" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G21" s="10">
         <v>16</v>
       </c>
       <c r="H21" s="10">
-        <v>280</v>
+        <v>160</v>
       </c>
       <c r="I21" s="10">
         <v>16</v>
@@ -2254,11 +2336,11 @@
       </c>
       <c r="L21" s="3">
         <f t="shared" si="2"/>
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" si="3"/>
-        <v>4038</v>
+        <v>3348</v>
       </c>
       <c r="N21" s="6">
         <f t="shared" si="6"/>
@@ -2266,10 +2348,14 @@
       </c>
       <c r="O21" s="24">
         <f t="shared" si="4"/>
-        <v>9.91</v>
+        <v>11.95</v>
+      </c>
+      <c r="P21">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L21)</f>
+        <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F22" s="4"/>
       <c r="M22" s="4"/>
       <c r="O22" s="4"/>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C1980CCA-E2BC-4411-A04A-F14C581D466A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ADCA6A5A-014B-4891-A817-09E319371265}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -1029,9 +1029,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H18" sqref="H18"/>
+      <selection pane="topRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,10 +1200,10 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>5.16</v>
+        <v>4.5</v>
       </c>
       <c r="D3" s="17">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E3" s="18">
         <v>4</v>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="N3" s="6">
         <f t="shared" si="1"/>
-        <v>825</v>
+        <v>720</v>
       </c>
       <c r="O3" s="24">
         <f>SUM(ROUND((N3 / M3),2))</f>
-        <v>5.16</v>
+        <v>4.5</v>
       </c>
       <c r="P3">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L3)</f>
@@ -1875,7 +1875,7 @@
         <v>20</v>
       </c>
       <c r="H13" s="22">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I13" s="22">
         <v>14</v>
@@ -1888,7 +1888,7 @@
       </c>
       <c r="L13" s="3">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="P13">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L13)</f>
-        <v>0.27083333333333331</v>
+        <v>0.33962264150943394</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>12.49</v>
+        <v>12.34</v>
       </c>
       <c r="D14" s="17">
         <v>1100</v>
@@ -1931,7 +1931,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="20">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="I14" s="20">
         <v>16</v>
@@ -1944,11 +1944,11 @@
       </c>
       <c r="L14" s="3">
         <f t="shared" si="2"/>
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" si="3"/>
-        <v>1585</v>
+        <v>1605</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" ref="N14:N21" si="6">SUM(G14*D14)</f>
@@ -1956,11 +1956,11 @@
       </c>
       <c r="O14" s="24">
         <f t="shared" si="4"/>
-        <v>12.49</v>
+        <v>12.34</v>
       </c>
       <c r="P14">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L14)</f>
-        <v>0.32710280373831774</v>
+        <v>0.38983050847457629</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>10.39</v>
+        <v>10.16</v>
       </c>
       <c r="D15" s="17">
         <v>1100</v>
@@ -1987,7 +1987,7 @@
         <v>17</v>
       </c>
       <c r="H15" s="22">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I15" s="22">
         <v>18</v>
@@ -2000,11 +2000,11 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" si="2"/>
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="M15" s="3">
         <f t="shared" si="3"/>
-        <v>1799</v>
+        <v>1841</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="6"/>
@@ -2012,11 +2012,11 @@
       </c>
       <c r="O15" s="24">
         <f t="shared" si="4"/>
-        <v>10.39</v>
+        <v>10.16</v>
       </c>
       <c r="P15">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L15)</f>
-        <v>0.32</v>
+        <v>0.37804878048780488</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>9.09</v>
+        <v>8.82</v>
       </c>
       <c r="D16" s="17">
         <v>1150</v>
@@ -2043,7 +2043,7 @@
         <v>16</v>
       </c>
       <c r="H16" s="20">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="I16" s="20">
         <v>16</v>
@@ -2056,11 +2056,11 @@
       </c>
       <c r="L16" s="3">
         <f t="shared" si="2"/>
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" si="3"/>
-        <v>2024</v>
+        <v>2087</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="6"/>
@@ -2068,11 +2068,11 @@
       </c>
       <c r="O16" s="24">
         <f t="shared" si="4"/>
-        <v>9.09</v>
+        <v>8.82</v>
       </c>
       <c r="P16">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L16)</f>
-        <v>0.32203389830508472</v>
+        <v>0.37743190661478598</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>10.75</v>
+        <v>10.37</v>
       </c>
       <c r="D17" s="17">
         <v>1350</v>
@@ -2099,7 +2099,7 @@
         <v>18</v>
       </c>
       <c r="H17" s="22">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="I17" s="22">
         <v>14</v>
@@ -2112,11 +2112,11 @@
       </c>
       <c r="L17" s="3">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" si="3"/>
-        <v>2260</v>
+        <v>2344</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="6"/>
@@ -2124,11 +2124,11 @@
       </c>
       <c r="O17" s="24">
         <f t="shared" si="4"/>
-        <v>10.75</v>
+        <v>10.37</v>
       </c>
       <c r="P17">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L17)</f>
-        <v>0.30232558139534882</v>
+        <v>0.35251798561151076</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>10.17</v>
+        <v>9.76</v>
       </c>
       <c r="D18" s="17">
         <v>1600</v>
@@ -2155,7 +2155,7 @@
         <v>16</v>
       </c>
       <c r="H18" s="20">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="I18" s="20">
         <v>15</v>
@@ -2168,11 +2168,11 @@
       </c>
       <c r="L18" s="3">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="M18" s="3">
         <f t="shared" si="3"/>
-        <v>2518</v>
+        <v>2622</v>
       </c>
       <c r="N18" s="6">
         <f t="shared" si="6"/>
@@ -2180,11 +2180,11 @@
       </c>
       <c r="O18" s="24">
         <f t="shared" si="4"/>
-        <v>10.17</v>
+        <v>9.76</v>
       </c>
       <c r="P18">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L18)</f>
-        <v>0.33333333333333331</v>
+        <v>0.38028169014084506</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>10.64</v>
+        <v>10.19</v>
       </c>
       <c r="D19" s="17">
         <v>1850</v>
@@ -2211,7 +2211,7 @@
         <v>16</v>
       </c>
       <c r="H19" s="22">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="I19" s="22">
         <v>16</v>
@@ -2224,11 +2224,11 @@
       </c>
       <c r="L19" s="3">
         <f t="shared" si="2"/>
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="M19" s="3">
         <f t="shared" si="3"/>
-        <v>2782</v>
+        <v>2906</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="6"/>
@@ -2236,11 +2236,11 @@
       </c>
       <c r="O19" s="24">
         <f t="shared" si="4"/>
-        <v>10.64</v>
+        <v>10.19</v>
       </c>
       <c r="P19">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L19)</f>
-        <v>0.323943661971831</v>
+        <v>0.36842105263157893</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>10.050000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="D20" s="17">
         <v>2200</v>
@@ -2267,7 +2267,7 @@
         <v>14</v>
       </c>
       <c r="H20" s="20">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I20" s="20">
         <v>15</v>
@@ -2280,11 +2280,11 @@
       </c>
       <c r="L20" s="3">
         <f t="shared" si="2"/>
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="M20" s="3">
         <f t="shared" si="3"/>
-        <v>3066</v>
+        <v>3210</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="6"/>
@@ -2292,11 +2292,11 @@
       </c>
       <c r="O20" s="24">
         <f t="shared" si="4"/>
-        <v>10.050000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="P20">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L20)</f>
-        <v>0.3546099290780142</v>
+        <v>0.39735099337748342</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>11.95</v>
+        <v>11.39</v>
       </c>
       <c r="D21" s="7">
         <v>2500</v>
@@ -2323,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="H21" s="10">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I21" s="10">
         <v>16</v>
@@ -2336,11 +2336,11 @@
       </c>
       <c r="L21" s="3">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" si="3"/>
-        <v>3348</v>
+        <v>3512</v>
       </c>
       <c r="N21" s="6">
         <f t="shared" si="6"/>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="O21" s="24">
         <f t="shared" si="4"/>
-        <v>11.95</v>
+        <v>11.39</v>
       </c>
       <c r="P21">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L21)</f>
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ADCA6A5A-014B-4891-A817-09E319371265}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C51AA8AD-F3E3-4D8B-B69F-C249BD48AC93}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -1031,7 +1031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G14" sqref="G14"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,10 +1332,10 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>6.27</v>
+        <v>5.27</v>
       </c>
       <c r="D5" s="17">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E5" s="18">
         <v>4</v>
@@ -1368,11 +1368,11 @@
       </c>
       <c r="N5" s="6">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>1680</v>
       </c>
       <c r="O5" s="24">
         <f t="shared" si="4"/>
-        <v>6.27</v>
+        <v>5.27</v>
       </c>
       <c r="P5">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L5)</f>
@@ -1398,10 +1398,10 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>6.32</v>
+        <v>5.73</v>
       </c>
       <c r="D6" s="17">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E6" s="18">
         <v>4</v>
@@ -1434,11 +1434,11 @@
       </c>
       <c r="N6" s="6">
         <f t="shared" si="1"/>
-        <v>2560</v>
+        <v>2320</v>
       </c>
       <c r="O6" s="24">
         <f t="shared" si="4"/>
-        <v>6.32</v>
+        <v>5.73</v>
       </c>
       <c r="P6">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L6)</f>
@@ -1464,10 +1464,10 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>5.69</v>
+        <v>5.49</v>
       </c>
       <c r="D7" s="17">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E7" s="18">
         <v>3</v>
@@ -1500,11 +1500,11 @@
       </c>
       <c r="N7" s="6">
         <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="O7" s="24">
         <f t="shared" si="4"/>
-        <v>5.69</v>
+        <v>5.49</v>
       </c>
       <c r="P7">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L7)</f>
@@ -1530,10 +1530,10 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>5.98</v>
+        <v>5.68</v>
       </c>
       <c r="D8" s="17">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E8" s="18">
         <v>3</v>
@@ -1566,11 +1566,11 @@
       </c>
       <c r="N8" s="6">
         <f t="shared" si="1"/>
-        <v>3600</v>
+        <v>3420</v>
       </c>
       <c r="O8" s="24">
         <f t="shared" si="4"/>
-        <v>5.98</v>
+        <v>5.68</v>
       </c>
       <c r="P8">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L8)</f>
@@ -1596,16 +1596,16 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>6.72</v>
+        <v>6.48</v>
       </c>
       <c r="D9" s="17">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E9" s="18">
         <v>3</v>
       </c>
       <c r="F9" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G9" s="22">
         <v>18</v>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" si="3"/>
@@ -1632,15 +1632,15 @@
       </c>
       <c r="N9" s="6">
         <f t="shared" si="1"/>
-        <v>5040</v>
+        <v>4860</v>
       </c>
       <c r="O9" s="24">
         <f t="shared" si="4"/>
-        <v>6.72</v>
+        <v>6.48</v>
       </c>
       <c r="P9">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L9)</f>
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="W9" s="1">
         <v>4</v>
@@ -1662,7 +1662,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>7.11</v>
+        <v>6.97</v>
       </c>
       <c r="D10" s="17">
         <v>400</v>
@@ -1671,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="20">
         <v>16</v>
@@ -1690,11 +1690,11 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="3"/>
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="N10" s="6">
         <f t="shared" si="1"/>
@@ -1702,11 +1702,11 @@
       </c>
       <c r="O10" s="24">
         <f t="shared" si="4"/>
-        <v>7.11</v>
+        <v>6.97</v>
       </c>
       <c r="P10">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L10)</f>
-        <v>0.28205128205128205</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="W10" s="1">
         <v>3</v>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>7.58</v>
+        <v>7.34</v>
       </c>
       <c r="D11" s="17">
         <v>500</v>
@@ -1737,7 +1737,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="22">
         <v>16</v>
@@ -1756,11 +1756,11 @@
       </c>
       <c r="L11" s="3">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" si="3"/>
-        <v>1056</v>
+        <v>1090</v>
       </c>
       <c r="N11" s="6">
         <f t="shared" si="1"/>
@@ -1768,11 +1768,11 @@
       </c>
       <c r="O11" s="24">
         <f t="shared" si="4"/>
-        <v>7.58</v>
+        <v>7.34</v>
       </c>
       <c r="P11">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L11)</f>
-        <v>0.28662420382165604</v>
+        <v>0.26011560693641617</v>
       </c>
       <c r="W11" s="1">
         <v>2</v>
@@ -1794,10 +1794,10 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>7.91</v>
+        <v>7.28</v>
       </c>
       <c r="D12" s="17">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="E12" s="18">
         <v>5</v>
@@ -1826,15 +1826,15 @@
       </c>
       <c r="M12" s="3">
         <f t="shared" si="3"/>
-        <v>1213</v>
+        <v>1263</v>
       </c>
       <c r="N12" s="6">
         <f t="shared" si="1"/>
-        <v>9600</v>
+        <v>9200</v>
       </c>
       <c r="O12" s="24">
         <f t="shared" si="4"/>
-        <v>7.91</v>
+        <v>7.28</v>
       </c>
       <c r="P12">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L12)</f>
@@ -1860,10 +1860,10 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>10.77</v>
+        <v>7.48</v>
       </c>
       <c r="D13" s="17">
-        <v>750</v>
+        <v>540</v>
       </c>
       <c r="E13" s="18">
         <v>4</v>
@@ -1892,15 +1892,15 @@
       </c>
       <c r="M13" s="3">
         <f t="shared" si="3"/>
-        <v>1393</v>
+        <v>1443</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>10800</v>
       </c>
       <c r="O13" s="24">
         <f t="shared" si="4"/>
-        <v>10.77</v>
+        <v>7.48</v>
       </c>
       <c r="P13">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L13)</f>
@@ -1916,10 +1916,10 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>12.34</v>
+        <v>7.61</v>
       </c>
       <c r="D14" s="17">
-        <v>1100</v>
+        <v>700</v>
       </c>
       <c r="E14" s="18">
         <v>4</v>
@@ -1948,15 +1948,15 @@
       </c>
       <c r="M14" s="3">
         <f t="shared" si="3"/>
-        <v>1605</v>
+        <v>1655</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" ref="N14:N21" si="6">SUM(G14*D14)</f>
-        <v>19800</v>
+        <v>12600</v>
       </c>
       <c r="O14" s="24">
         <f t="shared" si="4"/>
-        <v>12.34</v>
+        <v>7.61</v>
       </c>
       <c r="P14">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L14)</f>
@@ -1972,10 +1972,10 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>10.16</v>
+        <v>8.09</v>
       </c>
       <c r="D15" s="17">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E15" s="18">
         <v>3</v>
@@ -2004,15 +2004,15 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" si="3"/>
-        <v>1841</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="6">
         <f t="shared" si="6"/>
-        <v>18700</v>
+        <v>15300</v>
       </c>
       <c r="O15" s="24">
         <f t="shared" si="4"/>
-        <v>10.16</v>
+        <v>8.09</v>
       </c>
       <c r="P15">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L15)</f>
@@ -2028,10 +2028,10 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>8.82</v>
+        <v>8.24</v>
       </c>
       <c r="D16" s="17">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="E16" s="18">
         <v>4</v>
@@ -2060,15 +2060,15 @@
       </c>
       <c r="M16" s="3">
         <f t="shared" si="3"/>
-        <v>2087</v>
+        <v>2137</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" si="6"/>
-        <v>18400</v>
+        <v>17600</v>
       </c>
       <c r="O16" s="24">
         <f t="shared" si="4"/>
-        <v>8.82</v>
+        <v>8.24</v>
       </c>
       <c r="P16">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L16)</f>
@@ -2084,10 +2084,10 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>10.37</v>
+        <v>9.02</v>
       </c>
       <c r="D17" s="17">
-        <v>1350</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="18">
         <v>4</v>
@@ -2116,15 +2116,15 @@
       </c>
       <c r="M17" s="3">
         <f t="shared" si="3"/>
-        <v>2344</v>
+        <v>2394</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="6"/>
-        <v>24300</v>
+        <v>21600</v>
       </c>
       <c r="O17" s="24">
         <f t="shared" si="4"/>
-        <v>10.37</v>
+        <v>9.02</v>
       </c>
       <c r="P17">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L17)</f>
@@ -2140,10 +2140,10 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>9.76</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="D18" s="17">
-        <v>1600</v>
+        <v>1550</v>
       </c>
       <c r="E18" s="18">
         <v>5</v>
@@ -2172,15 +2172,15 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" si="3"/>
-        <v>2622</v>
+        <v>2672</v>
       </c>
       <c r="N18" s="6">
         <f t="shared" si="6"/>
-        <v>25600</v>
+        <v>24800</v>
       </c>
       <c r="O18" s="24">
         <f t="shared" si="4"/>
-        <v>9.76</v>
+        <v>9.2799999999999994</v>
       </c>
       <c r="P18">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L18)</f>
@@ -2196,10 +2196,10 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>10.19</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="D19" s="17">
-        <v>1850</v>
+        <v>1750</v>
       </c>
       <c r="E19" s="18">
         <v>3</v>
@@ -2228,15 +2228,15 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" si="3"/>
-        <v>2906</v>
+        <v>2956</v>
       </c>
       <c r="N19" s="6">
         <f t="shared" si="6"/>
-        <v>29600</v>
+        <v>28000</v>
       </c>
       <c r="O19" s="24">
         <f t="shared" si="4"/>
-        <v>10.19</v>
+        <v>9.4700000000000006</v>
       </c>
       <c r="P19">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L19)</f>
@@ -2252,10 +2252,10 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>9.6</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="D20" s="17">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E20" s="18">
         <v>3</v>
@@ -2284,15 +2284,15 @@
       </c>
       <c r="M20" s="3">
         <f t="shared" si="3"/>
-        <v>3210</v>
+        <v>3260</v>
       </c>
       <c r="N20" s="6">
         <f t="shared" si="6"/>
-        <v>30800</v>
+        <v>32200</v>
       </c>
       <c r="O20" s="24">
         <f t="shared" si="4"/>
-        <v>9.6</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="P20">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L20)</f>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>11.39</v>
+        <v>11.23</v>
       </c>
       <c r="D21" s="7">
         <v>2500</v>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="M21" s="3">
         <f t="shared" si="3"/>
-        <v>3512</v>
+        <v>3562</v>
       </c>
       <c r="N21" s="6">
         <f t="shared" si="6"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="O21" s="24">
         <f t="shared" si="4"/>
-        <v>11.39</v>
+        <v>11.23</v>
       </c>
       <c r="P21">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L21)</f>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C51AA8AD-F3E3-4D8B-B69F-C249BD48AC93}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CAE9CAE6-14C4-48E0-8948-1CA0594FFAA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -1031,7 +1031,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G21" sqref="G21"/>
+      <selection pane="topRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1200,10 +1200,10 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="D3" s="17">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E3" s="18">
         <v>4</v>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="N3" s="6">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="O3" s="24">
         <f>SUM(ROUND((N3 / M3),2))</f>
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L3)</f>
@@ -1266,10 +1266,10 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>4.62</v>
+        <v>4.2</v>
       </c>
       <c r="D4" s="17">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E4" s="18">
         <v>5</v>
@@ -1302,11 +1302,11 @@
       </c>
       <c r="N4" s="6">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="O4" s="24">
         <f t="shared" ref="O4:O21" si="4">SUM(ROUND((N4 / M4),2))</f>
-        <v>4.62</v>
+        <v>4.2</v>
       </c>
       <c r="P4">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L4)</f>
@@ -1332,10 +1332,10 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>5.27</v>
+        <v>4.51</v>
       </c>
       <c r="D5" s="17">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E5" s="18">
         <v>4</v>
@@ -1368,11 +1368,11 @@
       </c>
       <c r="N5" s="6">
         <f t="shared" si="1"/>
-        <v>1680</v>
+        <v>1440</v>
       </c>
       <c r="O5" s="24">
         <f t="shared" si="4"/>
-        <v>5.27</v>
+        <v>4.51</v>
       </c>
       <c r="P5">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L5)</f>
@@ -1398,10 +1398,10 @@
       </c>
       <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>5.73</v>
+        <v>4.54</v>
       </c>
       <c r="D6" s="17">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="E6" s="18">
         <v>4</v>
@@ -1434,11 +1434,11 @@
       </c>
       <c r="N6" s="6">
         <f t="shared" si="1"/>
-        <v>2320</v>
+        <v>1840</v>
       </c>
       <c r="O6" s="24">
         <f t="shared" si="4"/>
-        <v>5.73</v>
+        <v>4.54</v>
       </c>
       <c r="P6">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L6)</f>
@@ -1464,10 +1464,10 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>5.49</v>
+        <v>5.08</v>
       </c>
       <c r="D7" s="17">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="E7" s="18">
         <v>3</v>
@@ -1500,11 +1500,11 @@
       </c>
       <c r="N7" s="6">
         <f t="shared" si="1"/>
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="O7" s="24">
         <f t="shared" si="4"/>
-        <v>5.49</v>
+        <v>5.08</v>
       </c>
       <c r="P7">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L7)</f>
@@ -1530,10 +1530,10 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>5.68</v>
+        <v>5.08</v>
       </c>
       <c r="D8" s="17">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E8" s="18">
         <v>3</v>
@@ -1566,11 +1566,11 @@
       </c>
       <c r="N8" s="6">
         <f t="shared" si="1"/>
-        <v>3420</v>
+        <v>3060</v>
       </c>
       <c r="O8" s="24">
         <f t="shared" si="4"/>
-        <v>5.68</v>
+        <v>5.08</v>
       </c>
       <c r="P8">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L8)</f>
@@ -1596,10 +1596,10 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>6.48</v>
+        <v>6</v>
       </c>
       <c r="D9" s="17">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="E9" s="18">
         <v>3</v>
@@ -1632,11 +1632,11 @@
       </c>
       <c r="N9" s="6">
         <f t="shared" si="1"/>
-        <v>4860</v>
+        <v>4500</v>
       </c>
       <c r="O9" s="24">
         <f t="shared" si="4"/>
-        <v>6.48</v>
+        <v>6</v>
       </c>
       <c r="P9">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L9)</f>
@@ -1662,10 +1662,10 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>6.97</v>
+        <v>6.45</v>
       </c>
       <c r="D10" s="17">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="E10" s="18">
         <v>4</v>
@@ -1698,11 +1698,11 @@
       </c>
       <c r="N10" s="6">
         <f t="shared" si="1"/>
-        <v>6400</v>
+        <v>5920</v>
       </c>
       <c r="O10" s="24">
         <f t="shared" si="4"/>
-        <v>6.97</v>
+        <v>6.45</v>
       </c>
       <c r="P10">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L10)</f>
@@ -1728,10 +1728,10 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>7.34</v>
+        <v>6.61</v>
       </c>
       <c r="D11" s="17">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="E11" s="18">
         <v>3</v>
@@ -1764,11 +1764,11 @@
       </c>
       <c r="N11" s="6">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>7200</v>
       </c>
       <c r="O11" s="24">
         <f t="shared" si="4"/>
-        <v>7.34</v>
+        <v>6.61</v>
       </c>
       <c r="P11">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L11)</f>
@@ -1794,10 +1794,10 @@
       </c>
       <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>7.28</v>
+        <v>6.65</v>
       </c>
       <c r="D12" s="17">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="E12" s="18">
         <v>5</v>
@@ -1830,11 +1830,11 @@
       </c>
       <c r="N12" s="6">
         <f t="shared" si="1"/>
-        <v>9200</v>
+        <v>8400</v>
       </c>
       <c r="O12" s="24">
         <f t="shared" si="4"/>
-        <v>7.28</v>
+        <v>6.65</v>
       </c>
       <c r="P12">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L12)</f>
@@ -1860,10 +1860,10 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>7.48</v>
+        <v>6.93</v>
       </c>
       <c r="D13" s="17">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="E13" s="18">
         <v>4</v>
@@ -1896,11 +1896,11 @@
       </c>
       <c r="N13" s="6">
         <f t="shared" si="1"/>
-        <v>10800</v>
+        <v>10000</v>
       </c>
       <c r="O13" s="24">
         <f t="shared" si="4"/>
-        <v>7.48</v>
+        <v>6.93</v>
       </c>
       <c r="P13">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L13)</f>
@@ -1916,10 +1916,10 @@
       </c>
       <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>7.61</v>
+        <v>7.07</v>
       </c>
       <c r="D14" s="17">
-        <v>700</v>
+        <v>650</v>
       </c>
       <c r="E14" s="18">
         <v>4</v>
@@ -1952,11 +1952,11 @@
       </c>
       <c r="N14" s="6">
         <f t="shared" ref="N14:N21" si="6">SUM(G14*D14)</f>
-        <v>12600</v>
+        <v>11700</v>
       </c>
       <c r="O14" s="24">
         <f t="shared" si="4"/>
-        <v>7.61</v>
+        <v>7.07</v>
       </c>
       <c r="P14">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L14)</f>
@@ -1972,10 +1972,10 @@
       </c>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>8.09</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="D15" s="17">
-        <v>900</v>
+        <v>940</v>
       </c>
       <c r="E15" s="18">
         <v>3</v>
@@ -2008,11 +2008,11 @@
       </c>
       <c r="N15" s="6">
         <f t="shared" si="6"/>
-        <v>15300</v>
+        <v>15980</v>
       </c>
       <c r="O15" s="24">
         <f t="shared" si="4"/>
-        <v>8.09</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="P15">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L15)</f>
@@ -2028,10 +2028,10 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>8.24</v>
+        <v>7.34</v>
       </c>
       <c r="D16" s="17">
-        <v>1100</v>
+        <v>980</v>
       </c>
       <c r="E16" s="18">
         <v>4</v>
@@ -2064,11 +2064,11 @@
       </c>
       <c r="N16" s="6">
         <f t="shared" si="6"/>
-        <v>17600</v>
+        <v>15680</v>
       </c>
       <c r="O16" s="24">
         <f t="shared" si="4"/>
-        <v>8.24</v>
+        <v>7.34</v>
       </c>
       <c r="P16">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L16)</f>
@@ -2084,10 +2084,10 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>9.02</v>
+        <v>8.27</v>
       </c>
       <c r="D17" s="17">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="18">
         <v>4</v>
@@ -2120,11 +2120,11 @@
       </c>
       <c r="N17" s="6">
         <f t="shared" si="6"/>
-        <v>21600</v>
+        <v>19800</v>
       </c>
       <c r="O17" s="24">
         <f t="shared" si="4"/>
-        <v>9.02</v>
+        <v>8.27</v>
       </c>
       <c r="P17">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L17)</f>
@@ -2140,10 +2140,10 @@
       </c>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>9.2799999999999994</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="D18" s="17">
-        <v>1550</v>
+        <v>1400</v>
       </c>
       <c r="E18" s="18">
         <v>5</v>
@@ -2176,11 +2176,11 @@
       </c>
       <c r="N18" s="6">
         <f t="shared" si="6"/>
-        <v>24800</v>
+        <v>22400</v>
       </c>
       <c r="O18" s="24">
         <f t="shared" si="4"/>
-        <v>9.2799999999999994</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="P18">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L18)</f>
@@ -2196,10 +2196,10 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
-        <v>9.4700000000000006</v>
+        <v>8.66</v>
       </c>
       <c r="D19" s="17">
-        <v>1750</v>
+        <v>1600</v>
       </c>
       <c r="E19" s="18">
         <v>3</v>
@@ -2232,11 +2232,11 @@
       </c>
       <c r="N19" s="6">
         <f t="shared" si="6"/>
-        <v>28000</v>
+        <v>25600</v>
       </c>
       <c r="O19" s="24">
         <f t="shared" si="4"/>
-        <v>9.4700000000000006</v>
+        <v>8.66</v>
       </c>
       <c r="P19">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L19)</f>
@@ -2252,10 +2252,10 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
-        <v>9.8800000000000008</v>
+        <v>7.52</v>
       </c>
       <c r="D20" s="17">
-        <v>2300</v>
+        <v>1750</v>
       </c>
       <c r="E20" s="18">
         <v>3</v>
@@ -2288,11 +2288,11 @@
       </c>
       <c r="N20" s="6">
         <f t="shared" si="6"/>
-        <v>32200</v>
+        <v>24500</v>
       </c>
       <c r="O20" s="24">
         <f t="shared" si="4"/>
-        <v>9.8800000000000008</v>
+        <v>7.52</v>
       </c>
       <c r="P20">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L20)</f>
@@ -2308,10 +2308,10 @@
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
-        <v>11.23</v>
+        <v>8.98</v>
       </c>
       <c r="D21" s="7">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="8">
         <v>4</v>
@@ -2344,11 +2344,11 @@
       </c>
       <c r="N21" s="6">
         <f t="shared" si="6"/>
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="O21" s="24">
         <f t="shared" si="4"/>
-        <v>11.23</v>
+        <v>8.98</v>
       </c>
       <c r="P21">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/L21)</f>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichaelEl-Rayes\Documents\GitHub\TowerDefense\enemies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CAE9CAE6-14C4-48E0-8948-1CA0594FFAA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{23BCD8B1-DCDE-4082-9C5C-9468FD40903F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>Enemy</t>
   </si>
@@ -169,6 +169,99 @@
   </si>
   <si>
     <t>roundEnd vs goldGiven</t>
+  </si>
+  <si>
+    <t>killedGold</t>
+  </si>
+  <si>
+    <t>G.Giant</t>
+  </si>
+  <si>
+    <t>R.Demon</t>
+  </si>
+  <si>
+    <t>R.Dragon</t>
+  </si>
+  <si>
+    <t>B.Centipede</t>
+  </si>
+  <si>
+    <t>B.Demon</t>
+  </si>
+  <si>
+    <t>R.Monster</t>
+  </si>
+  <si>
+    <t>Cursed Armor</t>
+  </si>
+  <si>
+    <t>B. Ogre</t>
+  </si>
+  <si>
+    <t>B. Elemental</t>
+  </si>
+  <si>
+    <t>B. Shadow</t>
+  </si>
+  <si>
+    <t>W. Ghost</t>
+  </si>
+  <si>
+    <t>G.Reaper</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Vampire</t>
+  </si>
+  <si>
+    <t>Crusader</t>
+  </si>
+  <si>
+    <t>Flying Skeleton</t>
+  </si>
+  <si>
+    <t>Skeleton Horse</t>
+  </si>
+  <si>
+    <t>Skeleton Dragon</t>
+  </si>
+  <si>
+    <t>Sand Monster</t>
+  </si>
+  <si>
+    <t>T. Giant</t>
+  </si>
+  <si>
+    <t>Iron Giant</t>
+  </si>
+  <si>
+    <t>R. Naga</t>
+  </si>
+  <si>
+    <t>R. Abomination</t>
+  </si>
+  <si>
+    <t>Large Insect</t>
+  </si>
+  <si>
+    <t>P. Dragon</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Birdman</t>
+  </si>
+  <si>
+    <t>G. Griffin</t>
+  </si>
+  <si>
+    <t>R. Doom</t>
   </si>
 </sst>
 </file>
@@ -305,12 +398,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -333,11 +425,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -691,37 +813,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="B1:K21" tableType="xml" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="B1:K21" xr:uid="{BB7B5203-2FDA-44AD-8D6D-FF5DC36F0FBF}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="B1:L51" tableType="xml" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="B1:L51" xr:uid="{BB7B5203-2FDA-44AD-8D6D-FF5DC36F0FBF}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{2550C9AA-BC88-494A-A101-FBB680E5CA21}" uniqueName="currentRound" name="currentRound">
       <xmlColumnPr mapId="2" xpath="/Root/Row/currentRound" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5708407B-65CE-45BC-8878-142AF21D5339}" uniqueName="10" name="Gold /HP" dataDxfId="8">
-      <calculatedColumnFormula>SUM(ROUND((N2 / M2),2))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{5708407B-65CE-45BC-8878-142AF21D5339}" uniqueName="10" name="Gold /HP" dataDxfId="9">
+      <calculatedColumnFormula>SUM(ROUND((O2 / N2),2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F8F80C22-33BB-4B29-8273-4EA2699E1D19}" uniqueName="maxHp" name="maxHp" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{F8F80C22-33BB-4B29-8273-4EA2699E1D19}" uniqueName="maxHp" name="maxHp" dataDxfId="8">
       <xmlColumnPr mapId="2" xpath="/Root/Row/maxHp" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E13F5E4A-47D2-47A2-B541-96BA6CA07669}" uniqueName="maxMoveSpeed" name="maxMoveSpeed" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{E13F5E4A-47D2-47A2-B541-96BA6CA07669}" uniqueName="maxMoveSpeed" name="maxMoveSpeed" dataDxfId="7">
       <xmlColumnPr mapId="2" xpath="/Root/Row/maxMoveSpeed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{798A0123-C7B3-4B90-8749-D85E3371CA67}" uniqueName="11" name="killedGold" dataDxfId="0">
+      <calculatedColumnFormula>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="6">
       <xmlColumnPr mapId="2" xpath="/Root/Row/goldValue" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="5">
       <xmlColumnPr mapId="2" xpath="/Root/Row/numberOfEnemies" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="4">
       <xmlColumnPr mapId="2" xpath="/Root/Row/roundEndBonus" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="3">
       <xmlColumnPr mapId="2" xpath="/Root/Row/freq" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="2">
       <xmlColumnPr mapId="2" xpath="/Root/Row/armorType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="1">
       <xmlColumnPr mapId="2" xpath="/Root/Row/maxArmor" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1027,11 +1152,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213EF013-6C3B-49C1-962D-F4582BD477E0}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D22" sqref="D22"/>
+      <selection pane="topRight" activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,1325 +1165,3203 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="10" width="18" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="P1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>8</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>9</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
-        <f t="shared" ref="C2:C21" si="0">SUM(ROUND((N2 / M2),2))</f>
-        <v>3.6</v>
-      </c>
-      <c r="D2" s="17">
+      <c r="C2" s="4">
+        <f t="shared" ref="C2:C21" si="0">SUM(ROUND((O2 / N2),2))</f>
+        <v>3.36</v>
+      </c>
+      <c r="D2" s="16">
         <v>24</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>4</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>42</v>
+      </c>
+      <c r="G2" s="18">
         <v>3</v>
       </c>
-      <c r="G2" s="20">
-        <v>15</v>
-      </c>
-      <c r="H2" s="20">
-        <v>15</v>
-      </c>
-      <c r="I2" s="20">
+      <c r="H2" s="19">
         <v>14</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="19">
+        <v>18</v>
+      </c>
+      <c r="J2" s="19">
+        <v>14</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="20">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <f>SUM((G2*F2)+H2)</f>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <f>SUM((H2*G2)+I2)</f>
         <v>60</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>100</v>
       </c>
-      <c r="N2" s="6">
-        <f t="shared" ref="N2:N13" si="1">SUM(G2*D2)</f>
-        <v>360</v>
-      </c>
-      <c r="O2" s="24">
-        <f>SUM(ROUND((N2 / M2),2))</f>
-        <v>3.6</v>
-      </c>
-      <c r="P2">
+      <c r="O2" s="5">
+        <f t="shared" ref="O2:O13" si="1">SUM(H2*D2)</f>
+        <v>336</v>
+      </c>
+      <c r="P2" s="23">
+        <f>SUM(ROUND((O2 / N2),2))</f>
+        <v>3.36</v>
+      </c>
+      <c r="Q2">
         <f>SUM(Table1[[#This Row],[roundEndBonus]] / (Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]]))</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="W2" s="1" t="s">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="2">
+      <c r="Y2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>3.75</v>
-      </c>
-      <c r="D3" s="17">
-        <v>40</v>
-      </c>
-      <c r="E3" s="18">
+        <v>3.28</v>
+      </c>
+      <c r="D3" s="16">
+        <v>35</v>
+      </c>
+      <c r="E3" s="17">
         <v>4</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>60</v>
+      </c>
+      <c r="G3" s="18">
         <v>4</v>
       </c>
-      <c r="G3" s="22">
+      <c r="H3" s="21">
         <v>15</v>
       </c>
-      <c r="H3" s="22">
+      <c r="I3" s="21">
         <v>18</v>
       </c>
-      <c r="I3" s="22">
+      <c r="J3" s="21">
         <v>18</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="22">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <f t="shared" ref="L3:L21" si="2">SUM((G3*F3)+H3)</f>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M21" si="2">SUM((H3*G3)+I3)</f>
         <v>78</v>
       </c>
-      <c r="M3" s="3">
-        <f>SUM(L2+M2)</f>
+      <c r="N3" s="3">
+        <f>SUM(M2+N2)</f>
         <v>160</v>
       </c>
-      <c r="N3" s="6">
+      <c r="O3" s="5">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="O3" s="24">
-        <f>SUM(ROUND((N3 / M3),2))</f>
-        <v>3.75</v>
-      </c>
-      <c r="P3">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L3)</f>
+        <v>525</v>
+      </c>
+      <c r="P3" s="23">
+        <f>SUM(ROUND((O3 / N3),2))</f>
+        <v>3.28</v>
+      </c>
+      <c r="Q3">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M3)</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="2">
+      <c r="Y3" s="2">
         <v>4</v>
       </c>
-      <c r="Y3">
-        <f>SUM(X2-X3)</f>
+      <c r="Z3">
+        <f>SUM(Y2-Y3)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <v>50</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>5</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>60</v>
+      </c>
+      <c r="G4" s="18">
         <v>3</v>
       </c>
-      <c r="G4" s="20">
+      <c r="H4" s="19">
         <v>20</v>
       </c>
-      <c r="H4" s="20">
+      <c r="I4" s="19">
         <v>21</v>
       </c>
-      <c r="I4" s="20">
+      <c r="J4" s="19">
         <v>15</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="K4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="20">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
+      <c r="L4" s="19">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="M4" s="3">
-        <f t="shared" ref="M4:M21" si="3">SUM(L3+M3)</f>
+      <c r="N4" s="3">
+        <f t="shared" ref="N4:N21" si="3">SUM(M3+N3)</f>
         <v>238</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="5">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="O4" s="24">
-        <f t="shared" ref="O4:O21" si="4">SUM(ROUND((N4 / M4),2))</f>
+      <c r="P4" s="23">
+        <f t="shared" ref="P4:P21" si="4">SUM(ROUND((O4 / N4),2))</f>
         <v>4.2</v>
       </c>
-      <c r="P4">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L4)</f>
+      <c r="Q4">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M4)</f>
         <v>0.25925925925925924</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="2">
+      <c r="Y4" s="2">
         <v>6</v>
       </c>
-      <c r="Y4">
-        <f>SUM(X3-X4)</f>
+      <c r="Z4">
+        <f>SUM(Y3-Y4)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>4.51</v>
-      </c>
-      <c r="D5" s="17">
-        <v>90</v>
-      </c>
-      <c r="E5" s="18">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="D5" s="16">
+        <v>82</v>
+      </c>
+      <c r="E5" s="17">
         <v>4</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>64</v>
+      </c>
+      <c r="G5" s="18">
         <v>4</v>
       </c>
-      <c r="G5" s="22">
+      <c r="H5" s="21">
         <v>16</v>
       </c>
-      <c r="H5" s="22">
+      <c r="I5" s="21">
         <v>22</v>
       </c>
-      <c r="I5" s="22">
+      <c r="J5" s="21">
         <v>16</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="5">
         <f t="shared" si="1"/>
-        <v>1440</v>
-      </c>
-      <c r="O5" s="24">
+        <v>1312</v>
+      </c>
+      <c r="P5" s="23">
         <f t="shared" si="4"/>
-        <v>4.51</v>
-      </c>
-      <c r="P5">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L5)</f>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="Q5">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M5)</f>
         <v>0.2558139534883721</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="2">
+      <c r="Y5" s="2">
         <v>8</v>
       </c>
-      <c r="Y5">
-        <f t="shared" ref="Y5:Y12" si="5">SUM(X4-X5)</f>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z12" si="5">SUM(Y4-Y5)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>4.54</v>
-      </c>
-      <c r="D6" s="17">
-        <v>115</v>
-      </c>
-      <c r="E6" s="18">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="D6" s="16">
+        <v>110</v>
+      </c>
+      <c r="E6" s="17">
         <v>4</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>64</v>
+      </c>
+      <c r="G6" s="18">
         <v>4</v>
       </c>
-      <c r="G6" s="20">
+      <c r="H6" s="19">
         <v>16</v>
       </c>
-      <c r="H6" s="20">
+      <c r="I6" s="19">
         <v>23</v>
       </c>
-      <c r="I6" s="20">
+      <c r="J6" s="19">
         <v>16</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="K6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="20">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
+      <c r="L6" s="19">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <f t="shared" si="3"/>
         <v>405</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="5">
         <f t="shared" si="1"/>
-        <v>1840</v>
-      </c>
-      <c r="O6" s="24">
+        <v>1760</v>
+      </c>
+      <c r="P6" s="23">
         <f t="shared" si="4"/>
-        <v>4.54</v>
-      </c>
-      <c r="P6">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L6)</f>
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M6)</f>
         <v>0.26436781609195403</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>7</v>
       </c>
-      <c r="X6" s="2">
+      <c r="Y6" s="2">
         <v>10</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>5.08</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>125</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>3</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>80</v>
+      </c>
+      <c r="G7" s="18">
         <v>4</v>
       </c>
-      <c r="G7" s="22">
+      <c r="H7" s="21">
         <v>20</v>
       </c>
-      <c r="H7" s="22">
+      <c r="I7" s="21">
         <v>30</v>
       </c>
-      <c r="I7" s="22">
+      <c r="J7" s="21">
         <v>14</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="K7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <f t="shared" si="3"/>
         <v>492</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="5">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="O7" s="24">
+      <c r="P7" s="23">
         <f t="shared" si="4"/>
         <v>5.08</v>
       </c>
-      <c r="P7">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L7)</f>
+      <c r="Q7">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M7)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <v>6</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>12</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>5.08</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>170</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <v>3</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>108</v>
+      </c>
+      <c r="G8" s="18">
         <v>6</v>
       </c>
-      <c r="G8" s="20">
+      <c r="H8" s="19">
         <v>18</v>
       </c>
-      <c r="H8" s="20">
+      <c r="I8" s="19">
         <v>40</v>
       </c>
-      <c r="I8" s="20">
+      <c r="J8" s="19">
         <v>16</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="K8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L8" s="19">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <f t="shared" si="3"/>
         <v>602</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="5">
         <f t="shared" si="1"/>
         <v>3060</v>
       </c>
-      <c r="O8" s="24">
+      <c r="P8" s="23">
         <f t="shared" si="4"/>
         <v>5.08</v>
       </c>
-      <c r="P8">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L8)</f>
+      <c r="Q8">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M8)</f>
         <v>0.27027027027027029</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>5</v>
       </c>
-      <c r="X8" s="2">
+      <c r="Y8" s="2">
         <v>14</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>250</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="17">
         <v>3</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>126</v>
+      </c>
+      <c r="G9" s="18">
         <v>7</v>
       </c>
-      <c r="G9" s="22">
+      <c r="H9" s="21">
         <v>18</v>
       </c>
-      <c r="H9" s="22">
+      <c r="I9" s="21">
         <v>42</v>
       </c>
-      <c r="I9" s="22">
+      <c r="J9" s="21">
         <v>14</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="L9" s="21">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="5">
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
-      <c r="O9" s="24">
+      <c r="P9" s="23">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="P9">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L9)</f>
+      <c r="Q9">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M9)</f>
         <v>0.25</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>4</v>
       </c>
-      <c r="X9" s="2">
+      <c r="Y9" s="2">
         <v>16</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>6.45</v>
-      </c>
-      <c r="D10" s="17">
-        <v>370</v>
-      </c>
-      <c r="E10" s="18">
+        <v>6.27</v>
+      </c>
+      <c r="D10" s="16">
+        <v>360</v>
+      </c>
+      <c r="E10" s="17">
         <v>4</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>128</v>
+      </c>
+      <c r="G10" s="18">
         <v>8</v>
       </c>
-      <c r="G10" s="20">
+      <c r="H10" s="19">
         <v>16</v>
       </c>
-      <c r="H10" s="20">
+      <c r="I10" s="19">
         <v>44</v>
       </c>
-      <c r="I10" s="20">
+      <c r="J10" s="19">
         <v>16</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="K10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="20">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3">
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <f t="shared" si="2"/>
         <v>172</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <f t="shared" si="3"/>
         <v>918</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="5">
         <f t="shared" si="1"/>
-        <v>5920</v>
-      </c>
-      <c r="O10" s="24">
+        <v>5760</v>
+      </c>
+      <c r="P10" s="23">
         <f t="shared" si="4"/>
-        <v>6.45</v>
-      </c>
-      <c r="P10">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L10)</f>
+        <v>6.27</v>
+      </c>
+      <c r="Q10">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M10)</f>
         <v>0.2558139534883721</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>3</v>
       </c>
-      <c r="X10" s="2">
+      <c r="Y10" s="2">
         <v>23</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f t="shared" si="5"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>6.61</v>
-      </c>
-      <c r="D11" s="17">
-        <v>450</v>
-      </c>
-      <c r="E11" s="18">
+        <v>6.17</v>
+      </c>
+      <c r="D11" s="16">
+        <v>420</v>
+      </c>
+      <c r="E11" s="17">
         <v>3</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>128</v>
+      </c>
+      <c r="G11" s="18">
         <v>8</v>
       </c>
-      <c r="G11" s="22">
+      <c r="H11" s="21">
         <v>16</v>
       </c>
-      <c r="H11" s="22">
+      <c r="I11" s="21">
         <v>45</v>
       </c>
-      <c r="I11" s="22">
+      <c r="J11" s="21">
         <v>17</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="K11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="L11" s="21">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
         <f t="shared" si="2"/>
         <v>173</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <f t="shared" si="3"/>
         <v>1090</v>
       </c>
-      <c r="N11" s="6">
+      <c r="O11" s="5">
         <f t="shared" si="1"/>
-        <v>7200</v>
-      </c>
-      <c r="O11" s="24">
+        <v>6720</v>
+      </c>
+      <c r="P11" s="23">
         <f t="shared" si="4"/>
-        <v>6.61</v>
-      </c>
-      <c r="P11">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L11)</f>
+        <v>6.17</v>
+      </c>
+      <c r="Q11">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M11)</f>
         <v>0.26011560693641617</v>
       </c>
-      <c r="W11" s="1">
+      <c r="X11" s="1">
         <v>2</v>
       </c>
-      <c r="X11" s="2">
+      <c r="Y11" s="2">
         <v>32</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <f t="shared" si="5"/>
         <v>-9</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>6.65</v>
-      </c>
-      <c r="D12" s="17">
-        <v>420</v>
-      </c>
-      <c r="E12" s="18">
+        <v>6.33</v>
+      </c>
+      <c r="D12" s="16">
+        <v>400</v>
+      </c>
+      <c r="E12" s="17">
         <v>5</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>140</v>
+      </c>
+      <c r="G12" s="18">
         <v>7</v>
       </c>
-      <c r="G12" s="20">
+      <c r="H12" s="19">
         <v>20</v>
       </c>
-      <c r="H12" s="20">
+      <c r="I12" s="19">
         <v>40</v>
       </c>
-      <c r="I12" s="20">
+      <c r="J12" s="19">
         <v>14</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="K12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="20">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="L12" s="19">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <f t="shared" si="3"/>
         <v>1263</v>
       </c>
-      <c r="N12" s="6">
+      <c r="O12" s="5">
         <f t="shared" si="1"/>
-        <v>8400</v>
-      </c>
-      <c r="O12" s="24">
+        <v>8000</v>
+      </c>
+      <c r="P12" s="23">
         <f t="shared" si="4"/>
-        <v>6.65</v>
-      </c>
-      <c r="P12">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L12)</f>
+        <v>6.33</v>
+      </c>
+      <c r="Q12">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M12)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="W12" s="1">
+      <c r="X12" s="1">
         <v>1</v>
       </c>
-      <c r="X12" s="2">
+      <c r="Y12" s="2">
         <v>65</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <f t="shared" si="5"/>
         <v>-33</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
-        <v>6.93</v>
-      </c>
-      <c r="D13" s="17">
-        <v>500</v>
-      </c>
-      <c r="E13" s="18">
+        <v>6.79</v>
+      </c>
+      <c r="D13" s="16">
+        <v>490</v>
+      </c>
+      <c r="E13" s="17">
         <v>4</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>140</v>
+      </c>
+      <c r="G13" s="18">
         <v>7</v>
       </c>
-      <c r="G13" s="22">
+      <c r="H13" s="21">
         <v>20</v>
       </c>
-      <c r="H13" s="22">
+      <c r="I13" s="21">
         <v>72</v>
       </c>
-      <c r="I13" s="22">
+      <c r="J13" s="21">
         <v>14</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="K13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3">
+      <c r="L13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
         <f t="shared" si="2"/>
         <v>212</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <f t="shared" si="3"/>
         <v>1443</v>
       </c>
-      <c r="N13" s="6">
+      <c r="O13" s="5">
         <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="O13" s="24">
+        <v>9800</v>
+      </c>
+      <c r="P13" s="23">
         <f t="shared" si="4"/>
-        <v>6.93</v>
-      </c>
-      <c r="P13">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L13)</f>
+        <v>6.79</v>
+      </c>
+      <c r="Q13">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M13)</f>
         <v>0.33962264150943394</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>7.07</v>
-      </c>
-      <c r="D14" s="17">
-        <v>650</v>
-      </c>
-      <c r="E14" s="18">
+        <v>6.85</v>
+      </c>
+      <c r="D14" s="16">
+        <v>630</v>
+      </c>
+      <c r="E14" s="17">
         <v>4</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>144</v>
+      </c>
+      <c r="G14" s="18">
         <v>8</v>
       </c>
-      <c r="G14" s="20">
+      <c r="H14" s="19">
         <v>18</v>
       </c>
-      <c r="H14" s="20">
+      <c r="I14" s="19">
         <v>92</v>
       </c>
-      <c r="I14" s="20">
+      <c r="J14" s="19">
         <v>16</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="K14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="20">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <f t="shared" si="2"/>
         <v>236</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <f t="shared" si="3"/>
         <v>1655</v>
       </c>
-      <c r="N14" s="6">
-        <f t="shared" ref="N14:N21" si="6">SUM(G14*D14)</f>
-        <v>11700</v>
-      </c>
-      <c r="O14" s="24">
+      <c r="O14" s="5">
+        <f t="shared" ref="O14:O21" si="6">SUM(H14*D14)</f>
+        <v>11340</v>
+      </c>
+      <c r="P14" s="23">
         <f t="shared" si="4"/>
-        <v>7.07</v>
-      </c>
-      <c r="P14">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L14)</f>
+        <v>6.85</v>
+      </c>
+      <c r="Q14">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M14)</f>
         <v>0.38983050847457629</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>8.4499999999999993</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="16">
         <v>940</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>3</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>153</v>
+      </c>
+      <c r="G15" s="18">
         <v>9</v>
       </c>
-      <c r="G15" s="22">
+      <c r="H15" s="21">
         <v>17</v>
       </c>
-      <c r="H15" s="22">
+      <c r="I15" s="21">
         <v>93</v>
       </c>
-      <c r="I15" s="22">
+      <c r="J15" s="21">
         <v>18</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="K15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K15" s="22">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <f t="shared" si="3"/>
         <v>1891</v>
       </c>
-      <c r="N15" s="6">
+      <c r="O15" s="5">
         <f t="shared" si="6"/>
         <v>15980</v>
       </c>
-      <c r="O15" s="24">
+      <c r="P15" s="23">
         <f t="shared" si="4"/>
         <v>8.4499999999999993</v>
       </c>
-      <c r="P15">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L15)</f>
+      <c r="Q15">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M15)</f>
         <v>0.37804878048780488</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>7.34</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="16">
         <v>980</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>4</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>160</v>
+      </c>
+      <c r="G16" s="18">
         <v>10</v>
       </c>
-      <c r="G16" s="20">
+      <c r="H16" s="19">
         <v>16</v>
       </c>
-      <c r="H16" s="20">
+      <c r="I16" s="19">
         <v>97</v>
       </c>
-      <c r="I16" s="20">
+      <c r="J16" s="19">
         <v>16</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="K16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="20">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
+      <c r="L16" s="19">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <f t="shared" si="3"/>
         <v>2137</v>
       </c>
-      <c r="N16" s="6">
+      <c r="O16" s="5">
         <f t="shared" si="6"/>
         <v>15680</v>
       </c>
-      <c r="O16" s="24">
+      <c r="P16" s="23">
         <f t="shared" si="4"/>
         <v>7.34</v>
       </c>
-      <c r="P16">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L16)</f>
+      <c r="Q16">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M16)</f>
         <v>0.37743190661478598</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
-        <v>8.27</v>
-      </c>
-      <c r="D17" s="17">
-        <v>1100</v>
-      </c>
-      <c r="E17" s="18">
+        <v>7.89</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1050</v>
+      </c>
+      <c r="E17" s="17">
         <v>4</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>180</v>
+      </c>
+      <c r="G17" s="18">
         <v>10</v>
       </c>
-      <c r="G17" s="22">
+      <c r="H17" s="21">
         <v>18</v>
       </c>
-      <c r="H17" s="22">
+      <c r="I17" s="21">
         <v>98</v>
       </c>
-      <c r="I17" s="22">
+      <c r="J17" s="21">
         <v>14</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="K17" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="22">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="L17" s="21">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <f t="shared" si="2"/>
         <v>278</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <f t="shared" si="3"/>
         <v>2394</v>
       </c>
-      <c r="N17" s="6">
+      <c r="O17" s="5">
         <f t="shared" si="6"/>
-        <v>19800</v>
-      </c>
-      <c r="O17" s="24">
+        <v>18900</v>
+      </c>
+      <c r="P17" s="23">
         <f t="shared" si="4"/>
-        <v>8.27</v>
-      </c>
-      <c r="P17">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L17)</f>
+        <v>7.89</v>
+      </c>
+      <c r="Q17">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M17)</f>
         <v>0.35251798561151076</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1400</v>
-      </c>
-      <c r="E18" s="18">
+        <v>8.08</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1350</v>
+      </c>
+      <c r="E18" s="17">
         <v>5</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>176</v>
+      </c>
+      <c r="G18" s="18">
         <v>11</v>
       </c>
-      <c r="G18" s="20">
+      <c r="H18" s="19">
         <v>16</v>
       </c>
-      <c r="H18" s="20">
+      <c r="I18" s="19">
         <v>108</v>
       </c>
-      <c r="I18" s="20">
+      <c r="J18" s="19">
         <v>15</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="K18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="20">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="19">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <f t="shared" si="2"/>
         <v>284</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <f t="shared" si="3"/>
         <v>2672</v>
       </c>
-      <c r="N18" s="6">
+      <c r="O18" s="5">
         <f t="shared" si="6"/>
-        <v>22400</v>
-      </c>
-      <c r="O18" s="24">
+        <v>21600</v>
+      </c>
+      <c r="P18" s="23">
         <f t="shared" si="4"/>
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="P18">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L18)</f>
+        <v>8.08</v>
+      </c>
+      <c r="Q18">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M18)</f>
         <v>0.38028169014084506</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>8.66</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1600</v>
-      </c>
-      <c r="E19" s="18">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="D19" s="16">
+        <v>1500</v>
+      </c>
+      <c r="E19" s="17">
         <v>3</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>192</v>
+      </c>
+      <c r="G19" s="18">
         <v>12</v>
       </c>
-      <c r="G19" s="22">
+      <c r="H19" s="21">
         <v>16</v>
       </c>
-      <c r="H19" s="22">
+      <c r="I19" s="21">
         <v>112</v>
       </c>
-      <c r="I19" s="22">
+      <c r="J19" s="21">
         <v>16</v>
       </c>
-      <c r="J19" s="23" t="s">
+      <c r="K19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="22">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
+      <c r="L19" s="21">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <f t="shared" si="3"/>
         <v>2956</v>
       </c>
-      <c r="N19" s="6">
+      <c r="O19" s="5">
         <f t="shared" si="6"/>
-        <v>25600</v>
-      </c>
-      <c r="O19" s="24">
+        <v>24000</v>
+      </c>
+      <c r="P19" s="23">
         <f t="shared" si="4"/>
-        <v>8.66</v>
-      </c>
-      <c r="P19">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L19)</f>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="Q19">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M19)</f>
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>7.52</v>
-      </c>
-      <c r="D20" s="17">
-        <v>1750</v>
-      </c>
-      <c r="E20" s="18">
+        <v>8.16</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="17">
         <v>3</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>182</v>
+      </c>
+      <c r="G20" s="18">
         <v>13</v>
       </c>
-      <c r="G20" s="20">
+      <c r="H20" s="19">
         <v>14</v>
       </c>
-      <c r="H20" s="20">
+      <c r="I20" s="19">
         <v>120</v>
       </c>
-      <c r="I20" s="20">
+      <c r="J20" s="19">
         <v>15</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="K20" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K20" s="20">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <f t="shared" si="2"/>
         <v>302</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <f t="shared" si="3"/>
         <v>3260</v>
       </c>
-      <c r="N20" s="6">
+      <c r="O20" s="5">
         <f t="shared" si="6"/>
-        <v>24500</v>
-      </c>
-      <c r="O20" s="24">
+        <v>26600</v>
+      </c>
+      <c r="P20" s="23">
         <f t="shared" si="4"/>
-        <v>7.52</v>
-      </c>
-      <c r="P20">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L20)</f>
+        <v>8.16</v>
+      </c>
+      <c r="Q20">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M20)</f>
         <v>0.39735099337748342</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>8.98</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>2000</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>4</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="7">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>240</v>
+      </c>
+      <c r="G21" s="8">
         <v>15</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="9">
         <v>16</v>
       </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
+        <v>122</v>
+      </c>
+      <c r="J21" s="9">
         <v>16</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="K21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="10">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="L21" s="9">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <f t="shared" si="2"/>
-        <v>240</v>
-      </c>
-      <c r="M21" s="3">
+        <v>362</v>
+      </c>
+      <c r="N21" s="3">
         <f t="shared" si="3"/>
         <v>3562</v>
       </c>
-      <c r="N21" s="6">
+      <c r="O21" s="5">
         <f t="shared" si="6"/>
         <v>32000</v>
       </c>
-      <c r="O21" s="24">
+      <c r="P21" s="23">
         <f t="shared" si="4"/>
         <v>8.98</v>
       </c>
-      <c r="P21">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/L21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="Q21">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M21)</f>
+        <v>0.33701657458563539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" s="26">
+        <v>9</v>
+      </c>
+      <c r="D22" s="16">
+        <f>ROUND(O22/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>2523</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4</v>
+      </c>
+      <c r="F22" s="17">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>182</v>
+      </c>
+      <c r="G22" s="8">
+        <v>13</v>
+      </c>
+      <c r="H22" s="30">
+        <v>14</v>
+      </c>
+      <c r="I22" s="30">
+        <v>124</v>
+      </c>
+      <c r="J22" s="21">
+        <v>16</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="L22" s="21">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <f t="shared" ref="M22:M51" si="7">SUM((H22*G22)+I22)</f>
+        <v>306</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" ref="N22:N51" si="8">SUM(M21+N21)</f>
+        <v>3924</v>
+      </c>
+      <c r="O22" s="5">
+        <f>SUM(N22*Table1[[#This Row],[Gold /HP]])</f>
+        <v>35316</v>
+      </c>
+      <c r="P22" s="23">
+        <f t="shared" ref="P22:P51" si="9">SUM(ROUND((O22 / N22),2))</f>
+        <v>9</v>
+      </c>
+      <c r="Q22">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M22)</f>
+        <v>0.40522875816993464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" s="26">
+        <v>9.1</v>
+      </c>
+      <c r="D23" s="16">
+        <f>ROUND(O23/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>3849</v>
+      </c>
+      <c r="E23" s="27">
+        <v>3</v>
+      </c>
+      <c r="F23" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>180</v>
+      </c>
+      <c r="G23" s="8">
+        <v>18</v>
+      </c>
+      <c r="H23" s="9">
+        <v>10</v>
+      </c>
+      <c r="I23" s="9">
+        <v>130</v>
+      </c>
+      <c r="J23" s="28">
+        <v>18</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <f t="shared" si="7"/>
+        <v>310</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="8"/>
+        <v>4230</v>
+      </c>
+      <c r="O23" s="5">
+        <f>SUM(N23*Table1[[#This Row],[Gold /HP]])</f>
+        <v>38493</v>
+      </c>
+      <c r="P23" s="23">
+        <f t="shared" si="9"/>
+        <v>9.1</v>
+      </c>
+      <c r="Q23">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M23)</f>
+        <v>0.41935483870967744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" s="26">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D24" s="16">
+        <f>ROUND(O24/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>2983</v>
+      </c>
+      <c r="E24" s="27">
+        <v>4</v>
+      </c>
+      <c r="F24" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>182</v>
+      </c>
+      <c r="G24" s="8">
+        <v>13</v>
+      </c>
+      <c r="H24" s="30">
+        <v>14</v>
+      </c>
+      <c r="I24" s="30">
+        <v>132</v>
+      </c>
+      <c r="J24" s="28">
+        <v>14</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <f t="shared" si="7"/>
+        <v>314</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="8"/>
+        <v>4540</v>
+      </c>
+      <c r="O24" s="5">
+        <f>SUM(N24*Table1[[#This Row],[Gold /HP]])</f>
+        <v>41768</v>
+      </c>
+      <c r="P24" s="23">
+        <f t="shared" si="9"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q24">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M24)</f>
+        <v>0.42038216560509556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" s="26">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D25" s="16">
+        <f>ROUND(O25/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>4514</v>
+      </c>
+      <c r="E25" s="27">
+        <v>3</v>
+      </c>
+      <c r="F25" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>190</v>
+      </c>
+      <c r="G25" s="8">
+        <v>19</v>
+      </c>
+      <c r="H25" s="9">
+        <v>10</v>
+      </c>
+      <c r="I25" s="9">
+        <v>134</v>
+      </c>
+      <c r="J25" s="28">
+        <v>16</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <f t="shared" si="7"/>
+        <v>324</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="8"/>
+        <v>4854</v>
+      </c>
+      <c r="O25" s="5">
+        <f>SUM(N25*Table1[[#This Row],[Gold /HP]])</f>
+        <v>45142.200000000004</v>
+      </c>
+      <c r="P25" s="23">
+        <f t="shared" si="9"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="Q25">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M25)</f>
+        <v>0.41358024691358025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" s="26">
+        <v>9.4</v>
+      </c>
+      <c r="D26" s="16">
+        <f>ROUND(O26/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>2704</v>
+      </c>
+      <c r="E26" s="27">
+        <v>5</v>
+      </c>
+      <c r="F26" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>216</v>
+      </c>
+      <c r="G26" s="8">
+        <v>12</v>
+      </c>
+      <c r="H26" s="30">
+        <v>18</v>
+      </c>
+      <c r="I26" s="30">
+        <v>140</v>
+      </c>
+      <c r="J26" s="28">
+        <v>18</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <f t="shared" si="7"/>
+        <v>356</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="8"/>
+        <v>5178</v>
+      </c>
+      <c r="O26" s="5">
+        <f>SUM(N26*Table1[[#This Row],[Gold /HP]])</f>
+        <v>48673.200000000004</v>
+      </c>
+      <c r="P26" s="23">
+        <f t="shared" si="9"/>
+        <v>9.4</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M26)</f>
+        <v>0.39325842696629215</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" s="26">
+        <v>9.5</v>
+      </c>
+      <c r="D27" s="16">
+        <f>ROUND(O27/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>3755</v>
+      </c>
+      <c r="E27" s="27">
+        <v>4</v>
+      </c>
+      <c r="F27" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>210</v>
+      </c>
+      <c r="G27" s="8">
+        <v>15</v>
+      </c>
+      <c r="H27" s="9">
+        <v>14</v>
+      </c>
+      <c r="I27" s="9">
+        <v>142</v>
+      </c>
+      <c r="J27" s="28">
+        <v>14</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <f t="shared" si="7"/>
+        <v>352</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="8"/>
+        <v>5534</v>
+      </c>
+      <c r="O27" s="5">
+        <f>SUM(N27*Table1[[#This Row],[Gold /HP]])</f>
+        <v>52573</v>
+      </c>
+      <c r="P27" s="23">
+        <f t="shared" si="9"/>
+        <v>9.5</v>
+      </c>
+      <c r="Q27">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M27)</f>
+        <v>0.40340909090909088</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" s="26">
+        <v>9.6</v>
+      </c>
+      <c r="D28" s="16">
+        <f>ROUND(O28/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>4036</v>
+      </c>
+      <c r="E28" s="27">
+        <v>4</v>
+      </c>
+      <c r="F28" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>196</v>
+      </c>
+      <c r="G28" s="8">
+        <v>14</v>
+      </c>
+      <c r="H28" s="30">
+        <v>14</v>
+      </c>
+      <c r="I28" s="30">
+        <v>145</v>
+      </c>
+      <c r="J28" s="28">
+        <v>16</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="7"/>
+        <v>341</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="8"/>
+        <v>5886</v>
+      </c>
+      <c r="O28" s="5">
+        <f>SUM(N28*Table1[[#This Row],[Gold /HP]])</f>
+        <v>56505.599999999999</v>
+      </c>
+      <c r="P28" s="23">
+        <f t="shared" si="9"/>
+        <v>9.6</v>
+      </c>
+      <c r="Q28">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M28)</f>
+        <v>0.42521994134897362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" s="26">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D29" s="16">
+        <f>ROUND(O29/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>3356</v>
+      </c>
+      <c r="E29" s="27">
+        <v>5</v>
+      </c>
+      <c r="F29" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>216</v>
+      </c>
+      <c r="G29" s="8">
+        <v>12</v>
+      </c>
+      <c r="H29" s="9">
+        <v>18</v>
+      </c>
+      <c r="I29" s="9">
+        <v>148</v>
+      </c>
+      <c r="J29" s="28">
+        <v>18</v>
+      </c>
+      <c r="K29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="7"/>
+        <v>364</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="8"/>
+        <v>6227</v>
+      </c>
+      <c r="O29" s="5">
+        <f>SUM(N29*Table1[[#This Row],[Gold /HP]])</f>
+        <v>60401.899999999994</v>
+      </c>
+      <c r="P29" s="23">
+        <f t="shared" si="9"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Q29">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M29)</f>
+        <v>0.40659340659340659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" s="26">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D30" s="16">
+        <f>ROUND(O30/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>6459</v>
+      </c>
+      <c r="E30" s="27">
+        <v>3</v>
+      </c>
+      <c r="F30" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>220</v>
+      </c>
+      <c r="G30" s="8">
+        <v>22</v>
+      </c>
+      <c r="H30" s="30">
+        <v>10</v>
+      </c>
+      <c r="I30" s="30">
+        <v>150</v>
+      </c>
+      <c r="J30" s="28">
+        <v>14</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="21">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <f t="shared" si="7"/>
+        <v>370</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="8"/>
+        <v>6591</v>
+      </c>
+      <c r="O30" s="5">
+        <f>SUM(N30*Table1[[#This Row],[Gold /HP]])</f>
+        <v>64591.8</v>
+      </c>
+      <c r="P30" s="23">
+        <f t="shared" si="9"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="Q30">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M30)</f>
+        <v>0.40540540540540543</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="26">
+        <v>9.9</v>
+      </c>
+      <c r="D31" s="16">
+        <f>ROUND(O31/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>4922</v>
+      </c>
+      <c r="E31" s="27">
+        <v>4</v>
+      </c>
+      <c r="F31" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>238</v>
+      </c>
+      <c r="G31" s="8">
+        <v>17</v>
+      </c>
+      <c r="H31" s="9">
+        <v>14</v>
+      </c>
+      <c r="I31" s="9">
+        <v>152</v>
+      </c>
+      <c r="J31" s="28">
+        <v>16</v>
+      </c>
+      <c r="K31" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="21">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <f t="shared" si="7"/>
+        <v>390</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="8"/>
+        <v>6961</v>
+      </c>
+      <c r="O31" s="5">
+        <f>SUM(N31*Table1[[#This Row],[Gold /HP]])</f>
+        <v>68913.900000000009</v>
+      </c>
+      <c r="P31" s="23">
+        <f t="shared" si="9"/>
+        <v>9.9</v>
+      </c>
+      <c r="Q31">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M31)</f>
+        <v>0.38974358974358975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" s="26">
+        <v>10</v>
+      </c>
+      <c r="D32" s="16">
+        <f>ROUND(O32/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>5251</v>
+      </c>
+      <c r="E32" s="27">
+        <v>4</v>
+      </c>
+      <c r="F32" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>238</v>
+      </c>
+      <c r="G32" s="8">
+        <v>17</v>
+      </c>
+      <c r="H32" s="30">
+        <v>14</v>
+      </c>
+      <c r="I32" s="30">
+        <v>160</v>
+      </c>
+      <c r="J32" s="28">
+        <v>18</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="21">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="7"/>
+        <v>398</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="8"/>
+        <v>7351</v>
+      </c>
+      <c r="O32" s="5">
+        <f>SUM(N32*Table1[[#This Row],[Gold /HP]])</f>
+        <v>73510</v>
+      </c>
+      <c r="P32" s="23">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="Q32">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M32)</f>
+        <v>0.4020100502512563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" s="26">
+        <v>10.1</v>
+      </c>
+      <c r="D33" s="16">
+        <f>ROUND(O33/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>7826</v>
+      </c>
+      <c r="E33" s="27">
+        <v>3</v>
+      </c>
+      <c r="F33" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>250</v>
+      </c>
+      <c r="G33" s="8">
+        <v>25</v>
+      </c>
+      <c r="H33" s="9">
+        <v>10</v>
+      </c>
+      <c r="I33" s="9">
+        <v>162</v>
+      </c>
+      <c r="J33" s="28">
+        <v>14</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="21">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" si="7"/>
+        <v>412</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="8"/>
+        <v>7749</v>
+      </c>
+      <c r="O33" s="5">
+        <f>SUM(N33*Table1[[#This Row],[Gold /HP]])</f>
+        <v>78264.899999999994</v>
+      </c>
+      <c r="P33" s="23">
+        <f t="shared" si="9"/>
+        <v>10.1</v>
+      </c>
+      <c r="Q33">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M33)</f>
+        <v>0.39320388349514562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" s="26">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D34" s="16">
+        <f>ROUND(O34/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>8324</v>
+      </c>
+      <c r="E34" s="27">
+        <v>3</v>
+      </c>
+      <c r="F34" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>270</v>
+      </c>
+      <c r="G34" s="8">
+        <v>27</v>
+      </c>
+      <c r="H34" s="30">
+        <v>10</v>
+      </c>
+      <c r="I34" s="30">
+        <v>165</v>
+      </c>
+      <c r="J34" s="28">
+        <v>16</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="21">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="7"/>
+        <v>435</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="8"/>
+        <v>8161</v>
+      </c>
+      <c r="O34" s="5">
+        <f>SUM(N34*Table1[[#This Row],[Gold /HP]])</f>
+        <v>83242.2</v>
+      </c>
+      <c r="P34" s="23">
+        <f t="shared" si="9"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="Q34">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M34)</f>
+        <v>0.37931034482758619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" s="26">
+        <v>10.3</v>
+      </c>
+      <c r="D35" s="16">
+        <f>ROUND(O35/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>6324</v>
+      </c>
+      <c r="E35" s="27">
+        <v>4</v>
+      </c>
+      <c r="F35" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>280</v>
+      </c>
+      <c r="G35" s="8">
+        <v>20</v>
+      </c>
+      <c r="H35" s="9">
+        <v>14</v>
+      </c>
+      <c r="I35" s="9">
+        <v>166</v>
+      </c>
+      <c r="J35" s="28">
+        <v>18</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="21">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="7"/>
+        <v>446</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="8"/>
+        <v>8596</v>
+      </c>
+      <c r="O35" s="5">
+        <f>SUM(N35*Table1[[#This Row],[Gold /HP]])</f>
+        <v>88538.8</v>
+      </c>
+      <c r="P35" s="23">
+        <f t="shared" si="9"/>
+        <v>10.3</v>
+      </c>
+      <c r="Q35">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M35)</f>
+        <v>0.37219730941704038</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" s="26">
+        <v>10.4</v>
+      </c>
+      <c r="D36" s="16">
+        <f>ROUND(O36/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>9404</v>
+      </c>
+      <c r="E36" s="27">
+        <v>3</v>
+      </c>
+      <c r="F36" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>300</v>
+      </c>
+      <c r="G36" s="8">
+        <v>30</v>
+      </c>
+      <c r="H36" s="30">
+        <v>10</v>
+      </c>
+      <c r="I36" s="30">
+        <v>168</v>
+      </c>
+      <c r="J36" s="28">
+        <v>14</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="21">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="7"/>
+        <v>468</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="8"/>
+        <v>9042</v>
+      </c>
+      <c r="O36" s="5">
+        <f>SUM(N36*Table1[[#This Row],[Gold /HP]])</f>
+        <v>94036.800000000003</v>
+      </c>
+      <c r="P36" s="23">
+        <f t="shared" si="9"/>
+        <v>10.4</v>
+      </c>
+      <c r="Q36">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M36)</f>
+        <v>0.35897435897435898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" s="26">
+        <v>10.5</v>
+      </c>
+      <c r="D37" s="16">
+        <f>ROUND(O37/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>5548</v>
+      </c>
+      <c r="E37" s="27">
+        <v>5</v>
+      </c>
+      <c r="F37" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>306</v>
+      </c>
+      <c r="G37" s="8">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9">
+        <v>18</v>
+      </c>
+      <c r="I37" s="9">
+        <v>170</v>
+      </c>
+      <c r="J37" s="28">
+        <v>16</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="21">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="7"/>
+        <v>476</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="8"/>
+        <v>9510</v>
+      </c>
+      <c r="O37" s="5">
+        <f>SUM(N37*Table1[[#This Row],[Gold /HP]])</f>
+        <v>99855</v>
+      </c>
+      <c r="P37" s="23">
+        <f t="shared" si="9"/>
+        <v>10.5</v>
+      </c>
+      <c r="Q37">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M37)</f>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" s="26">
+        <v>10.6</v>
+      </c>
+      <c r="D38" s="16">
+        <f>ROUND(O38/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>10585</v>
+      </c>
+      <c r="E38" s="27">
+        <v>3</v>
+      </c>
+      <c r="F38" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>310</v>
+      </c>
+      <c r="G38" s="8">
+        <v>31</v>
+      </c>
+      <c r="H38" s="30">
+        <v>10</v>
+      </c>
+      <c r="I38" s="30">
+        <v>173</v>
+      </c>
+      <c r="J38" s="28">
+        <v>18</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="21">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <f t="shared" si="7"/>
+        <v>483</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="8"/>
+        <v>9986</v>
+      </c>
+      <c r="O38" s="5">
+        <f>SUM(N38*Table1[[#This Row],[Gold /HP]])</f>
+        <v>105851.59999999999</v>
+      </c>
+      <c r="P38" s="23">
+        <f t="shared" si="9"/>
+        <v>10.6</v>
+      </c>
+      <c r="Q38">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M38)</f>
+        <v>0.35817805383022772</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" s="26">
+        <v>10.7</v>
+      </c>
+      <c r="D39" s="16">
+        <f>ROUND(O39/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>5896</v>
+      </c>
+      <c r="E39" s="27">
+        <v>5</v>
+      </c>
+      <c r="F39" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>323</v>
+      </c>
+      <c r="G39" s="8">
+        <v>17</v>
+      </c>
+      <c r="H39" s="9">
+        <v>19</v>
+      </c>
+      <c r="I39" s="9">
+        <v>174</v>
+      </c>
+      <c r="J39" s="28">
+        <v>14</v>
+      </c>
+      <c r="K39" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="21">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <f t="shared" si="7"/>
+        <v>497</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="8"/>
+        <v>10469</v>
+      </c>
+      <c r="O39" s="5">
+        <f>SUM(N39*Table1[[#This Row],[Gold /HP]])</f>
+        <v>112018.29999999999</v>
+      </c>
+      <c r="P39" s="23">
+        <f t="shared" si="9"/>
+        <v>10.7</v>
+      </c>
+      <c r="Q39">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M39)</f>
+        <v>0.3501006036217304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" s="26">
+        <v>10.8</v>
+      </c>
+      <c r="D40" s="16">
+        <f>ROUND(O40/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>8459</v>
+      </c>
+      <c r="E40" s="27">
+        <v>4</v>
+      </c>
+      <c r="F40" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>322</v>
+      </c>
+      <c r="G40" s="8">
+        <v>23</v>
+      </c>
+      <c r="H40" s="30">
+        <v>14</v>
+      </c>
+      <c r="I40" s="30">
+        <v>176</v>
+      </c>
+      <c r="J40" s="28">
+        <v>16</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="21">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <f t="shared" si="7"/>
+        <v>498</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="8"/>
+        <v>10966</v>
+      </c>
+      <c r="O40" s="5">
+        <f>SUM(N40*Table1[[#This Row],[Gold /HP]])</f>
+        <v>118432.8</v>
+      </c>
+      <c r="P40" s="23">
+        <f t="shared" si="9"/>
+        <v>10.8</v>
+      </c>
+      <c r="Q40">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M40)</f>
+        <v>0.3534136546184739</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" s="26">
+        <v>10.9</v>
+      </c>
+      <c r="D41" s="16">
+        <f>ROUND(O41/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>8926</v>
+      </c>
+      <c r="E41" s="27">
+        <v>4</v>
+      </c>
+      <c r="F41" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>336</v>
+      </c>
+      <c r="G41" s="8">
+        <v>24</v>
+      </c>
+      <c r="H41" s="9">
+        <v>14</v>
+      </c>
+      <c r="I41" s="9">
+        <v>188</v>
+      </c>
+      <c r="J41" s="28">
+        <v>18</v>
+      </c>
+      <c r="K41" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="21">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <f t="shared" si="7"/>
+        <v>524</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="8"/>
+        <v>11464</v>
+      </c>
+      <c r="O41" s="5">
+        <f>SUM(N41*Table1[[#This Row],[Gold /HP]])</f>
+        <v>124957.6</v>
+      </c>
+      <c r="P41" s="23">
+        <f t="shared" si="9"/>
+        <v>10.9</v>
+      </c>
+      <c r="Q41">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M41)</f>
+        <v>0.35877862595419846</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="26">
+        <v>11</v>
+      </c>
+      <c r="D42" s="16">
+        <f>ROUND(O42/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>7757</v>
+      </c>
+      <c r="E42" s="27">
+        <v>5</v>
+      </c>
+      <c r="F42" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>340</v>
+      </c>
+      <c r="G42" s="8">
+        <v>20</v>
+      </c>
+      <c r="H42" s="30">
+        <v>17</v>
+      </c>
+      <c r="I42" s="30">
+        <v>190</v>
+      </c>
+      <c r="J42" s="28">
+        <v>14</v>
+      </c>
+      <c r="K42" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="21">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <f t="shared" si="7"/>
+        <v>530</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="8"/>
+        <v>11988</v>
+      </c>
+      <c r="O42" s="5">
+        <f>SUM(N42*Table1[[#This Row],[Gold /HP]])</f>
+        <v>131868</v>
+      </c>
+      <c r="P42" s="23">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="Q42">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M42)</f>
+        <v>0.35849056603773582</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" s="26">
+        <v>11.1</v>
+      </c>
+      <c r="D43" s="16">
+        <f>ROUND(O43/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>9925</v>
+      </c>
+      <c r="E43" s="27">
+        <v>4</v>
+      </c>
+      <c r="F43" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>350</v>
+      </c>
+      <c r="G43" s="8">
+        <v>25</v>
+      </c>
+      <c r="H43" s="9">
+        <v>14</v>
+      </c>
+      <c r="I43" s="9">
+        <v>192</v>
+      </c>
+      <c r="J43" s="28">
+        <v>16</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="21">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <f t="shared" si="7"/>
+        <v>542</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="8"/>
+        <v>12518</v>
+      </c>
+      <c r="O43" s="5">
+        <f>SUM(N43*Table1[[#This Row],[Gold /HP]])</f>
+        <v>138949.79999999999</v>
+      </c>
+      <c r="P43" s="23">
+        <f t="shared" si="9"/>
+        <v>11.1</v>
+      </c>
+      <c r="Q43">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M43)</f>
+        <v>0.35424354243542433</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" s="26">
+        <v>11.2</v>
+      </c>
+      <c r="D44" s="16">
+        <f>ROUND(O44/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>14627</v>
+      </c>
+      <c r="E44" s="27">
+        <v>3</v>
+      </c>
+      <c r="F44" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>360</v>
+      </c>
+      <c r="G44" s="8">
+        <v>36</v>
+      </c>
+      <c r="H44" s="30">
+        <v>10</v>
+      </c>
+      <c r="I44" s="30">
+        <v>194</v>
+      </c>
+      <c r="J44" s="28">
+        <v>18</v>
+      </c>
+      <c r="K44" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="21">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="7"/>
+        <v>554</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="8"/>
+        <v>13060</v>
+      </c>
+      <c r="O44" s="5">
+        <f>SUM(N44*Table1[[#This Row],[Gold /HP]])</f>
+        <v>146272</v>
+      </c>
+      <c r="P44" s="23">
+        <f t="shared" si="9"/>
+        <v>11.2</v>
+      </c>
+      <c r="Q44">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M44)</f>
+        <v>0.35018050541516244</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" s="26">
+        <v>11.3</v>
+      </c>
+      <c r="D45" s="16">
+        <f>ROUND(O45/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>15384</v>
+      </c>
+      <c r="E45" s="27">
+        <v>3</v>
+      </c>
+      <c r="F45" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>370</v>
+      </c>
+      <c r="G45" s="8">
+        <v>37</v>
+      </c>
+      <c r="H45" s="9">
+        <v>10</v>
+      </c>
+      <c r="I45" s="9">
+        <v>198</v>
+      </c>
+      <c r="J45" s="28">
+        <v>14</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="21">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <f t="shared" si="7"/>
+        <v>568</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="8"/>
+        <v>13614</v>
+      </c>
+      <c r="O45" s="5">
+        <f>SUM(N45*Table1[[#This Row],[Gold /HP]])</f>
+        <v>153838.20000000001</v>
+      </c>
+      <c r="P45" s="23">
+        <f t="shared" si="9"/>
+        <v>11.3</v>
+      </c>
+      <c r="Q45">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M45)</f>
+        <v>0.34859154929577463</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" s="26">
+        <v>11.4</v>
+      </c>
+      <c r="D46" s="16">
+        <f>ROUND(O46/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>11548</v>
+      </c>
+      <c r="E46" s="27">
+        <v>4</v>
+      </c>
+      <c r="F46" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>392</v>
+      </c>
+      <c r="G46" s="8">
+        <v>28</v>
+      </c>
+      <c r="H46" s="30">
+        <v>14</v>
+      </c>
+      <c r="I46" s="30">
+        <v>200</v>
+      </c>
+      <c r="J46" s="28">
+        <v>16</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="21">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <f t="shared" si="7"/>
+        <v>592</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="8"/>
+        <v>14182</v>
+      </c>
+      <c r="O46" s="5">
+        <f>SUM(N46*Table1[[#This Row],[Gold /HP]])</f>
+        <v>161674.80000000002</v>
+      </c>
+      <c r="P46" s="23">
+        <f t="shared" si="9"/>
+        <v>11.4</v>
+      </c>
+      <c r="Q46">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M46)</f>
+        <v>0.33783783783783783</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" s="26">
+        <v>11.5</v>
+      </c>
+      <c r="D47" s="16">
+        <f>ROUND(O47/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>12136</v>
+      </c>
+      <c r="E47" s="27">
+        <v>4</v>
+      </c>
+      <c r="F47" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>406</v>
+      </c>
+      <c r="G47" s="8">
+        <v>29</v>
+      </c>
+      <c r="H47" s="9">
+        <v>14</v>
+      </c>
+      <c r="I47" s="9">
+        <v>202</v>
+      </c>
+      <c r="J47" s="28">
+        <v>18</v>
+      </c>
+      <c r="K47" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="21">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="7"/>
+        <v>608</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="8"/>
+        <v>14774</v>
+      </c>
+      <c r="O47" s="5">
+        <f>SUM(N47*Table1[[#This Row],[Gold /HP]])</f>
+        <v>169901</v>
+      </c>
+      <c r="P47" s="23">
+        <f t="shared" si="9"/>
+        <v>11.5</v>
+      </c>
+      <c r="Q47">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M47)</f>
+        <v>0.33223684210526316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" s="26">
+        <v>11.6</v>
+      </c>
+      <c r="D48" s="16">
+        <f>ROUND(O48/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>17843</v>
+      </c>
+      <c r="E48" s="27">
+        <v>3</v>
+      </c>
+      <c r="F48" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>430</v>
+      </c>
+      <c r="G48" s="8">
+        <v>43</v>
+      </c>
+      <c r="H48" s="30">
+        <v>10</v>
+      </c>
+      <c r="I48" s="30">
+        <v>208</v>
+      </c>
+      <c r="J48" s="28">
+        <v>14</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L48" s="21">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="7"/>
+        <v>638</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="8"/>
+        <v>15382</v>
+      </c>
+      <c r="O48" s="5">
+        <f>SUM(N48*Table1[[#This Row],[Gold /HP]])</f>
+        <v>178431.19999999998</v>
+      </c>
+      <c r="P48" s="23">
+        <f t="shared" si="9"/>
+        <v>11.6</v>
+      </c>
+      <c r="Q48">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M48)</f>
+        <v>0.32601880877742945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" s="26">
+        <v>11.7</v>
+      </c>
+      <c r="D49" s="16">
+        <f>ROUND(O49/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>10413</v>
+      </c>
+      <c r="E49" s="27">
+        <v>5</v>
+      </c>
+      <c r="F49" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>432</v>
+      </c>
+      <c r="G49" s="8">
+        <v>24</v>
+      </c>
+      <c r="H49" s="9">
+        <v>18</v>
+      </c>
+      <c r="I49" s="9">
+        <v>210</v>
+      </c>
+      <c r="J49" s="28">
+        <v>16</v>
+      </c>
+      <c r="K49" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L49" s="21">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="7"/>
+        <v>642</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="8"/>
+        <v>16020</v>
+      </c>
+      <c r="O49" s="5">
+        <f>SUM(N49*Table1[[#This Row],[Gold /HP]])</f>
+        <v>187434</v>
+      </c>
+      <c r="P49" s="23">
+        <f t="shared" si="9"/>
+        <v>11.7</v>
+      </c>
+      <c r="Q49">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M49)</f>
+        <v>0.32710280373831774</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" s="26">
+        <v>11.8</v>
+      </c>
+      <c r="D50" s="16">
+        <f>ROUND(O50/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>14044</v>
+      </c>
+      <c r="E50" s="27">
+        <v>4</v>
+      </c>
+      <c r="F50" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>434</v>
+      </c>
+      <c r="G50" s="8">
+        <v>31</v>
+      </c>
+      <c r="H50" s="30">
+        <v>14</v>
+      </c>
+      <c r="I50" s="30">
+        <v>212</v>
+      </c>
+      <c r="J50" s="28">
+        <v>18</v>
+      </c>
+      <c r="K50" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="21">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <f t="shared" si="7"/>
+        <v>646</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="8"/>
+        <v>16662</v>
+      </c>
+      <c r="O50" s="5">
+        <f>SUM(N50*Table1[[#This Row],[Gold /HP]])</f>
+        <v>196611.6</v>
+      </c>
+      <c r="P50" s="23">
+        <f t="shared" si="9"/>
+        <v>11.8</v>
+      </c>
+      <c r="Q50">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M50)</f>
+        <v>0.32817337461300311</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" s="26">
+        <v>11.9</v>
+      </c>
+      <c r="D51" s="16">
+        <f>ROUND(O51/Table1[[#This Row],[numberOfEnemies]],0)</f>
+        <v>20597</v>
+      </c>
+      <c r="E51" s="27">
+        <v>3</v>
+      </c>
+      <c r="F51" s="27">
+        <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
+        <v>440</v>
+      </c>
+      <c r="G51" s="8">
+        <v>44</v>
+      </c>
+      <c r="H51" s="9">
+        <v>10</v>
+      </c>
+      <c r="I51" s="9">
+        <v>215</v>
+      </c>
+      <c r="J51" s="28">
+        <v>16</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="21">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <f t="shared" si="7"/>
+        <v>655</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" si="8"/>
+        <v>17308</v>
+      </c>
+      <c r="O51" s="5">
+        <f>SUM(N51*Table1[[#This Row],[Gold /HP]])</f>
+        <v>205965.2</v>
+      </c>
+      <c r="P51" s="23">
+        <f t="shared" si="9"/>
+        <v>11.9</v>
+      </c>
+      <c r="Q51">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M51)</f>
+        <v>0.3282442748091603</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{23BCD8B1-DCDE-4082-9C5C-9468FD40903F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B29C6755-F42F-47CD-9BC1-43CF0131BD4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -452,31 +452,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -634,6 +609,31 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -828,25 +828,25 @@
     <tableColumn id="3" xr3:uid="{E13F5E4A-47D2-47A2-B541-96BA6CA07669}" uniqueName="maxMoveSpeed" name="maxMoveSpeed" dataDxfId="7">
       <xmlColumnPr mapId="2" xpath="/Root/Row/maxMoveSpeed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{798A0123-C7B3-4B90-8749-D85E3371CA67}" uniqueName="11" name="killedGold" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{798A0123-C7B3-4B90-8749-D85E3371CA67}" uniqueName="11" name="killedGold" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="5">
       <xmlColumnPr mapId="2" xpath="/Root/Row/goldValue" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="4">
       <xmlColumnPr mapId="2" xpath="/Root/Row/numberOfEnemies" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="3">
       <xmlColumnPr mapId="2" xpath="/Root/Row/roundEndBonus" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="2">
       <xmlColumnPr mapId="2" xpath="/Root/Row/freq" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="1">
       <xmlColumnPr mapId="2" xpath="/Root/Row/armorType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="0">
       <xmlColumnPr mapId="2" xpath="/Root/Row/maxArmor" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1154,9 +1154,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H51" sqref="H51"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,10 +1752,10 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5.76</v>
       </c>
       <c r="D9" s="16">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E9" s="17">
         <v>3</v>
@@ -1792,11 +1792,11 @@
       </c>
       <c r="O9" s="5">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>4320</v>
       </c>
       <c r="P9" s="23">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>5.76</v>
       </c>
       <c r="Q9">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/M9)</f>
@@ -1822,10 +1822,10 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>6.27</v>
+        <v>5.84</v>
       </c>
       <c r="D10" s="16">
-        <v>360</v>
+        <v>335</v>
       </c>
       <c r="E10" s="17">
         <v>4</v>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="O10" s="5">
         <f t="shared" si="1"/>
-        <v>5760</v>
+        <v>5360</v>
       </c>
       <c r="P10" s="23">
         <f t="shared" si="4"/>
-        <v>6.27</v>
+        <v>5.84</v>
       </c>
       <c r="Q10">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/M10)</f>
@@ -1892,10 +1892,10 @@
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>6.17</v>
+        <v>5.87</v>
       </c>
       <c r="D11" s="16">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="E11" s="17">
         <v>3</v>
@@ -1932,11 +1932,11 @@
       </c>
       <c r="O11" s="5">
         <f t="shared" si="1"/>
-        <v>6720</v>
+        <v>6400</v>
       </c>
       <c r="P11" s="23">
         <f t="shared" si="4"/>
-        <v>6.17</v>
+        <v>5.87</v>
       </c>
       <c r="Q11">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/M11)</f>
@@ -1962,10 +1962,10 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>6.33</v>
+        <v>6.02</v>
       </c>
       <c r="D12" s="16">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="E12" s="17">
         <v>5</v>
@@ -2002,11 +2002,11 @@
       </c>
       <c r="O12" s="5">
         <f t="shared" si="1"/>
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="P12" s="23">
         <f t="shared" si="4"/>
-        <v>6.33</v>
+        <v>6.02</v>
       </c>
       <c r="Q12">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/M12)</f>
@@ -2032,10 +2032,10 @@
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
-        <v>6.79</v>
+        <v>6.38</v>
       </c>
       <c r="D13" s="16">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="E13" s="17">
         <v>4</v>
@@ -2072,11 +2072,11 @@
       </c>
       <c r="O13" s="5">
         <f t="shared" si="1"/>
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="P13" s="23">
         <f t="shared" si="4"/>
-        <v>6.79</v>
+        <v>6.38</v>
       </c>
       <c r="Q13">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/M13)</f>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -1,35 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m3\Documents\GitHub\TowerDefense\enemies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B29C6755-F42F-47CD-9BC1-43CF0131BD4B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA790831-9F6F-4B90-A4AD-18988B4FE5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
+    <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{AA208D3F-5BFB-4A92-87A6-9487A2855881}" name="RoundsList" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\spec\Documents\GitHub\TowerDefense\RoundsList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" xr16:uid="{3B44CC6D-216A-457F-9DCC-8484C8A6FF3C}" name="RoundsList1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\spec\Documents\GitHub\TowerDefense\RoundsList.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
-    <t>Enemy</t>
-  </si>
-  <si>
     <t>maxArmor</t>
   </si>
   <si>
@@ -105,9 +119,6 @@
     <t>maxHp</t>
   </si>
   <si>
-    <t>currentRound</t>
-  </si>
-  <si>
     <t>Slime</t>
   </si>
   <si>
@@ -262,6 +273,12 @@
   </si>
   <si>
     <t>R. Doom</t>
+  </si>
+  <si>
+    <t>eName</t>
+  </si>
+  <si>
+    <t>round</t>
   </si>
 </sst>
 </file>
@@ -783,14 +800,15 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Root">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
             <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Row" form="unqualified">
               <xsd:complexType>
-                <xsd:sequence minOccurs="0">
+                <xsd:all>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="eName" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="currentRound" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="maxHp" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="maxMoveSpeed" form="unqualified"/>
@@ -800,7 +818,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="freq" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="armorType" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="maxArmor" form="unqualified"/>
-                </xsd:sequence>
+                </xsd:all>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -808,46 +826,51 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="2" Name="Root_Map" RootElement="Root" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true"/>
+  <Map ID="3" Name="Root_Map" RootElement="Root" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="B1:L51" tableType="xml" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B1:L51" xr:uid="{BB7B5203-2FDA-44AD-8D6D-FF5DC36F0FBF}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{2550C9AA-BC88-494A-A101-FBB680E5CA21}" uniqueName="currentRound" name="currentRound">
-      <xmlColumnPr mapId="2" xpath="/Root/Row/currentRound" xmlDataType="integer"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="A1:L51" tableType="xml" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10" connectionId="2">
+  <autoFilter ref="A1:L51" xr:uid="{BB7B5203-2FDA-44AD-8D6D-FF5DC36F0FBF}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{2550C9AA-BC88-494A-A101-FBB680E5CA21}" uniqueName="currentRound" name="round">
+      <xmlColumnPr mapId="3" xpath="/Root/Row/currentRound" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{EA42ACC1-AD5D-4190-B029-D38CD8D5DF28}" uniqueName="eName" name="eName">
+      <xmlColumnPr mapId="3" xpath="/Root/Row/eName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{5708407B-65CE-45BC-8878-142AF21D5339}" uniqueName="10" name="Gold /HP" dataDxfId="9">
       <calculatedColumnFormula>SUM(ROUND((O2 / N2),2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{F8F80C22-33BB-4B29-8273-4EA2699E1D19}" uniqueName="maxHp" name="maxHp" dataDxfId="8">
-      <xmlColumnPr mapId="2" xpath="/Root/Row/maxHp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/maxHp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{E13F5E4A-47D2-47A2-B541-96BA6CA07669}" uniqueName="maxMoveSpeed" name="maxMoveSpeed" dataDxfId="7">
-      <xmlColumnPr mapId="2" xpath="/Root/Row/maxMoveSpeed" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/maxMoveSpeed" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{798A0123-C7B3-4B90-8749-D85E3371CA67}" uniqueName="11" name="killedGold" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="5">
-      <xmlColumnPr mapId="2" xpath="/Root/Row/goldValue" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/goldValue" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="4">
-      <xmlColumnPr mapId="2" xpath="/Root/Row/numberOfEnemies" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/numberOfEnemies" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="3">
-      <xmlColumnPr mapId="2" xpath="/Root/Row/roundEndBonus" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/roundEndBonus" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="2">
-      <xmlColumnPr mapId="2" xpath="/Root/Row/freq" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/freq" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="1">
-      <xmlColumnPr mapId="2" xpath="/Root/Row/armorType" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/armorType" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="0">
-      <xmlColumnPr mapId="2" xpath="/Root/Row/maxArmor" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/Root/Row/maxArmor" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1156,114 +1179,119 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14"/>
+      <selection pane="topRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="J1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" t="s">
-        <v>8</v>
-      </c>
-      <c r="X1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
       </c>
       <c r="C2" s="4">
         <f t="shared" ref="C2:C21" si="0">SUM(ROUND((O2 / N2),2))</f>
@@ -1292,7 +1320,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="19">
         <v>0</v>
@@ -1317,18 +1345,18 @@
         <v>0.42857142857142855</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3">
+      <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
@@ -1357,7 +1385,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="21">
         <v>0</v>
@@ -1383,7 +1411,7 @@
         <v>0.23076923076923078</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y3" s="2">
         <v>4</v>
@@ -1394,11 +1422,11 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
+      <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
@@ -1427,7 +1455,7 @@
         <v>15</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L4" s="19">
         <v>0</v>
@@ -1453,7 +1481,7 @@
         <v>0.25925925925925924</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y4" s="2">
         <v>6</v>
@@ -1464,11 +1492,11 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
+      <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
@@ -1497,7 +1525,7 @@
         <v>16</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L5" s="21">
         <v>0</v>
@@ -1523,7 +1551,7 @@
         <v>0.2558139534883721</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y5" s="2">
         <v>8</v>
@@ -1534,11 +1562,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
+      <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="0"/>
@@ -1567,7 +1595,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="19">
         <v>0</v>
@@ -1604,11 +1632,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
+      <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
@@ -1637,7 +1665,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" s="21">
         <v>0</v>
@@ -1674,11 +1702,11 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
+      <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
@@ -1707,7 +1735,7 @@
         <v>16</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L8" s="19">
         <v>0</v>
@@ -1744,11 +1772,11 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
+      <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
@@ -1777,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" s="21">
         <v>0</v>
@@ -1814,11 +1842,11 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10">
+      <c r="A10">
         <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
@@ -1847,7 +1875,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L10" s="19">
         <v>0</v>
@@ -1884,11 +1912,11 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11">
+      <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
@@ -1917,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="21">
         <v>0</v>
@@ -1954,11 +1982,11 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12">
+      <c r="A12">
         <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
@@ -1987,7 +2015,7 @@
         <v>14</v>
       </c>
       <c r="K12" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L12" s="19">
         <v>0</v>
@@ -2024,11 +2052,11 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
+      <c r="A13">
         <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
@@ -2057,7 +2085,7 @@
         <v>14</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13" s="21">
         <v>0</v>
@@ -2084,11 +2112,11 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14">
+      <c r="A14">
         <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
@@ -2117,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L14" s="19">
         <v>0</v>
@@ -2144,11 +2172,11 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15">
+      <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
@@ -2177,7 +2205,7 @@
         <v>18</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L15" s="21">
         <v>0</v>
@@ -2204,11 +2232,11 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16">
+      <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
@@ -2237,7 +2265,7 @@
         <v>16</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L16" s="19">
         <v>0</v>
@@ -2264,11 +2292,11 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17">
+      <c r="A17">
         <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
@@ -2297,7 +2325,7 @@
         <v>14</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L17" s="21">
         <v>0</v>
@@ -2324,11 +2352,11 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18">
+      <c r="A18">
         <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
@@ -2357,7 +2385,7 @@
         <v>15</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L18" s="19">
         <v>0</v>
@@ -2384,11 +2412,11 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19">
+      <c r="A19">
         <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
@@ -2417,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="21">
         <v>0</v>
@@ -2444,11 +2472,11 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
+      <c r="A20">
         <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
@@ -2477,7 +2505,7 @@
         <v>15</v>
       </c>
       <c r="K20" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L20" s="19">
         <v>0</v>
@@ -2504,11 +2532,11 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21">
+      <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
@@ -2537,7 +2565,7 @@
         <v>16</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
@@ -2564,17 +2592,16 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22">
+      <c r="A22">
         <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="C22" s="26">
         <v>9</v>
       </c>
       <c r="D22" s="16">
-        <f>ROUND(O22/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>2523</v>
       </c>
       <c r="E22" s="17">
@@ -2597,7 +2624,7 @@
         <v>16</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L22" s="21">
         <v>0</v>
@@ -2624,17 +2651,16 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23">
+      <c r="A23">
         <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C23" s="26">
         <v>9.1</v>
       </c>
       <c r="D23" s="16">
-        <f>ROUND(O23/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>3849</v>
       </c>
       <c r="E23" s="27">
@@ -2657,7 +2683,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L23" s="21">
         <v>0</v>
@@ -2684,17 +2710,16 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24">
+      <c r="A24">
         <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C24" s="26">
         <v>9.1999999999999993</v>
       </c>
       <c r="D24" s="16">
-        <f>ROUND(O24/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>2983</v>
       </c>
       <c r="E24" s="27">
@@ -2717,7 +2742,7 @@
         <v>14</v>
       </c>
       <c r="K24" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" s="21">
         <v>0</v>
@@ -2744,17 +2769,16 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25">
+      <c r="A25">
         <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="26">
         <v>9.3000000000000007</v>
       </c>
       <c r="D25" s="16">
-        <f>ROUND(O25/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>4514</v>
       </c>
       <c r="E25" s="27">
@@ -2777,7 +2801,7 @@
         <v>16</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25" s="21">
         <v>0</v>
@@ -2804,17 +2828,16 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26">
+      <c r="A26">
         <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="26">
         <v>9.4</v>
       </c>
       <c r="D26" s="16">
-        <f>ROUND(O26/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>2704</v>
       </c>
       <c r="E26" s="27">
@@ -2837,7 +2860,7 @@
         <v>18</v>
       </c>
       <c r="K26" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L26" s="21">
         <v>0</v>
@@ -2864,17 +2887,16 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27">
+      <c r="A27">
         <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="C27" s="26">
         <v>9.5</v>
       </c>
       <c r="D27" s="16">
-        <f>ROUND(O27/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>3755</v>
       </c>
       <c r="E27" s="27">
@@ -2897,7 +2919,7 @@
         <v>14</v>
       </c>
       <c r="K27" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L27" s="21">
         <v>0</v>
@@ -2924,17 +2946,16 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28">
+      <c r="A28">
         <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C28" s="26">
         <v>9.6</v>
       </c>
       <c r="D28" s="16">
-        <f>ROUND(O28/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>4036</v>
       </c>
       <c r="E28" s="27">
@@ -2957,7 +2978,7 @@
         <v>16</v>
       </c>
       <c r="K28" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L28" s="21">
         <v>0</v>
@@ -2984,17 +3005,16 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29">
+      <c r="A29">
         <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C29" s="26">
         <v>9.6999999999999993</v>
       </c>
       <c r="D29" s="16">
-        <f>ROUND(O29/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>3356</v>
       </c>
       <c r="E29" s="27">
@@ -3017,7 +3037,7 @@
         <v>18</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L29" s="21">
         <v>0</v>
@@ -3044,17 +3064,16 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30">
+      <c r="A30">
         <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C30" s="26">
         <v>9.8000000000000007</v>
       </c>
       <c r="D30" s="16">
-        <f>ROUND(O30/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>6459</v>
       </c>
       <c r="E30" s="27">
@@ -3077,7 +3096,7 @@
         <v>14</v>
       </c>
       <c r="K30" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L30" s="21">
         <v>0</v>
@@ -3104,17 +3123,16 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31">
+      <c r="A31">
         <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C31" s="26">
         <v>9.9</v>
       </c>
       <c r="D31" s="16">
-        <f>ROUND(O31/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>4922</v>
       </c>
       <c r="E31" s="27">
@@ -3137,7 +3155,7 @@
         <v>16</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L31" s="21">
         <v>0</v>
@@ -3164,17 +3182,16 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32">
+      <c r="A32">
         <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C32" s="26">
         <v>10</v>
       </c>
       <c r="D32" s="16">
-        <f>ROUND(O32/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>5251</v>
       </c>
       <c r="E32" s="27">
@@ -3197,7 +3214,7 @@
         <v>18</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L32" s="21">
         <v>0</v>
@@ -3224,17 +3241,16 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33">
+      <c r="A33">
         <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C33" s="26">
         <v>10.1</v>
       </c>
       <c r="D33" s="16">
-        <f>ROUND(O33/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>7826</v>
       </c>
       <c r="E33" s="27">
@@ -3257,7 +3273,7 @@
         <v>14</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L33" s="21">
         <v>0</v>
@@ -3284,17 +3300,16 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34">
+      <c r="A34">
         <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C34" s="26">
         <v>10.199999999999999</v>
       </c>
       <c r="D34" s="16">
-        <f>ROUND(O34/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>8324</v>
       </c>
       <c r="E34" s="27">
@@ -3317,7 +3332,7 @@
         <v>16</v>
       </c>
       <c r="K34" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L34" s="21">
         <v>0</v>
@@ -3344,17 +3359,16 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35">
+      <c r="A35">
         <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C35" s="26">
         <v>10.3</v>
       </c>
       <c r="D35" s="16">
-        <f>ROUND(O35/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>6324</v>
       </c>
       <c r="E35" s="27">
@@ -3377,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L35" s="21">
         <v>0</v>
@@ -3404,17 +3418,16 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36">
+      <c r="A36">
         <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C36" s="26">
         <v>10.4</v>
       </c>
       <c r="D36" s="16">
-        <f>ROUND(O36/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>9404</v>
       </c>
       <c r="E36" s="27">
@@ -3437,7 +3450,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L36" s="21">
         <v>0</v>
@@ -3464,17 +3477,16 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37">
+      <c r="A37">
         <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C37" s="26">
         <v>10.5</v>
       </c>
       <c r="D37" s="16">
-        <f>ROUND(O37/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>5548</v>
       </c>
       <c r="E37" s="27">
@@ -3497,7 +3509,7 @@
         <v>16</v>
       </c>
       <c r="K37" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L37" s="21">
         <v>0</v>
@@ -3524,17 +3536,16 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38">
+      <c r="A38">
         <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="C38" s="26">
         <v>10.6</v>
       </c>
       <c r="D38" s="16">
-        <f>ROUND(O38/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>10585</v>
       </c>
       <c r="E38" s="27">
@@ -3557,7 +3568,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L38" s="21">
         <v>0</v>
@@ -3584,17 +3595,16 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39">
+      <c r="A39">
         <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C39" s="26">
         <v>10.7</v>
       </c>
       <c r="D39" s="16">
-        <f>ROUND(O39/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>5896</v>
       </c>
       <c r="E39" s="27">
@@ -3617,7 +3627,7 @@
         <v>14</v>
       </c>
       <c r="K39" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L39" s="21">
         <v>0</v>
@@ -3644,17 +3654,16 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40">
+      <c r="A40">
         <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="C40" s="26">
         <v>10.8</v>
       </c>
       <c r="D40" s="16">
-        <f>ROUND(O40/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>8459</v>
       </c>
       <c r="E40" s="27">
@@ -3677,7 +3686,7 @@
         <v>16</v>
       </c>
       <c r="K40" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L40" s="21">
         <v>0</v>
@@ -3704,17 +3713,16 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41">
+      <c r="A41">
         <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C41" s="26">
         <v>10.9</v>
       </c>
       <c r="D41" s="16">
-        <f>ROUND(O41/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>8926</v>
       </c>
       <c r="E41" s="27">
@@ -3737,7 +3745,7 @@
         <v>18</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L41" s="21">
         <v>0</v>
@@ -3764,17 +3772,16 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42">
+      <c r="A42">
         <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C42" s="26">
         <v>11</v>
       </c>
       <c r="D42" s="16">
-        <f>ROUND(O42/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>7757</v>
       </c>
       <c r="E42" s="27">
@@ -3797,7 +3804,7 @@
         <v>14</v>
       </c>
       <c r="K42" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L42" s="21">
         <v>0</v>
@@ -3824,17 +3831,16 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43">
+      <c r="A43">
         <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C43" s="26">
         <v>11.1</v>
       </c>
       <c r="D43" s="16">
-        <f>ROUND(O43/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>9925</v>
       </c>
       <c r="E43" s="27">
@@ -3857,7 +3863,7 @@
         <v>16</v>
       </c>
       <c r="K43" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L43" s="21">
         <v>0</v>
@@ -3884,17 +3890,16 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44">
+      <c r="A44">
         <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C44" s="26">
         <v>11.2</v>
       </c>
       <c r="D44" s="16">
-        <f>ROUND(O44/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>14627</v>
       </c>
       <c r="E44" s="27">
@@ -3917,7 +3922,7 @@
         <v>18</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L44" s="21">
         <v>0</v>
@@ -3944,17 +3949,16 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45">
+      <c r="A45">
         <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="C45" s="26">
         <v>11.3</v>
       </c>
       <c r="D45" s="16">
-        <f>ROUND(O45/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>15384</v>
       </c>
       <c r="E45" s="27">
@@ -3977,7 +3981,7 @@
         <v>14</v>
       </c>
       <c r="K45" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L45" s="21">
         <v>0</v>
@@ -4004,17 +4008,16 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46">
+      <c r="A46">
         <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="C46" s="26">
         <v>11.4</v>
       </c>
       <c r="D46" s="16">
-        <f>ROUND(O46/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>11548</v>
       </c>
       <c r="E46" s="27">
@@ -4037,7 +4040,7 @@
         <v>16</v>
       </c>
       <c r="K46" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L46" s="21">
         <v>0</v>
@@ -4064,17 +4067,16 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47">
+      <c r="A47">
         <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="C47" s="26">
         <v>11.5</v>
       </c>
       <c r="D47" s="16">
-        <f>ROUND(O47/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>12136</v>
       </c>
       <c r="E47" s="27">
@@ -4097,7 +4099,7 @@
         <v>18</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L47" s="21">
         <v>0</v>
@@ -4124,17 +4126,16 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48">
+      <c r="A48">
         <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C48" s="26">
         <v>11.6</v>
       </c>
       <c r="D48" s="16">
-        <f>ROUND(O48/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>17843</v>
       </c>
       <c r="E48" s="27">
@@ -4157,7 +4158,7 @@
         <v>14</v>
       </c>
       <c r="K48" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L48" s="21">
         <v>0</v>
@@ -4184,17 +4185,16 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49">
+      <c r="A49">
         <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C49" s="26">
         <v>11.7</v>
       </c>
       <c r="D49" s="16">
-        <f>ROUND(O49/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>10413</v>
       </c>
       <c r="E49" s="27">
@@ -4217,7 +4217,7 @@
         <v>16</v>
       </c>
       <c r="K49" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L49" s="21">
         <v>0</v>
@@ -4244,17 +4244,16 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50">
+      <c r="A50">
         <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="C50" s="26">
         <v>11.8</v>
       </c>
       <c r="D50" s="16">
-        <f>ROUND(O50/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>14044</v>
       </c>
       <c r="E50" s="27">
@@ -4277,7 +4276,7 @@
         <v>18</v>
       </c>
       <c r="K50" s="29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L50" s="21">
         <v>0</v>
@@ -4304,17 +4303,16 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51">
+      <c r="A51">
         <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="C51" s="26">
         <v>11.9</v>
       </c>
       <c r="D51" s="16">
-        <f>ROUND(O51/Table1[[#This Row],[numberOfEnemies]],0)</f>
         <v>20597</v>
       </c>
       <c r="E51" s="27">
@@ -4337,7 +4335,7 @@
         <v>16</v>
       </c>
       <c r="K51" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L51" s="21">
         <v>0</v>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA790831-9F6F-4B90-A4AD-18988B4FE5AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0460C740-CFA3-48A0-83DB-414208B7B67C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1179,7 +1181,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L12" sqref="L12"/>
+      <selection pane="topRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" s="17">
         <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
@@ -1317,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="J2" s="19">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>19</v>
@@ -2240,10 +2242,10 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
-        <v>7.34</v>
+        <v>7.04</v>
       </c>
       <c r="D16" s="16">
-        <v>980</v>
+        <v>940</v>
       </c>
       <c r="E16" s="17">
         <v>4</v>
@@ -2280,11 +2282,11 @@
       </c>
       <c r="O16" s="5">
         <f t="shared" si="6"/>
-        <v>15680</v>
+        <v>15040</v>
       </c>
       <c r="P16" s="23">
         <f t="shared" si="4"/>
-        <v>7.34</v>
+        <v>7.04</v>
       </c>
       <c r="Q16">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/M16)</f>
@@ -4313,10 +4315,10 @@
         <v>11.9</v>
       </c>
       <c r="D51" s="16">
-        <v>20597</v>
+        <v>22000</v>
       </c>
       <c r="E51" s="27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="27">
         <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
@@ -4332,7 +4334,7 @@
         <v>215</v>
       </c>
       <c r="J51" s="28">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="K51" s="29" t="s">
         <v>21</v>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0460C740-CFA3-48A0-83DB-414208B7B67C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6FB2DA-4A96-4749-8D7D-6A7270D57393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1179,9 +1179,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M18" sqref="M18"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1303,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="17">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F2" s="17">
         <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6FB2DA-4A96-4749-8D7D-6A7270D57393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999401BB-C7FB-405F-AF4F-BFA79D25E807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>maxArmor</t>
   </si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>round</t>
+  </si>
+  <si>
+    <t>skill1</t>
+  </si>
+  <si>
+    <t>skill2</t>
+  </si>
+  <si>
+    <t>skill3</t>
   </si>
 </sst>
 </file>
@@ -417,7 +426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -449,11 +458,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -835,45 +910,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="A1:L51" tableType="xml" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10" connectionId="2">
-  <autoFilter ref="A1:L51" xr:uid="{BB7B5203-2FDA-44AD-8D6D-FF5DC36F0FBF}"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="A1:O51" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13" connectionId="2">
+  <autoFilter ref="A1:O51" xr:uid="{BB7B5203-2FDA-44AD-8D6D-FF5DC36F0FBF}"/>
+  <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{2550C9AA-BC88-494A-A101-FBB680E5CA21}" uniqueName="currentRound" name="round">
       <xmlColumnPr mapId="3" xpath="/Root/Row/currentRound" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{EA42ACC1-AD5D-4190-B029-D38CD8D5DF28}" uniqueName="eName" name="eName">
       <xmlColumnPr mapId="3" xpath="/Root/Row/eName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{5708407B-65CE-45BC-8878-142AF21D5339}" uniqueName="10" name="Gold /HP" dataDxfId="9">
-      <calculatedColumnFormula>SUM(ROUND((O2 / N2),2))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{5708407B-65CE-45BC-8878-142AF21D5339}" uniqueName="10" name="Gold /HP" dataDxfId="12">
+      <calculatedColumnFormula>SUM(ROUND((R2 / Q2),2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F8F80C22-33BB-4B29-8273-4EA2699E1D19}" uniqueName="maxHp" name="maxHp" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{F8F80C22-33BB-4B29-8273-4EA2699E1D19}" uniqueName="maxHp" name="maxHp" dataDxfId="11">
       <xmlColumnPr mapId="3" xpath="/Root/Row/maxHp" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{E13F5E4A-47D2-47A2-B541-96BA6CA07669}" uniqueName="maxMoveSpeed" name="maxMoveSpeed" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{E13F5E4A-47D2-47A2-B541-96BA6CA07669}" uniqueName="maxMoveSpeed" name="maxMoveSpeed" dataDxfId="10">
       <xmlColumnPr mapId="3" xpath="/Root/Row/maxMoveSpeed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{798A0123-C7B3-4B90-8749-D85E3371CA67}" uniqueName="11" name="killedGold" dataDxfId="6">
+    <tableColumn id="11" xr3:uid="{798A0123-C7B3-4B90-8749-D85E3371CA67}" uniqueName="11" name="killedGold" dataDxfId="9">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="8">
       <xmlColumnPr mapId="3" xpath="/Root/Row/goldValue" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="7">
       <xmlColumnPr mapId="3" xpath="/Root/Row/numberOfEnemies" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="6">
       <xmlColumnPr mapId="3" xpath="/Root/Row/roundEndBonus" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="5">
       <xmlColumnPr mapId="3" xpath="/Root/Row/freq" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="4">
       <xmlColumnPr mapId="3" xpath="/Root/Row/armorType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="3">
       <xmlColumnPr mapId="3" xpath="/Root/Row/maxArmor" xmlDataType="integer"/>
     </tableColumn>
+    <tableColumn id="15" xr3:uid="{9B90EFD4-0EF8-4EA5-852F-941C3E8B1669}" uniqueName="15" name="skill1" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{17996CF2-83E2-435A-9F4D-319CD898D377}" uniqueName="14" name="skill2" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{FA870E8B-AAC4-488E-B98C-04EB462586D7}" uniqueName="13" name="skill3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1177,11 +1255,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213EF013-6C3B-49C1-962D-F4582BD477E0}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z51"/>
+  <dimension ref="A1:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <selection pane="topRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,23 +1276,24 @@
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1251,44 +1330,53 @@
       <c r="L1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="S1" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>45</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>7</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1296,7 +1384,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="4">
-        <f t="shared" ref="C2:C21" si="0">SUM(ROUND((O2 / N2),2))</f>
+        <f t="shared" ref="C2:C21" si="0">SUM(ROUND((R2 / Q2),2))</f>
         <v>3.36</v>
       </c>
       <c r="D2" s="16">
@@ -1327,33 +1415,36 @@
       <c r="L2" s="19">
         <v>0</v>
       </c>
-      <c r="M2" s="3">
-        <f>SUM((H2*G2)+I2)</f>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="3">
+        <f t="shared" ref="P2:P33" si="1">SUM((H2*G2)+I2)</f>
         <v>60</v>
       </c>
-      <c r="N2" s="3">
+      <c r="Q2" s="3">
         <v>100</v>
       </c>
-      <c r="O2" s="5">
-        <f t="shared" ref="O2:O13" si="1">SUM(H2*D2)</f>
+      <c r="R2" s="5">
+        <f t="shared" ref="R2:R21" si="2">SUM(H2*D2)</f>
         <v>336</v>
       </c>
-      <c r="P2" s="23">
-        <f>SUM(ROUND((O2 / N2),2))</f>
+      <c r="S2" s="23">
+        <f>SUM(ROUND((R2 / Q2),2))</f>
         <v>3.36</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <f>SUM(Table1[[#This Row],[roundEndBonus]] / (Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]]))</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AB2" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1392,38 +1483,41 @@
       <c r="L3" s="21">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:M21" si="2">SUM((H3*G3)+I3)</f>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="3">
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="N3" s="3">
-        <f>SUM(M2+N2)</f>
+      <c r="Q3" s="3">
+        <f>SUM(P2+Q2)</f>
         <v>160</v>
       </c>
-      <c r="O3" s="5">
-        <f t="shared" si="1"/>
+      <c r="R3" s="5">
+        <f t="shared" si="2"/>
         <v>525</v>
       </c>
-      <c r="P3" s="23">
-        <f>SUM(ROUND((O3 / N3),2))</f>
+      <c r="S3" s="23">
+        <f>SUM(ROUND((R3 / Q3),2))</f>
         <v>3.28</v>
       </c>
-      <c r="Q3">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M3)</f>
+      <c r="T3">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P3)</f>
         <v>0.23076923076923078</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AB3" s="2">
         <v>4</v>
       </c>
-      <c r="Z3">
-        <f>SUM(Y2-Y3)</f>
+      <c r="AC3">
+        <f>SUM(AB2-AB3)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1462,38 +1556,41 @@
       <c r="L4" s="19">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="3">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:Q21" si="3">SUM(P3+Q3)</f>
+        <v>238</v>
+      </c>
+      <c r="R4" s="5">
         <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" ref="N4:N21" si="3">SUM(M3+N3)</f>
-        <v>238</v>
-      </c>
-      <c r="O4" s="5">
-        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="P4" s="23">
-        <f t="shared" ref="P4:P21" si="4">SUM(ROUND((O4 / N4),2))</f>
+      <c r="S4" s="23">
+        <f t="shared" ref="S4:S21" si="4">SUM(ROUND((R4 / Q4),2))</f>
         <v>4.2</v>
       </c>
-      <c r="Q4">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M4)</f>
+      <c r="T4">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P4)</f>
         <v>0.25925925925925924</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AB4" s="2">
         <v>6</v>
       </c>
-      <c r="Z4">
-        <f>SUM(Y3-Y4)</f>
+      <c r="AC4">
+        <f>SUM(AB3-AB4)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1532,38 +1629,41 @@
       <c r="L5" s="21">
         <v>0</v>
       </c>
-      <c r="M5" s="3">
-        <f t="shared" si="2"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="3">
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="N5" s="3">
+      <c r="Q5" s="3">
         <f t="shared" si="3"/>
         <v>319</v>
       </c>
-      <c r="O5" s="5">
-        <f t="shared" si="1"/>
+      <c r="R5" s="5">
+        <f t="shared" si="2"/>
         <v>1312</v>
       </c>
-      <c r="P5" s="23">
+      <c r="S5" s="23">
         <f t="shared" si="4"/>
         <v>4.1100000000000003</v>
       </c>
-      <c r="Q5">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M5)</f>
+      <c r="T5">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P5)</f>
         <v>0.2558139534883721</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AB5" s="2">
         <v>8</v>
       </c>
-      <c r="Z5">
-        <f t="shared" ref="Z5:Z12" si="5">SUM(Y4-Y5)</f>
+      <c r="AC5">
+        <f t="shared" ref="AC5:AC12" si="5">SUM(AB4-AB5)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1602,38 +1702,41 @@
       <c r="L6" s="19">
         <v>0</v>
       </c>
-      <c r="M6" s="3">
-        <f t="shared" si="2"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="3">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="N6" s="3">
+      <c r="Q6" s="3">
         <f t="shared" si="3"/>
         <v>405</v>
       </c>
-      <c r="O6" s="5">
-        <f t="shared" si="1"/>
+      <c r="R6" s="5">
+        <f t="shared" si="2"/>
         <v>1760</v>
       </c>
-      <c r="P6" s="23">
+      <c r="S6" s="23">
         <f t="shared" si="4"/>
         <v>4.3499999999999996</v>
       </c>
-      <c r="Q6">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M6)</f>
+      <c r="T6">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P6)</f>
         <v>0.26436781609195403</v>
       </c>
-      <c r="X6" s="1">
+      <c r="AA6" s="1">
         <v>7</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AB6" s="2">
         <v>10</v>
       </c>
-      <c r="Z6">
+      <c r="AC6">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1672,38 +1775,41 @@
       <c r="L7" s="21">
         <v>0</v>
       </c>
-      <c r="M7" s="3">
-        <f t="shared" si="2"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="3">
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="N7" s="3">
+      <c r="Q7" s="3">
         <f t="shared" si="3"/>
         <v>492</v>
       </c>
-      <c r="O7" s="5">
-        <f t="shared" si="1"/>
+      <c r="R7" s="5">
+        <f t="shared" si="2"/>
         <v>2500</v>
       </c>
-      <c r="P7" s="23">
+      <c r="S7" s="23">
         <f t="shared" si="4"/>
         <v>5.08</v>
       </c>
-      <c r="Q7">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M7)</f>
+      <c r="T7">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P7)</f>
         <v>0.27272727272727271</v>
       </c>
-      <c r="X7" s="1">
+      <c r="AA7" s="1">
         <v>6</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>12</v>
       </c>
-      <c r="Z7">
+      <c r="AC7">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1742,38 +1848,41 @@
       <c r="L8" s="19">
         <v>0</v>
       </c>
-      <c r="M8" s="3">
-        <f t="shared" si="2"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="3">
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <f t="shared" si="3"/>
         <v>602</v>
       </c>
-      <c r="O8" s="5">
-        <f t="shared" si="1"/>
+      <c r="R8" s="5">
+        <f t="shared" si="2"/>
         <v>3060</v>
       </c>
-      <c r="P8" s="23">
+      <c r="S8" s="23">
         <f t="shared" si="4"/>
         <v>5.08</v>
       </c>
-      <c r="Q8">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M8)</f>
+      <c r="T8">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P8)</f>
         <v>0.27027027027027029</v>
       </c>
-      <c r="X8" s="1">
+      <c r="AA8" s="1">
         <v>5</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AB8" s="2">
         <v>14</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1812,38 +1921,41 @@
       <c r="L9" s="21">
         <v>0</v>
       </c>
-      <c r="M9" s="3">
-        <f t="shared" si="2"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="3">
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <f t="shared" si="3"/>
         <v>750</v>
       </c>
-      <c r="O9" s="5">
-        <f t="shared" si="1"/>
+      <c r="R9" s="5">
+        <f t="shared" si="2"/>
         <v>4320</v>
       </c>
-      <c r="P9" s="23">
+      <c r="S9" s="23">
         <f t="shared" si="4"/>
         <v>5.76</v>
       </c>
-      <c r="Q9">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M9)</f>
+      <c r="T9">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P9)</f>
         <v>0.25</v>
       </c>
-      <c r="X9" s="1">
+      <c r="AA9" s="1">
         <v>4</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AB9" s="2">
         <v>16</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1882,38 +1994,41 @@
       <c r="L10" s="19">
         <v>0</v>
       </c>
-      <c r="M10" s="3">
-        <f t="shared" si="2"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="3">
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <f t="shared" si="3"/>
         <v>918</v>
       </c>
-      <c r="O10" s="5">
-        <f t="shared" si="1"/>
+      <c r="R10" s="5">
+        <f t="shared" si="2"/>
         <v>5360</v>
       </c>
-      <c r="P10" s="23">
+      <c r="S10" s="23">
         <f t="shared" si="4"/>
         <v>5.84</v>
       </c>
-      <c r="Q10">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M10)</f>
+      <c r="T10">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P10)</f>
         <v>0.2558139534883721</v>
       </c>
-      <c r="X10" s="1">
+      <c r="AA10" s="1">
         <v>3</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AB10" s="2">
         <v>23</v>
       </c>
-      <c r="Z10">
+      <c r="AC10">
         <f t="shared" si="5"/>
         <v>-7</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1952,38 +2067,41 @@
       <c r="L11" s="21">
         <v>0</v>
       </c>
-      <c r="M11" s="3">
-        <f t="shared" si="2"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="3">
+        <f t="shared" si="1"/>
         <v>173</v>
       </c>
-      <c r="N11" s="3">
+      <c r="Q11" s="3">
         <f t="shared" si="3"/>
         <v>1090</v>
       </c>
-      <c r="O11" s="5">
-        <f t="shared" si="1"/>
+      <c r="R11" s="5">
+        <f t="shared" si="2"/>
         <v>6400</v>
       </c>
-      <c r="P11" s="23">
+      <c r="S11" s="23">
         <f t="shared" si="4"/>
         <v>5.87</v>
       </c>
-      <c r="Q11">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M11)</f>
+      <c r="T11">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P11)</f>
         <v>0.26011560693641617</v>
       </c>
-      <c r="X11" s="1">
+      <c r="AA11" s="1">
         <v>2</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AB11" s="2">
         <v>32</v>
       </c>
-      <c r="Z11">
+      <c r="AC11">
         <f t="shared" si="5"/>
         <v>-9</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2022,38 +2140,41 @@
       <c r="L12" s="19">
         <v>0</v>
       </c>
-      <c r="M12" s="3">
-        <f t="shared" si="2"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="3">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="N12" s="3">
+      <c r="Q12" s="3">
         <f t="shared" si="3"/>
         <v>1263</v>
       </c>
-      <c r="O12" s="5">
-        <f t="shared" si="1"/>
+      <c r="R12" s="5">
+        <f t="shared" si="2"/>
         <v>7600</v>
       </c>
-      <c r="P12" s="23">
+      <c r="S12" s="23">
         <f t="shared" si="4"/>
         <v>6.02</v>
       </c>
-      <c r="Q12">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M12)</f>
+      <c r="T12">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P12)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="X12" s="1">
+      <c r="AA12" s="1">
         <v>1</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AB12" s="2">
         <v>65</v>
       </c>
-      <c r="Z12">
+      <c r="AC12">
         <f t="shared" si="5"/>
         <v>-33</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2092,28 +2213,31 @@
       <c r="L13" s="21">
         <v>0</v>
       </c>
-      <c r="M13" s="3">
-        <f t="shared" si="2"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="3">
+        <f t="shared" si="1"/>
         <v>212</v>
       </c>
-      <c r="N13" s="3">
+      <c r="Q13" s="3">
         <f t="shared" si="3"/>
         <v>1443</v>
       </c>
-      <c r="O13" s="5">
-        <f t="shared" si="1"/>
+      <c r="R13" s="5">
+        <f t="shared" si="2"/>
         <v>9200</v>
       </c>
-      <c r="P13" s="23">
+      <c r="S13" s="23">
         <f t="shared" si="4"/>
         <v>6.38</v>
       </c>
-      <c r="Q13">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M13)</f>
+      <c r="T13">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P13)</f>
         <v>0.33962264150943394</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2152,28 +2276,31 @@
       <c r="L14" s="19">
         <v>0</v>
       </c>
-      <c r="M14" s="3">
-        <f t="shared" si="2"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="3">
+        <f t="shared" si="1"/>
         <v>236</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <f t="shared" si="3"/>
         <v>1655</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" ref="O14:O21" si="6">SUM(H14*D14)</f>
+      <c r="R14" s="5">
+        <f t="shared" si="2"/>
         <v>11340</v>
       </c>
-      <c r="P14" s="23">
+      <c r="S14" s="23">
         <f t="shared" si="4"/>
         <v>6.85</v>
       </c>
-      <c r="Q14">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M14)</f>
+      <c r="T14">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P14)</f>
         <v>0.38983050847457629</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2212,28 +2339,31 @@
       <c r="L15" s="21">
         <v>0</v>
       </c>
-      <c r="M15" s="3">
-        <f t="shared" si="2"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="3">
+        <f t="shared" si="1"/>
         <v>246</v>
       </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="3">
         <f t="shared" si="3"/>
         <v>1891</v>
       </c>
-      <c r="O15" s="5">
-        <f t="shared" si="6"/>
+      <c r="R15" s="5">
+        <f t="shared" si="2"/>
         <v>15980</v>
       </c>
-      <c r="P15" s="23">
+      <c r="S15" s="23">
         <f t="shared" si="4"/>
         <v>8.4499999999999993</v>
       </c>
-      <c r="Q15">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M15)</f>
+      <c r="T15">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P15)</f>
         <v>0.37804878048780488</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2272,28 +2402,31 @@
       <c r="L16" s="19">
         <v>0</v>
       </c>
-      <c r="M16" s="3">
-        <f t="shared" si="2"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="3">
+        <f t="shared" si="1"/>
         <v>257</v>
       </c>
-      <c r="N16" s="3">
+      <c r="Q16" s="3">
         <f t="shared" si="3"/>
         <v>2137</v>
       </c>
-      <c r="O16" s="5">
-        <f t="shared" si="6"/>
+      <c r="R16" s="5">
+        <f t="shared" si="2"/>
         <v>15040</v>
       </c>
-      <c r="P16" s="23">
+      <c r="S16" s="23">
         <f t="shared" si="4"/>
         <v>7.04</v>
       </c>
-      <c r="Q16">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M16)</f>
+      <c r="T16">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P16)</f>
         <v>0.37743190661478598</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2332,28 +2465,31 @@
       <c r="L17" s="21">
         <v>0</v>
       </c>
-      <c r="M17" s="3">
-        <f t="shared" si="2"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="3">
+        <f t="shared" si="1"/>
         <v>278</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <f t="shared" si="3"/>
         <v>2394</v>
       </c>
-      <c r="O17" s="5">
-        <f t="shared" si="6"/>
+      <c r="R17" s="5">
+        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
-      <c r="P17" s="23">
+      <c r="S17" s="23">
         <f t="shared" si="4"/>
         <v>7.89</v>
       </c>
-      <c r="Q17">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M17)</f>
+      <c r="T17">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P17)</f>
         <v>0.35251798561151076</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2392,28 +2528,31 @@
       <c r="L18" s="19">
         <v>0</v>
       </c>
-      <c r="M18" s="3">
-        <f t="shared" si="2"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="3">
+        <f t="shared" si="1"/>
         <v>284</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <f t="shared" si="3"/>
         <v>2672</v>
       </c>
-      <c r="O18" s="5">
-        <f t="shared" si="6"/>
+      <c r="R18" s="5">
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
-      <c r="P18" s="23">
+      <c r="S18" s="23">
         <f t="shared" si="4"/>
         <v>8.08</v>
       </c>
-      <c r="Q18">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M18)</f>
+      <c r="T18">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P18)</f>
         <v>0.38028169014084506</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2452,28 +2591,31 @@
       <c r="L19" s="21">
         <v>0</v>
       </c>
-      <c r="M19" s="3">
-        <f t="shared" si="2"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="3">
+        <f t="shared" si="1"/>
         <v>304</v>
       </c>
-      <c r="N19" s="3">
+      <c r="Q19" s="3">
         <f t="shared" si="3"/>
         <v>2956</v>
       </c>
-      <c r="O19" s="5">
-        <f t="shared" si="6"/>
+      <c r="R19" s="5">
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
-      <c r="P19" s="23">
+      <c r="S19" s="23">
         <f t="shared" si="4"/>
         <v>8.1199999999999992</v>
       </c>
-      <c r="Q19">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M19)</f>
+      <c r="T19">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P19)</f>
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2512,28 +2654,31 @@
       <c r="L20" s="19">
         <v>0</v>
       </c>
-      <c r="M20" s="3">
-        <f t="shared" si="2"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="3">
+        <f t="shared" si="1"/>
         <v>302</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <f t="shared" si="3"/>
         <v>3260</v>
       </c>
-      <c r="O20" s="5">
-        <f t="shared" si="6"/>
+      <c r="R20" s="5">
+        <f t="shared" si="2"/>
         <v>26600</v>
       </c>
-      <c r="P20" s="23">
+      <c r="S20" s="23">
         <f t="shared" si="4"/>
         <v>8.16</v>
       </c>
-      <c r="Q20">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M20)</f>
+      <c r="T20">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P20)</f>
         <v>0.39735099337748342</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2572,28 +2717,31 @@
       <c r="L21" s="9">
         <v>0</v>
       </c>
-      <c r="M21" s="3">
-        <f t="shared" si="2"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="3">
+        <f t="shared" si="1"/>
         <v>362</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <f t="shared" si="3"/>
         <v>3562</v>
       </c>
-      <c r="O21" s="5">
-        <f t="shared" si="6"/>
+      <c r="R21" s="5">
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
-      <c r="P21" s="23">
+      <c r="S21" s="23">
         <f t="shared" si="4"/>
         <v>8.98</v>
       </c>
-      <c r="Q21">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M21)</f>
+      <c r="T21">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P21)</f>
         <v>0.33701657458563539</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2631,28 +2779,31 @@
       <c r="L22" s="21">
         <v>0</v>
       </c>
-      <c r="M22" s="3">
-        <f t="shared" ref="M22:M51" si="7">SUM((H22*G22)+I22)</f>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="3">
+        <f t="shared" si="1"/>
         <v>306</v>
       </c>
-      <c r="N22" s="3">
-        <f t="shared" ref="N22:N51" si="8">SUM(M21+N21)</f>
+      <c r="Q22" s="3">
+        <f t="shared" ref="Q22:Q51" si="6">SUM(P21+Q21)</f>
         <v>3924</v>
       </c>
-      <c r="O22" s="5">
-        <f>SUM(N22*Table1[[#This Row],[Gold /HP]])</f>
+      <c r="R22" s="5">
+        <f>SUM(Q22*Table1[[#This Row],[Gold /HP]])</f>
         <v>35316</v>
       </c>
-      <c r="P22" s="23">
-        <f t="shared" ref="P22:P51" si="9">SUM(ROUND((O22 / N22),2))</f>
+      <c r="S22" s="23">
+        <f t="shared" ref="S22:S51" si="7">SUM(ROUND((R22 / Q22),2))</f>
         <v>9</v>
       </c>
-      <c r="Q22">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M22)</f>
+      <c r="T22">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P22)</f>
         <v>0.40522875816993464</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2690,28 +2841,31 @@
       <c r="L23" s="21">
         <v>0</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="3">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="Q23" s="3">
+        <f t="shared" si="6"/>
+        <v>4230</v>
+      </c>
+      <c r="R23" s="5">
+        <f>SUM(Q23*Table1[[#This Row],[Gold /HP]])</f>
+        <v>38493</v>
+      </c>
+      <c r="S23" s="23">
         <f t="shared" si="7"/>
-        <v>310</v>
-      </c>
-      <c r="N23" s="3">
-        <f t="shared" si="8"/>
-        <v>4230</v>
-      </c>
-      <c r="O23" s="5">
-        <f>SUM(N23*Table1[[#This Row],[Gold /HP]])</f>
-        <v>38493</v>
-      </c>
-      <c r="P23" s="23">
-        <f t="shared" si="9"/>
         <v>9.1</v>
       </c>
-      <c r="Q23">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M23)</f>
+      <c r="T23">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P23)</f>
         <v>0.41935483870967744</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2749,28 +2903,31 @@
       <c r="L24" s="21">
         <v>0</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="3">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+      <c r="Q24" s="3">
+        <f t="shared" si="6"/>
+        <v>4540</v>
+      </c>
+      <c r="R24" s="5">
+        <f>SUM(Q24*Table1[[#This Row],[Gold /HP]])</f>
+        <v>41768</v>
+      </c>
+      <c r="S24" s="23">
         <f t="shared" si="7"/>
-        <v>314</v>
-      </c>
-      <c r="N24" s="3">
-        <f t="shared" si="8"/>
-        <v>4540</v>
-      </c>
-      <c r="O24" s="5">
-        <f>SUM(N24*Table1[[#This Row],[Gold /HP]])</f>
-        <v>41768</v>
-      </c>
-      <c r="P24" s="23">
-        <f t="shared" si="9"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="Q24">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M24)</f>
+      <c r="T24">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P24)</f>
         <v>0.42038216560509556</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2808,28 +2965,31 @@
       <c r="L25" s="21">
         <v>0</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="3">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="Q25" s="3">
+        <f t="shared" si="6"/>
+        <v>4854</v>
+      </c>
+      <c r="R25" s="5">
+        <f>SUM(Q25*Table1[[#This Row],[Gold /HP]])</f>
+        <v>45142.200000000004</v>
+      </c>
+      <c r="S25" s="23">
         <f t="shared" si="7"/>
-        <v>324</v>
-      </c>
-      <c r="N25" s="3">
-        <f t="shared" si="8"/>
-        <v>4854</v>
-      </c>
-      <c r="O25" s="5">
-        <f>SUM(N25*Table1[[#This Row],[Gold /HP]])</f>
-        <v>45142.200000000004</v>
-      </c>
-      <c r="P25" s="23">
-        <f t="shared" si="9"/>
         <v>9.3000000000000007</v>
       </c>
-      <c r="Q25">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M25)</f>
+      <c r="T25">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P25)</f>
         <v>0.41358024691358025</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2867,28 +3027,31 @@
       <c r="L26" s="21">
         <v>0</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="3">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+      <c r="Q26" s="3">
+        <f t="shared" si="6"/>
+        <v>5178</v>
+      </c>
+      <c r="R26" s="5">
+        <f>SUM(Q26*Table1[[#This Row],[Gold /HP]])</f>
+        <v>48673.200000000004</v>
+      </c>
+      <c r="S26" s="23">
         <f t="shared" si="7"/>
-        <v>356</v>
-      </c>
-      <c r="N26" s="3">
-        <f t="shared" si="8"/>
-        <v>5178</v>
-      </c>
-      <c r="O26" s="5">
-        <f>SUM(N26*Table1[[#This Row],[Gold /HP]])</f>
-        <v>48673.200000000004</v>
-      </c>
-      <c r="P26" s="23">
-        <f t="shared" si="9"/>
         <v>9.4</v>
       </c>
-      <c r="Q26">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M26)</f>
+      <c r="T26">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P26)</f>
         <v>0.39325842696629215</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2926,28 +3089,31 @@
       <c r="L27" s="21">
         <v>0</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="3">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="Q27" s="3">
+        <f t="shared" si="6"/>
+        <v>5534</v>
+      </c>
+      <c r="R27" s="5">
+        <f>SUM(Q27*Table1[[#This Row],[Gold /HP]])</f>
+        <v>52573</v>
+      </c>
+      <c r="S27" s="23">
         <f t="shared" si="7"/>
-        <v>352</v>
-      </c>
-      <c r="N27" s="3">
-        <f t="shared" si="8"/>
-        <v>5534</v>
-      </c>
-      <c r="O27" s="5">
-        <f>SUM(N27*Table1[[#This Row],[Gold /HP]])</f>
-        <v>52573</v>
-      </c>
-      <c r="P27" s="23">
-        <f t="shared" si="9"/>
         <v>9.5</v>
       </c>
-      <c r="Q27">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M27)</f>
+      <c r="T27">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P27)</f>
         <v>0.40340909090909088</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2985,28 +3151,31 @@
       <c r="L28" s="21">
         <v>0</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="3">
+        <f t="shared" si="1"/>
+        <v>341</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="6"/>
+        <v>5886</v>
+      </c>
+      <c r="R28" s="5">
+        <f>SUM(Q28*Table1[[#This Row],[Gold /HP]])</f>
+        <v>56505.599999999999</v>
+      </c>
+      <c r="S28" s="23">
         <f t="shared" si="7"/>
-        <v>341</v>
-      </c>
-      <c r="N28" s="3">
-        <f t="shared" si="8"/>
-        <v>5886</v>
-      </c>
-      <c r="O28" s="5">
-        <f>SUM(N28*Table1[[#This Row],[Gold /HP]])</f>
-        <v>56505.599999999999</v>
-      </c>
-      <c r="P28" s="23">
-        <f t="shared" si="9"/>
         <v>9.6</v>
       </c>
-      <c r="Q28">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M28)</f>
+      <c r="T28">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P28)</f>
         <v>0.42521994134897362</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3044,28 +3213,31 @@
       <c r="L29" s="21">
         <v>0</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="3">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+      <c r="Q29" s="3">
+        <f t="shared" si="6"/>
+        <v>6227</v>
+      </c>
+      <c r="R29" s="5">
+        <f>SUM(Q29*Table1[[#This Row],[Gold /HP]])</f>
+        <v>60401.899999999994</v>
+      </c>
+      <c r="S29" s="23">
         <f t="shared" si="7"/>
-        <v>364</v>
-      </c>
-      <c r="N29" s="3">
-        <f t="shared" si="8"/>
-        <v>6227</v>
-      </c>
-      <c r="O29" s="5">
-        <f>SUM(N29*Table1[[#This Row],[Gold /HP]])</f>
-        <v>60401.899999999994</v>
-      </c>
-      <c r="P29" s="23">
-        <f t="shared" si="9"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="Q29">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M29)</f>
+      <c r="T29">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P29)</f>
         <v>0.40659340659340659</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3103,28 +3275,31 @@
       <c r="L30" s="21">
         <v>0</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="3">
+        <f t="shared" si="1"/>
+        <v>370</v>
+      </c>
+      <c r="Q30" s="3">
+        <f t="shared" si="6"/>
+        <v>6591</v>
+      </c>
+      <c r="R30" s="5">
+        <f>SUM(Q30*Table1[[#This Row],[Gold /HP]])</f>
+        <v>64591.8</v>
+      </c>
+      <c r="S30" s="23">
         <f t="shared" si="7"/>
-        <v>370</v>
-      </c>
-      <c r="N30" s="3">
-        <f t="shared" si="8"/>
-        <v>6591</v>
-      </c>
-      <c r="O30" s="5">
-        <f>SUM(N30*Table1[[#This Row],[Gold /HP]])</f>
-        <v>64591.8</v>
-      </c>
-      <c r="P30" s="23">
-        <f t="shared" si="9"/>
         <v>9.8000000000000007</v>
       </c>
-      <c r="Q30">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M30)</f>
+      <c r="T30">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P30)</f>
         <v>0.40540540540540543</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3162,28 +3337,31 @@
       <c r="L31" s="21">
         <v>0</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="3">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="Q31" s="3">
+        <f t="shared" si="6"/>
+        <v>6961</v>
+      </c>
+      <c r="R31" s="5">
+        <f>SUM(Q31*Table1[[#This Row],[Gold /HP]])</f>
+        <v>68913.900000000009</v>
+      </c>
+      <c r="S31" s="23">
         <f t="shared" si="7"/>
-        <v>390</v>
-      </c>
-      <c r="N31" s="3">
-        <f t="shared" si="8"/>
-        <v>6961</v>
-      </c>
-      <c r="O31" s="5">
-        <f>SUM(N31*Table1[[#This Row],[Gold /HP]])</f>
-        <v>68913.900000000009</v>
-      </c>
-      <c r="P31" s="23">
-        <f t="shared" si="9"/>
         <v>9.9</v>
       </c>
-      <c r="Q31">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M31)</f>
+      <c r="T31">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P31)</f>
         <v>0.38974358974358975</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3221,28 +3399,31 @@
       <c r="L32" s="21">
         <v>0</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="3">
+        <f t="shared" si="1"/>
+        <v>398</v>
+      </c>
+      <c r="Q32" s="3">
+        <f t="shared" si="6"/>
+        <v>7351</v>
+      </c>
+      <c r="R32" s="5">
+        <f>SUM(Q32*Table1[[#This Row],[Gold /HP]])</f>
+        <v>73510</v>
+      </c>
+      <c r="S32" s="23">
         <f t="shared" si="7"/>
-        <v>398</v>
-      </c>
-      <c r="N32" s="3">
-        <f t="shared" si="8"/>
-        <v>7351</v>
-      </c>
-      <c r="O32" s="5">
-        <f>SUM(N32*Table1[[#This Row],[Gold /HP]])</f>
-        <v>73510</v>
-      </c>
-      <c r="P32" s="23">
-        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="Q32">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M32)</f>
+      <c r="T32">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P32)</f>
         <v>0.4020100502512563</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3280,28 +3461,31 @@
       <c r="L33" s="21">
         <v>0</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="3">
+        <f t="shared" si="1"/>
+        <v>412</v>
+      </c>
+      <c r="Q33" s="3">
+        <f t="shared" si="6"/>
+        <v>7749</v>
+      </c>
+      <c r="R33" s="5">
+        <f>SUM(Q33*Table1[[#This Row],[Gold /HP]])</f>
+        <v>78264.899999999994</v>
+      </c>
+      <c r="S33" s="23">
         <f t="shared" si="7"/>
-        <v>412</v>
-      </c>
-      <c r="N33" s="3">
-        <f t="shared" si="8"/>
-        <v>7749</v>
-      </c>
-      <c r="O33" s="5">
-        <f>SUM(N33*Table1[[#This Row],[Gold /HP]])</f>
-        <v>78264.899999999994</v>
-      </c>
-      <c r="P33" s="23">
-        <f t="shared" si="9"/>
         <v>10.1</v>
       </c>
-      <c r="Q33">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M33)</f>
+      <c r="T33">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P33)</f>
         <v>0.39320388349514562</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3339,28 +3523,31 @@
       <c r="L34" s="21">
         <v>0</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="3">
+        <f t="shared" ref="P34:P51" si="8">SUM((H34*G34)+I34)</f>
+        <v>435</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="6"/>
+        <v>8161</v>
+      </c>
+      <c r="R34" s="5">
+        <f>SUM(Q34*Table1[[#This Row],[Gold /HP]])</f>
+        <v>83242.2</v>
+      </c>
+      <c r="S34" s="23">
         <f t="shared" si="7"/>
-        <v>435</v>
-      </c>
-      <c r="N34" s="3">
-        <f t="shared" si="8"/>
-        <v>8161</v>
-      </c>
-      <c r="O34" s="5">
-        <f>SUM(N34*Table1[[#This Row],[Gold /HP]])</f>
-        <v>83242.2</v>
-      </c>
-      <c r="P34" s="23">
-        <f t="shared" si="9"/>
         <v>10.199999999999999</v>
       </c>
-      <c r="Q34">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M34)</f>
+      <c r="T34">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P34)</f>
         <v>0.37931034482758619</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3398,28 +3585,31 @@
       <c r="L35" s="21">
         <v>0</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="3">
+        <f t="shared" si="8"/>
+        <v>446</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="6"/>
+        <v>8596</v>
+      </c>
+      <c r="R35" s="5">
+        <f>SUM(Q35*Table1[[#This Row],[Gold /HP]])</f>
+        <v>88538.8</v>
+      </c>
+      <c r="S35" s="23">
         <f t="shared" si="7"/>
-        <v>446</v>
-      </c>
-      <c r="N35" s="3">
-        <f t="shared" si="8"/>
-        <v>8596</v>
-      </c>
-      <c r="O35" s="5">
-        <f>SUM(N35*Table1[[#This Row],[Gold /HP]])</f>
-        <v>88538.8</v>
-      </c>
-      <c r="P35" s="23">
-        <f t="shared" si="9"/>
         <v>10.3</v>
       </c>
-      <c r="Q35">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M35)</f>
+      <c r="T35">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P35)</f>
         <v>0.37219730941704038</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3457,28 +3647,31 @@
       <c r="L36" s="21">
         <v>0</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="3">
+        <f t="shared" si="8"/>
+        <v>468</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="6"/>
+        <v>9042</v>
+      </c>
+      <c r="R36" s="5">
+        <f>SUM(Q36*Table1[[#This Row],[Gold /HP]])</f>
+        <v>94036.800000000003</v>
+      </c>
+      <c r="S36" s="23">
         <f t="shared" si="7"/>
-        <v>468</v>
-      </c>
-      <c r="N36" s="3">
-        <f t="shared" si="8"/>
-        <v>9042</v>
-      </c>
-      <c r="O36" s="5">
-        <f>SUM(N36*Table1[[#This Row],[Gold /HP]])</f>
-        <v>94036.800000000003</v>
-      </c>
-      <c r="P36" s="23">
-        <f t="shared" si="9"/>
         <v>10.4</v>
       </c>
-      <c r="Q36">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M36)</f>
+      <c r="T36">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P36)</f>
         <v>0.35897435897435898</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3516,28 +3709,31 @@
       <c r="L37" s="21">
         <v>0</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="3">
+        <f t="shared" si="8"/>
+        <v>476</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="6"/>
+        <v>9510</v>
+      </c>
+      <c r="R37" s="5">
+        <f>SUM(Q37*Table1[[#This Row],[Gold /HP]])</f>
+        <v>99855</v>
+      </c>
+      <c r="S37" s="23">
         <f t="shared" si="7"/>
-        <v>476</v>
-      </c>
-      <c r="N37" s="3">
-        <f t="shared" si="8"/>
-        <v>9510</v>
-      </c>
-      <c r="O37" s="5">
-        <f>SUM(N37*Table1[[#This Row],[Gold /HP]])</f>
-        <v>99855</v>
-      </c>
-      <c r="P37" s="23">
-        <f t="shared" si="9"/>
         <v>10.5</v>
       </c>
-      <c r="Q37">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M37)</f>
+      <c r="T37">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P37)</f>
         <v>0.35714285714285715</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3575,28 +3771,31 @@
       <c r="L38" s="21">
         <v>0</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="3">
+        <f t="shared" si="8"/>
+        <v>483</v>
+      </c>
+      <c r="Q38" s="3">
+        <f t="shared" si="6"/>
+        <v>9986</v>
+      </c>
+      <c r="R38" s="5">
+        <f>SUM(Q38*Table1[[#This Row],[Gold /HP]])</f>
+        <v>105851.59999999999</v>
+      </c>
+      <c r="S38" s="23">
         <f t="shared" si="7"/>
-        <v>483</v>
-      </c>
-      <c r="N38" s="3">
-        <f t="shared" si="8"/>
-        <v>9986</v>
-      </c>
-      <c r="O38" s="5">
-        <f>SUM(N38*Table1[[#This Row],[Gold /HP]])</f>
-        <v>105851.59999999999</v>
-      </c>
-      <c r="P38" s="23">
-        <f t="shared" si="9"/>
         <v>10.6</v>
       </c>
-      <c r="Q38">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M38)</f>
+      <c r="T38">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P38)</f>
         <v>0.35817805383022772</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3634,28 +3833,31 @@
       <c r="L39" s="21">
         <v>0</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="3">
+        <f t="shared" si="8"/>
+        <v>497</v>
+      </c>
+      <c r="Q39" s="3">
+        <f t="shared" si="6"/>
+        <v>10469</v>
+      </c>
+      <c r="R39" s="5">
+        <f>SUM(Q39*Table1[[#This Row],[Gold /HP]])</f>
+        <v>112018.29999999999</v>
+      </c>
+      <c r="S39" s="23">
         <f t="shared" si="7"/>
-        <v>497</v>
-      </c>
-      <c r="N39" s="3">
-        <f t="shared" si="8"/>
-        <v>10469</v>
-      </c>
-      <c r="O39" s="5">
-        <f>SUM(N39*Table1[[#This Row],[Gold /HP]])</f>
-        <v>112018.29999999999</v>
-      </c>
-      <c r="P39" s="23">
-        <f t="shared" si="9"/>
         <v>10.7</v>
       </c>
-      <c r="Q39">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M39)</f>
+      <c r="T39">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P39)</f>
         <v>0.3501006036217304</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3693,28 +3895,31 @@
       <c r="L40" s="21">
         <v>0</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="3">
+        <f t="shared" si="8"/>
+        <v>498</v>
+      </c>
+      <c r="Q40" s="3">
+        <f t="shared" si="6"/>
+        <v>10966</v>
+      </c>
+      <c r="R40" s="5">
+        <f>SUM(Q40*Table1[[#This Row],[Gold /HP]])</f>
+        <v>118432.8</v>
+      </c>
+      <c r="S40" s="23">
         <f t="shared" si="7"/>
-        <v>498</v>
-      </c>
-      <c r="N40" s="3">
-        <f t="shared" si="8"/>
-        <v>10966</v>
-      </c>
-      <c r="O40" s="5">
-        <f>SUM(N40*Table1[[#This Row],[Gold /HP]])</f>
-        <v>118432.8</v>
-      </c>
-      <c r="P40" s="23">
-        <f t="shared" si="9"/>
         <v>10.8</v>
       </c>
-      <c r="Q40">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M40)</f>
+      <c r="T40">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P40)</f>
         <v>0.3534136546184739</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3752,28 +3957,31 @@
       <c r="L41" s="21">
         <v>0</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
+      <c r="P41" s="3">
+        <f t="shared" si="8"/>
+        <v>524</v>
+      </c>
+      <c r="Q41" s="3">
+        <f t="shared" si="6"/>
+        <v>11464</v>
+      </c>
+      <c r="R41" s="5">
+        <f>SUM(Q41*Table1[[#This Row],[Gold /HP]])</f>
+        <v>124957.6</v>
+      </c>
+      <c r="S41" s="23">
         <f t="shared" si="7"/>
-        <v>524</v>
-      </c>
-      <c r="N41" s="3">
-        <f t="shared" si="8"/>
-        <v>11464</v>
-      </c>
-      <c r="O41" s="5">
-        <f>SUM(N41*Table1[[#This Row],[Gold /HP]])</f>
-        <v>124957.6</v>
-      </c>
-      <c r="P41" s="23">
-        <f t="shared" si="9"/>
         <v>10.9</v>
       </c>
-      <c r="Q41">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M41)</f>
+      <c r="T41">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P41)</f>
         <v>0.35877862595419846</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3811,28 +4019,31 @@
       <c r="L42" s="21">
         <v>0</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="3">
+        <f t="shared" si="8"/>
+        <v>530</v>
+      </c>
+      <c r="Q42" s="3">
+        <f t="shared" si="6"/>
+        <v>11988</v>
+      </c>
+      <c r="R42" s="5">
+        <f>SUM(Q42*Table1[[#This Row],[Gold /HP]])</f>
+        <v>131868</v>
+      </c>
+      <c r="S42" s="23">
         <f t="shared" si="7"/>
-        <v>530</v>
-      </c>
-      <c r="N42" s="3">
-        <f t="shared" si="8"/>
-        <v>11988</v>
-      </c>
-      <c r="O42" s="5">
-        <f>SUM(N42*Table1[[#This Row],[Gold /HP]])</f>
-        <v>131868</v>
-      </c>
-      <c r="P42" s="23">
-        <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="Q42">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M42)</f>
+      <c r="T42">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P42)</f>
         <v>0.35849056603773582</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3870,28 +4081,31 @@
       <c r="L43" s="21">
         <v>0</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="3">
+        <f t="shared" si="8"/>
+        <v>542</v>
+      </c>
+      <c r="Q43" s="3">
+        <f t="shared" si="6"/>
+        <v>12518</v>
+      </c>
+      <c r="R43" s="5">
+        <f>SUM(Q43*Table1[[#This Row],[Gold /HP]])</f>
+        <v>138949.79999999999</v>
+      </c>
+      <c r="S43" s="23">
         <f t="shared" si="7"/>
-        <v>542</v>
-      </c>
-      <c r="N43" s="3">
-        <f t="shared" si="8"/>
-        <v>12518</v>
-      </c>
-      <c r="O43" s="5">
-        <f>SUM(N43*Table1[[#This Row],[Gold /HP]])</f>
-        <v>138949.79999999999</v>
-      </c>
-      <c r="P43" s="23">
-        <f t="shared" si="9"/>
         <v>11.1</v>
       </c>
-      <c r="Q43">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M43)</f>
+      <c r="T43">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P43)</f>
         <v>0.35424354243542433</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3929,28 +4143,31 @@
       <c r="L44" s="21">
         <v>0</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="3">
+        <f t="shared" si="8"/>
+        <v>554</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="6"/>
+        <v>13060</v>
+      </c>
+      <c r="R44" s="5">
+        <f>SUM(Q44*Table1[[#This Row],[Gold /HP]])</f>
+        <v>146272</v>
+      </c>
+      <c r="S44" s="23">
         <f t="shared" si="7"/>
-        <v>554</v>
-      </c>
-      <c r="N44" s="3">
-        <f t="shared" si="8"/>
-        <v>13060</v>
-      </c>
-      <c r="O44" s="5">
-        <f>SUM(N44*Table1[[#This Row],[Gold /HP]])</f>
-        <v>146272</v>
-      </c>
-      <c r="P44" s="23">
-        <f t="shared" si="9"/>
         <v>11.2</v>
       </c>
-      <c r="Q44">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M44)</f>
+      <c r="T44">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P44)</f>
         <v>0.35018050541516244</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3988,28 +4205,31 @@
       <c r="L45" s="21">
         <v>0</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="3">
+        <f t="shared" si="8"/>
+        <v>568</v>
+      </c>
+      <c r="Q45" s="3">
+        <f t="shared" si="6"/>
+        <v>13614</v>
+      </c>
+      <c r="R45" s="5">
+        <f>SUM(Q45*Table1[[#This Row],[Gold /HP]])</f>
+        <v>153838.20000000001</v>
+      </c>
+      <c r="S45" s="23">
         <f t="shared" si="7"/>
-        <v>568</v>
-      </c>
-      <c r="N45" s="3">
-        <f t="shared" si="8"/>
-        <v>13614</v>
-      </c>
-      <c r="O45" s="5">
-        <f>SUM(N45*Table1[[#This Row],[Gold /HP]])</f>
-        <v>153838.20000000001</v>
-      </c>
-      <c r="P45" s="23">
-        <f t="shared" si="9"/>
         <v>11.3</v>
       </c>
-      <c r="Q45">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M45)</f>
+      <c r="T45">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P45)</f>
         <v>0.34859154929577463</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4047,28 +4267,31 @@
       <c r="L46" s="21">
         <v>0</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="3">
+        <f t="shared" si="8"/>
+        <v>592</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="6"/>
+        <v>14182</v>
+      </c>
+      <c r="R46" s="5">
+        <f>SUM(Q46*Table1[[#This Row],[Gold /HP]])</f>
+        <v>161674.80000000002</v>
+      </c>
+      <c r="S46" s="23">
         <f t="shared" si="7"/>
-        <v>592</v>
-      </c>
-      <c r="N46" s="3">
-        <f t="shared" si="8"/>
-        <v>14182</v>
-      </c>
-      <c r="O46" s="5">
-        <f>SUM(N46*Table1[[#This Row],[Gold /HP]])</f>
-        <v>161674.80000000002</v>
-      </c>
-      <c r="P46" s="23">
-        <f t="shared" si="9"/>
         <v>11.4</v>
       </c>
-      <c r="Q46">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M46)</f>
+      <c r="T46">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P46)</f>
         <v>0.33783783783783783</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4106,28 +4329,31 @@
       <c r="L47" s="21">
         <v>0</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="3">
+        <f t="shared" si="8"/>
+        <v>608</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="6"/>
+        <v>14774</v>
+      </c>
+      <c r="R47" s="5">
+        <f>SUM(Q47*Table1[[#This Row],[Gold /HP]])</f>
+        <v>169901</v>
+      </c>
+      <c r="S47" s="23">
         <f t="shared" si="7"/>
-        <v>608</v>
-      </c>
-      <c r="N47" s="3">
-        <f t="shared" si="8"/>
-        <v>14774</v>
-      </c>
-      <c r="O47" s="5">
-        <f>SUM(N47*Table1[[#This Row],[Gold /HP]])</f>
-        <v>169901</v>
-      </c>
-      <c r="P47" s="23">
-        <f t="shared" si="9"/>
         <v>11.5</v>
       </c>
-      <c r="Q47">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M47)</f>
+      <c r="T47">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P47)</f>
         <v>0.33223684210526316</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4165,28 +4391,31 @@
       <c r="L48" s="21">
         <v>0</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="3">
+        <f t="shared" si="8"/>
+        <v>638</v>
+      </c>
+      <c r="Q48" s="3">
+        <f t="shared" si="6"/>
+        <v>15382</v>
+      </c>
+      <c r="R48" s="5">
+        <f>SUM(Q48*Table1[[#This Row],[Gold /HP]])</f>
+        <v>178431.19999999998</v>
+      </c>
+      <c r="S48" s="23">
         <f t="shared" si="7"/>
-        <v>638</v>
-      </c>
-      <c r="N48" s="3">
-        <f t="shared" si="8"/>
-        <v>15382</v>
-      </c>
-      <c r="O48" s="5">
-        <f>SUM(N48*Table1[[#This Row],[Gold /HP]])</f>
-        <v>178431.19999999998</v>
-      </c>
-      <c r="P48" s="23">
-        <f t="shared" si="9"/>
         <v>11.6</v>
       </c>
-      <c r="Q48">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M48)</f>
+      <c r="T48">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P48)</f>
         <v>0.32601880877742945</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4224,28 +4453,31 @@
       <c r="L49" s="21">
         <v>0</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="3">
+        <f t="shared" si="8"/>
+        <v>642</v>
+      </c>
+      <c r="Q49" s="3">
+        <f t="shared" si="6"/>
+        <v>16020</v>
+      </c>
+      <c r="R49" s="5">
+        <f>SUM(Q49*Table1[[#This Row],[Gold /HP]])</f>
+        <v>187434</v>
+      </c>
+      <c r="S49" s="23">
         <f t="shared" si="7"/>
-        <v>642</v>
-      </c>
-      <c r="N49" s="3">
-        <f t="shared" si="8"/>
-        <v>16020</v>
-      </c>
-      <c r="O49" s="5">
-        <f>SUM(N49*Table1[[#This Row],[Gold /HP]])</f>
-        <v>187434</v>
-      </c>
-      <c r="P49" s="23">
-        <f t="shared" si="9"/>
         <v>11.7</v>
       </c>
-      <c r="Q49">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M49)</f>
+      <c r="T49">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P49)</f>
         <v>0.32710280373831774</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4283,28 +4515,31 @@
       <c r="L50" s="21">
         <v>0</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="3">
+        <f t="shared" si="8"/>
+        <v>646</v>
+      </c>
+      <c r="Q50" s="3">
+        <f t="shared" si="6"/>
+        <v>16662</v>
+      </c>
+      <c r="R50" s="5">
+        <f>SUM(Q50*Table1[[#This Row],[Gold /HP]])</f>
+        <v>196611.6</v>
+      </c>
+      <c r="S50" s="23">
         <f t="shared" si="7"/>
-        <v>646</v>
-      </c>
-      <c r="N50" s="3">
-        <f t="shared" si="8"/>
-        <v>16662</v>
-      </c>
-      <c r="O50" s="5">
-        <f>SUM(N50*Table1[[#This Row],[Gold /HP]])</f>
-        <v>196611.6</v>
-      </c>
-      <c r="P50" s="23">
-        <f t="shared" si="9"/>
         <v>11.8</v>
       </c>
-      <c r="Q50">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M50)</f>
+      <c r="T50">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P50)</f>
         <v>0.32817337461300311</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4342,24 +4577,27 @@
       <c r="L51" s="21">
         <v>0</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="3">
+        <f t="shared" si="8"/>
+        <v>655</v>
+      </c>
+      <c r="Q51" s="3">
+        <f t="shared" si="6"/>
+        <v>17308</v>
+      </c>
+      <c r="R51" s="5">
+        <f>SUM(Q51*Table1[[#This Row],[Gold /HP]])</f>
+        <v>205965.2</v>
+      </c>
+      <c r="S51" s="23">
         <f t="shared" si="7"/>
-        <v>655</v>
-      </c>
-      <c r="N51" s="3">
-        <f t="shared" si="8"/>
-        <v>17308</v>
-      </c>
-      <c r="O51" s="5">
-        <f>SUM(N51*Table1[[#This Row],[Gold /HP]])</f>
-        <v>205965.2</v>
-      </c>
-      <c r="P51" s="23">
-        <f t="shared" si="9"/>
         <v>11.9</v>
       </c>
-      <c r="Q51">
-        <f>SUM(Table1[[#This Row],[roundEndBonus]]/M51)</f>
+      <c r="T51">
+        <f>SUM(Table1[[#This Row],[roundEndBonus]]/P51)</f>
         <v>0.3282442748091603</v>
       </c>
     </row>

--- a/enemies/Enemies.xlsx
+++ b/enemies/Enemies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\enemies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999401BB-C7FB-405F-AF4F-BFA79D25E807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0F0B12-E7D6-42B9-A029-93FAD9991DB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
+    <workbookView xWindow="-28920" yWindow="-9810" windowWidth="29040" windowHeight="15840" xr2:uid="{7C7806C9-AC08-4287-BFE3-355EE0D4C54D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,16 @@
     <webPr xml="1" sourceData="1" url="C:\Users\spec\Documents\GitHub\TowerDefense\RoundsList.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
   <connection id="2" xr16:uid="{3B44CC6D-216A-457F-9DCC-8484C8A6FF3C}" name="RoundsList1" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="C:\Users\spec\Documents\GitHub\TowerDefense\RoundsList.xml" htmlTables="1" htmlFormat="all"/>
+    <webPr xml="1" sourceData="1" url="C:\Users\spec\Documents\GitHub\TowerDefense\Maps\Maps\Survival.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" xr16:uid="{2BB8DED1-15DE-4231-B80A-C3EB3B252642}" name="Survival" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\spec\Documents\GitHub\TowerDefense\Maps\Maps\Survival.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>maxArmor</t>
   </si>
@@ -283,13 +286,22 @@
     <t>round</t>
   </si>
   <si>
-    <t>skill1</t>
-  </si>
-  <si>
-    <t>skill2</t>
-  </si>
-  <si>
-    <t>skill3</t>
+    <t>eSkillOne</t>
+  </si>
+  <si>
+    <t>eSkillTwo</t>
+  </si>
+  <si>
+    <t>eSkillThree</t>
+  </si>
+  <si>
+    <t>hit,heal,3,1</t>
+  </si>
+  <si>
+    <t>timer,heal,1,.06</t>
+  </si>
+  <si>
+    <t>hit,stoneskin,5,5,10</t>
   </si>
 </sst>
 </file>
@@ -426,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -459,7 +471,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -877,14 +891,14 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Root">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
             <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Row" form="unqualified">
               <xsd:complexType>
-                <xsd:all>
+                <xsd:sequence minOccurs="0">
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="eName" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="currentRound" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="maxHp" form="unqualified"/>
@@ -895,7 +909,10 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="freq" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="armorType" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="maxArmor" form="unqualified"/>
-                </xsd:all>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="eSkillOne" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="eSkillTwo" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="eSkillThree" form="unqualified"/>
+                </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
           </xsd:sequence>
@@ -903,55 +920,61 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="3" Name="Root_Map" RootElement="Root" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  <Map ID="4" Name="Root_Map" RootElement="Root" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="A1:O51" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13" connectionId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1BBA0FDC-C389-4E24-9987-C97DC7FF1B39}" name="Table1" displayName="Table1" ref="A1:O51" tableType="xml" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" tableBorderDxfId="13" connectionId="3">
   <autoFilter ref="A1:O51" xr:uid="{BB7B5203-2FDA-44AD-8D6D-FF5DC36F0FBF}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{2550C9AA-BC88-494A-A101-FBB680E5CA21}" uniqueName="currentRound" name="round">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/currentRound" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/currentRound" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{EA42ACC1-AD5D-4190-B029-D38CD8D5DF28}" uniqueName="eName" name="eName">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/eName" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/eName" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{5708407B-65CE-45BC-8878-142AF21D5339}" uniqueName="10" name="Gold /HP" dataDxfId="12">
       <calculatedColumnFormula>SUM(ROUND((R2 / Q2),2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{F8F80C22-33BB-4B29-8273-4EA2699E1D19}" uniqueName="maxHp" name="maxHp" dataDxfId="11">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/maxHp" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/maxHp" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{E13F5E4A-47D2-47A2-B541-96BA6CA07669}" uniqueName="maxMoveSpeed" name="maxMoveSpeed" dataDxfId="10">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/maxMoveSpeed" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/maxMoveSpeed" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{798A0123-C7B3-4B90-8749-D85E3371CA67}" uniqueName="11" name="killedGold" dataDxfId="9">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{65BB117F-355C-4ECA-A7D8-AFCAE570A908}" uniqueName="goldValue" name="goldValue" dataDxfId="8">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/goldValue" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/goldValue" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B29D9AC1-07BD-4F52-ADEA-D6A65A2D96D2}" uniqueName="numberOfEnemies" name="numberOfEnemies" dataDxfId="7">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/numberOfEnemies" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/numberOfEnemies" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{1692D955-A0E1-48BD-AF37-2FB021F78F89}" uniqueName="roundEndBonus" name="roundEndBonus" dataDxfId="6">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/roundEndBonus" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/roundEndBonus" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{B9902638-912E-4928-890B-BB1532195A8E}" uniqueName="freq" name="freq" dataDxfId="5">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/freq" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/freq" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{5BB8CD04-BD5C-47C7-A4AA-1C266F8C4384}" uniqueName="armorType" name="armorType" dataDxfId="4">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/armorType" xmlDataType="string"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/armorType" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{3400F630-3C6A-40CE-935B-7CDDE29EF7FF}" uniqueName="maxArmor" name="maxArmor" dataDxfId="3">
-      <xmlColumnPr mapId="3" xpath="/Root/Row/maxArmor" xmlDataType="integer"/>
+      <xmlColumnPr mapId="4" xpath="/Root/Row/maxArmor" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{9B90EFD4-0EF8-4EA5-852F-941C3E8B1669}" uniqueName="15" name="skill1" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{17996CF2-83E2-435A-9F4D-319CD898D377}" uniqueName="14" name="skill2" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{FA870E8B-AAC4-488E-B98C-04EB462586D7}" uniqueName="13" name="skill3" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{9B90EFD4-0EF8-4EA5-852F-941C3E8B1669}" uniqueName="eSkillOne" name="eSkillOne" dataDxfId="2">
+      <xmlColumnPr mapId="4" xpath="/Root/Row/eSkillOne" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{17996CF2-83E2-435A-9F4D-319CD898D377}" uniqueName="eSkillTwo" name="eSkillTwo" dataDxfId="1">
+      <xmlColumnPr mapId="4" xpath="/Root/Row/eSkillTwo" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{FA870E8B-AAC4-488E-B98C-04EB462586D7}" uniqueName="eSkillThree" name="eSkillThree" dataDxfId="0">
+      <xmlColumnPr mapId="4" xpath="/Root/Row/eSkillThree" xmlDataType="string"/>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1259,31 +1282,34 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H22" sqref="H22"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="9" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="6.5703125" bestFit="1" customWidth="1"/>
@@ -1391,7 +1417,7 @@
         <v>24</v>
       </c>
       <c r="E2" s="17">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="17">
         <f>SUM(Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]])</f>
@@ -1415,7 +1441,7 @@
       <c r="L2" s="19">
         <v>0</v>
       </c>
-      <c r="M2" s="32"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
       <c r="P2" s="3">
@@ -1437,6 +1463,9 @@
         <f>SUM(Table1[[#This Row],[roundEndBonus]] / (Table1[[#This Row],[goldValue]]*Table1[[#This Row],[numberOfEnemies]]))</f>
         <v>0.42857142857142855</v>
       </c>
+      <c r="W2" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="AA2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1453,10 +1482,10 @@
       </c>
       <c r="C3" s="4">
         <f t="shared" si="0"/>
-        <v>3.28</v>
+        <v>3.56</v>
       </c>
       <c r="D3" s="16">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" s="17">
         <v>4</v>
@@ -1478,14 +1507,14 @@
         <v>18</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L3" s="21">
         <v>0</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
       <c r="P3" s="3">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -1496,16 +1525,19 @@
       </c>
       <c r="R3" s="5">
         <f t="shared" si="2"/>
-        <v>525</v>
+        <v>570</v>
       </c>
       <c r="S3" s="23">
         <f>SUM(ROUND((R3 / Q3),2))</f>
-        <v>3.28</v>
+        <v>3.56</v>
       </c>
       <c r="T3">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/P3)</f>
         <v>0.23076923076923078</v>
       </c>
+      <c r="W3" s="34" t="s">
+        <v>82</v>
+      </c>
       <c r="AA3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1526,10 +1558,10 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D4" s="16">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E4" s="17">
         <v>5</v>
@@ -1556,7 +1588,7 @@
       <c r="L4" s="19">
         <v>0</v>
       </c>
-      <c r="M4" s="32"/>
+      <c r="M4" s="33"/>
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
       <c r="P4" s="3">
@@ -1569,16 +1601,19 @@
       </c>
       <c r="R4" s="5">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="S4" s="23">
         <f t="shared" ref="S4:S21" si="4">SUM(ROUND((R4 / Q4),2))</f>
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="T4">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/P4)</f>
         <v>0.25925925925925924</v>
       </c>
+      <c r="W4" s="34" t="s">
+        <v>83</v>
+      </c>
       <c r="AA4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1599,10 +1634,10 @@
       </c>
       <c r="C5" s="4">
         <f t="shared" si="0"/>
-        <v>4.1100000000000003</v>
+        <v>4.01</v>
       </c>
       <c r="D5" s="16">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="17">
         <v>4</v>
@@ -1629,9 +1664,9 @@
       <c r="L5" s="21">
         <v>0</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
       <c r="P5" s="3">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -1642,11 +1677,11 @@
       </c>
       <c r="R5" s="5">
         <f t="shared" si="2"/>
-        <v>1312</v>
+        <v>1280</v>
       </c>
       <c r="S5" s="23">
         <f t="shared" si="4"/>
-        <v>4.1100000000000003</v>
+        <v>4.01</v>
       </c>
       <c r="T5">
         <f>SUM(Table1[[#This Row],[roundEndBonus]]/P5)</f>
@@ -1775,9 +1810,9 @@
       <c r="L7" s="21">
         <v>0</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
       <c r="P7" s="3">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -1921,9 +1956,9 @@
       <c r="L9" s="21">
         <v>0</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
       <c r="P9" s="3">
         <f t="shared" si="1"/>
         <v>168</v>
@@ -1994,7 +2029,7 @@
       <c r="L10" s="19">
         <v>0</v>
       </c>
-      <c r="M10" s="32"/>
+      <c r="M10" s="33"/>
       <c r="N10" s="32"/>
       <c r="O10" s="32"/>
       <c r="P10" s="3">
@@ -2067,9 +2102,9 @@
       <c r="L11" s="21">
         <v>0</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
       <c r="P11" s="3">
         <f t="shared" si="1"/>
         <v>173</v>
@@ -2213,9 +2248,9 @@
       <c r="L13" s="21">
         <v>0</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
       <c r="P13" s="3">
         <f t="shared" si="1"/>
         <v>212</v>
@@ -2339,9 +2374,9 @@
       <c r="L15" s="21">
         <v>0</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
       <c r="P15" s="3">
         <f t="shared" si="1"/>
         <v>246</v>
@@ -2465,9 +2500,9 @@
       <c r="L17" s="21">
         <v>0</v>
       </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
       <c r="P17" s="3">
         <f t="shared" si="1"/>
         <v>278</v>
@@ -2591,9 +2626,9 @@
       <c r="L19" s="21">
         <v>0</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
       <c r="P19" s="3">
         <f t="shared" si="1"/>
         <v>304</v>
@@ -2717,9 +2752,9 @@
       <c r="L21" s="9">
         <v>0</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
       <c r="P21" s="3">
         <f t="shared" si="1"/>
         <v>362</v>
@@ -2779,9 +2814,9 @@
       <c r="L22" s="21">
         <v>0</v>
       </c>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
       <c r="P22" s="3">
         <f t="shared" si="1"/>
         <v>306</v>
@@ -2841,9 +2876,9 @@
       <c r="L23" s="21">
         <v>0</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
       <c r="P23" s="3">
         <f t="shared" si="1"/>
         <v>310</v>
@@ -2903,9 +2938,9 @@
       <c r="L24" s="21">
         <v>0</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
       <c r="P24" s="3">
         <f t="shared" si="1"/>
         <v>314</v>
@@ -2965,9 +3000,9 @@
       <c r="L25" s="21">
         <v>0</v>
       </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
       <c r="P25" s="3">
         <f t="shared" si="1"/>
         <v>324</v>
@@ -3027,9 +3062,9 @@
       <c r="L26" s="21">
         <v>0</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
       <c r="P26" s="3">
         <f t="shared" si="1"/>
         <v>356</v>
@@ -3089,9 +3124,9 @@
       <c r="L27" s="21">
         <v>0</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
       <c r="P27" s="3">
         <f t="shared" si="1"/>
         <v>352</v>
@@ -3151,9 +3186,9 @@
       <c r="L28" s="21">
         <v>0</v>
       </c>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
       <c r="P28" s="3">
         <f t="shared" si="1"/>
         <v>341</v>
@@ -3213,9 +3248,9 @@
       <c r="L29" s="21">
         <v>0</v>
       </c>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
       <c r="P29" s="3">
         <f t="shared" si="1"/>
         <v>364</v>
@@ -3275,9 +3310,9 @@
       <c r="L30" s="21">
         <v>0</v>
       </c>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
       <c r="P30" s="3">
         <f t="shared" si="1"/>
         <v>370</v>
@@ -3337,9 +3372,9 @@
       <c r="L31" s="21">
         <v>0</v>
       </c>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
       <c r="P31" s="3">
         <f t="shared" si="1"/>
         <v>390</v>
@@ -3399,9 +3434,9 @@
       <c r="L32" s="21">
         <v>0</v>
       </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
       <c r="P32" s="3">
         <f t="shared" si="1"/>
         <v>398</v>
@@ -3461,9 +3496,9 @@
       <c r="L33" s="21">
         <v>0</v>
       </c>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
       <c r="P33" s="3">
         <f t="shared" si="1"/>
         <v>412</v>
@@ -3523,9 +3558,9 @@
       <c r="L34" s="21">
         <v>0</v>
       </c>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
       <c r="P34" s="3">
         <f t="shared" ref="P34:P51" si="8">SUM((H34*G34)+I34)</f>
         <v>435</v>
@@ -3585,9 +3620,9 @@
       <c r="L35" s="21">
         <v>0</v>
       </c>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
       <c r="P35" s="3">
         <f t="shared" si="8"/>
         <v>446</v>
@@ -3647,9 +3682,9 @@
       <c r="L36" s="21">
         <v>0</v>
       </c>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
       <c r="P36" s="3">
         <f t="shared" si="8"/>
         <v>468</v>
@@ -3709,9 +3744,9 @@
       <c r="L37" s="21">
         <v>0</v>
       </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
       <c r="P37" s="3">
         <f t="shared" si="8"/>
         <v>476</v>
@@ -3771,9 +3806,9 @@
       <c r="L38" s="21">
         <v>0</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
       <c r="P38" s="3">
         <f t="shared" si="8"/>
         <v>483</v>
@@ -3833,9 +3868,9 @@
       <c r="L39" s="21">
         <v>0</v>
       </c>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
       <c r="P39" s="3">
         <f t="shared" si="8"/>
         <v>497</v>
@@ -3895,9 +3930,9 @@
       <c r="L40" s="21">
         <v>0</v>
       </c>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="29"/>
+      <c r="O40" s="29"/>
       <c r="P40" s="3">
         <f t="shared" si="8"/>
         <v>498</v>
@@ -3957,9 +3992,9 @@
       <c r="L41" s="21">
         <v>0</v>
       </c>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="29"/>
       <c r="P41" s="3">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -4019,9 +4054,9 @@
       <c r="L42" s="21">
         <v>0</v>
       </c>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="29"/>
+      <c r="O42" s="29"/>
       <c r="P42" s="3">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -4081,9 +4116,9 @@
       <c r="L43" s="21">
         <v>0</v>
       </c>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
+      <c r="O43" s="29"/>
       <c r="P43" s="3">
         <f t="shared" si="8"/>
         <v>542</v>
@@ -4143,9 +4178,9 @@
       <c r="L44" s="21">
         <v>0</v>
       </c>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
+      <c r="M44" s="29"/>
+      <c r="N44" s="29"/>
+      <c r="O44" s="29"/>
       <c r="P44" s="3">
         <f t="shared" si="8"/>
         <v>554</v>
@@ -4205,9 +4240,9 @@
       <c r="L45" s="21">
         <v>0</v>
       </c>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
+      <c r="M45" s="29"/>
+      <c r="N45" s="29"/>
+      <c r="O45" s="29"/>
       <c r="P45" s="3">
         <f t="shared" si="8"/>
         <v>568</v>
@@ -4267,9 +4302,9 @@
       <c r="L46" s="21">
         <v>0</v>
       </c>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="29"/>
+      <c r="O46" s="29"/>
       <c r="P46" s="3">
         <f t="shared" si="8"/>
         <v>592</v>
@@ -4329,9 +4364,9 @@
       <c r="L47" s="21">
         <v>0</v>
       </c>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="29"/>
+      <c r="O47" s="29"/>
       <c r="P47" s="3">
         <f t="shared" si="8"/>
         <v>608</v>
@@ -4391,9 +4426,9 @@
       <c r="L48" s="21">
         <v>0</v>
       </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
+      <c r="M48" s="29"/>
+      <c r="N48" s="29"/>
+      <c r="O48" s="29"/>
       <c r="P48" s="3">
         <f t="shared" si="8"/>
         <v>638</v>
@@ -4453,9 +4488,9 @@
       <c r="L49" s="21">
         <v>0</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
       <c r="P49" s="3">
         <f t="shared" si="8"/>
         <v>642</v>
@@ -4515,9 +4550,9 @@
       <c r="L50" s="21">
         <v>0</v>
       </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
       <c r="P50" s="3">
         <f t="shared" si="8"/>
         <v>646</v>
@@ -4577,9 +4612,9 @@
       <c r="L51" s="21">
         <v>0</v>
       </c>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="29"/>
+      <c r="O51" s="29"/>
       <c r="P51" s="3">
         <f t="shared" si="8"/>
         <v>655</v>
